--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C8DCD3-382B-BE43-91FD-5C9B0B4C0056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E76536-CF02-3A4C-B42C-B0084F0AF24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
   <si>
     <t>index</t>
   </si>
@@ -377,220 +377,166 @@
     <t>authors</t>
   </si>
   <si>
-    <t>technique</t>
-  </si>
-  <si>
     <t>index_EN</t>
   </si>
   <si>
-    <t>hucre-ici-birikimler_EN</t>
-  </si>
-  <si>
-    <t>hucre-disi-birikimler_EN</t>
-  </si>
-  <si>
-    <t>hucre-hasari_EN</t>
-  </si>
-  <si>
-    <t>iskemi-nekroz_EN</t>
-  </si>
-  <si>
-    <t>konjesyon_EN</t>
-  </si>
-  <si>
-    <t>amiloid_EN</t>
-  </si>
-  <si>
-    <t>tamir_EN</t>
-  </si>
-  <si>
-    <t>erozyon_EN</t>
-  </si>
-  <si>
-    <t>akut-inflamasyon_EN</t>
-  </si>
-  <si>
-    <t>kronik-inflamasyon_EN</t>
-  </si>
-  <si>
-    <t>granulom_EN</t>
-  </si>
-  <si>
-    <t>virus_EN</t>
-  </si>
-  <si>
-    <t>bakteri_EN</t>
-  </si>
-  <si>
-    <t>mantar_EN</t>
-  </si>
-  <si>
-    <t>parazit_EN</t>
-  </si>
-  <si>
-    <t>benign_EN</t>
-  </si>
-  <si>
-    <t>hamartom_EN</t>
-  </si>
-  <si>
-    <t>heterotopi_EN</t>
-  </si>
-  <si>
-    <t>metaplazi_EN</t>
-  </si>
-  <si>
-    <t>karsinogenez_EN</t>
-  </si>
-  <si>
-    <t>malign_EN</t>
-  </si>
-  <si>
-    <t>metastaz_EN</t>
-  </si>
-  <si>
-    <t>tumor-yayilimi_EN</t>
-  </si>
-  <si>
-    <t>venoz-invazyon_EN</t>
-  </si>
-  <si>
-    <t>ekstramural-venoz-invazyon_EN</t>
-  </si>
-  <si>
-    <t>hodgkin_EN</t>
-  </si>
-  <si>
-    <t>gastro_EN</t>
-  </si>
-  <si>
-    <t>ozofagus_EN</t>
-  </si>
-  <si>
-    <t>mide_EN</t>
-  </si>
-  <si>
-    <t>gastrit_EN</t>
-  </si>
-  <si>
-    <t>duodenum_EN</t>
-  </si>
-  <si>
-    <t>kolon_EN</t>
-  </si>
-  <si>
-    <t>crohn_EN</t>
-  </si>
-  <si>
-    <t>karaciger_EN</t>
-  </si>
-  <si>
-    <t>karaciger-benign_EN</t>
-  </si>
-  <si>
-    <t>pankreas_EN</t>
-  </si>
-  <si>
-    <t>pdac_EN</t>
-  </si>
-  <si>
-    <t>safra-kesesi_EN</t>
-  </si>
-  <si>
-    <t>ampulla-vater_EN</t>
-  </si>
-  <si>
-    <t>noroendokrin_EN</t>
-  </si>
-  <si>
-    <t>mezotel_EN</t>
-  </si>
-  <si>
-    <t>jineko_EN</t>
-  </si>
-  <si>
-    <t>genital_EN</t>
-  </si>
-  <si>
-    <t>serviks_EN</t>
-  </si>
-  <si>
-    <t>endometrium_EN</t>
-  </si>
-  <si>
-    <t>endometriosis_EN</t>
-  </si>
-  <si>
-    <t>uriner_EN</t>
-  </si>
-  <si>
-    <t>bobrek_EN</t>
-  </si>
-  <si>
-    <t>prostat_EN</t>
-  </si>
-  <si>
-    <t>hipofiz_EN</t>
-  </si>
-  <si>
-    <t>meme_EN</t>
-  </si>
-  <si>
-    <t>nazofarenks_EN</t>
-  </si>
-  <si>
-    <t>kulak_EN</t>
-  </si>
-  <si>
-    <t>tukuruk_EN</t>
-  </si>
-  <si>
-    <t>gliom_EN</t>
-  </si>
-  <si>
-    <t>meningiom_EN</t>
-  </si>
-  <si>
-    <t>sss-vaskuler_EN</t>
-  </si>
-  <si>
-    <t>kemik_EN</t>
-  </si>
-  <si>
-    <t>adipoz_EN</t>
-  </si>
-  <si>
-    <t>plasenta_EN</t>
-  </si>
-  <si>
-    <t>gbd_EN</t>
-  </si>
-  <si>
-    <t>hacettepecom_EN</t>
-  </si>
-  <si>
-    <t>bs_EN</t>
-  </si>
-  <si>
-    <t>ice_EN</t>
-  </si>
-  <si>
-    <t>wsi_EN</t>
-  </si>
-  <si>
-    <t>referanslar_EN</t>
-  </si>
-  <si>
-    <t>katki_EN</t>
-  </si>
-  <si>
-    <t>yorum_EN</t>
-  </si>
-  <si>
-    <t>listing_EN</t>
-  </si>
-  <si>
-    <t>listing2_EN</t>
+    <t>intracellular-accumulations</t>
+  </si>
+  <si>
+    <t>techniques</t>
+  </si>
+  <si>
+    <t>extracellular-accumulations</t>
+  </si>
+  <si>
+    <t>cell-injury</t>
+  </si>
+  <si>
+    <t>ischemia-necrosis</t>
+  </si>
+  <si>
+    <t>congestion</t>
+  </si>
+  <si>
+    <t>amyloidosis</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>erosion</t>
+  </si>
+  <si>
+    <t>acute-inflammation</t>
+  </si>
+  <si>
+    <t>chronic-inflammation</t>
+  </si>
+  <si>
+    <t>granulamatous-inflammation</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>fungi</t>
+  </si>
+  <si>
+    <t>parasites</t>
+  </si>
+  <si>
+    <t>hamartoma</t>
+  </si>
+  <si>
+    <t>heterotopia</t>
+  </si>
+  <si>
+    <t>metaplasia</t>
+  </si>
+  <si>
+    <t>carcinogenesis</t>
+  </si>
+  <si>
+    <t>malignant</t>
+  </si>
+  <si>
+    <t>metastasis</t>
+  </si>
+  <si>
+    <t>tumor-spread</t>
+  </si>
+  <si>
+    <t>venous-invasion</t>
+  </si>
+  <si>
+    <t>extramural-venous-invasion</t>
+  </si>
+  <si>
+    <t>esophagus</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>gastritis</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>benign-liver-tumors</t>
+  </si>
+  <si>
+    <t>pancreas</t>
+  </si>
+  <si>
+    <t>gallbladder</t>
+  </si>
+  <si>
+    <t>neuroendocrine</t>
+  </si>
+  <si>
+    <t>mesothelial</t>
+  </si>
+  <si>
+    <t>gynecologic</t>
+  </si>
+  <si>
+    <t>cervix</t>
+  </si>
+  <si>
+    <t>urinary</t>
+  </si>
+  <si>
+    <t>kidney</t>
+  </si>
+  <si>
+    <t>prostate</t>
+  </si>
+  <si>
+    <t>pituitary</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>nasopharynx</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>salivary</t>
+  </si>
+  <si>
+    <t>glioma</t>
+  </si>
+  <si>
+    <t>meningioma</t>
+  </si>
+  <si>
+    <t>cns-vascular</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>adipose</t>
+  </si>
+  <si>
+    <t>placenta</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>contributions</t>
+  </si>
+  <si>
+    <t>comments</t>
   </si>
 </sst>
 </file>
@@ -946,19 +892,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="10" width="3.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1013,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1046,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1057,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1178,7 +1126,7 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1189,7 +1137,7 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1200,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1211,7 +1159,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1222,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,7 +1181,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1244,7 +1192,7 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1255,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1266,7 +1214,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1277,7 +1225,7 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,7 +1236,7 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1299,7 +1247,7 @@
         <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1310,7 +1258,7 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,7 +1269,7 @@
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1332,7 +1280,7 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1343,7 +1291,7 @@
         <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1354,7 +1302,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1365,7 +1313,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1376,7 +1324,7 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1387,7 +1335,7 @@
         <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1398,7 +1346,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1409,7 +1357,7 @@
         <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1420,7 +1368,7 @@
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,7 +1390,7 @@
         <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1453,7 +1401,7 @@
         <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,7 +1412,7 @@
         <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,7 +1423,7 @@
         <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1486,7 +1434,7 @@
         <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,7 +1445,7 @@
         <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1508,7 +1456,7 @@
         <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,7 +1467,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1530,7 +1478,7 @@
         <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1541,7 +1489,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1552,7 +1500,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1563,7 +1511,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1574,7 +1522,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1585,7 +1533,7 @@
         <v>80</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1596,7 +1544,7 @@
         <v>82</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1607,7 +1555,7 @@
         <v>84</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1618,7 +1566,7 @@
         <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1629,7 +1577,7 @@
         <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1640,7 +1588,7 @@
         <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1651,7 +1599,7 @@
         <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1662,7 +1610,7 @@
         <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1673,7 +1621,7 @@
         <v>92</v>
       </c>
       <c r="F62" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1684,7 +1632,7 @@
         <v>94</v>
       </c>
       <c r="F63" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1695,7 +1643,7 @@
         <v>96</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1706,7 +1654,7 @@
         <v>98</v>
       </c>
       <c r="F65" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1717,7 +1665,7 @@
         <v>100</v>
       </c>
       <c r="F66" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1728,7 +1676,7 @@
         <v>101</v>
       </c>
       <c r="F67" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1739,7 +1687,7 @@
         <v>102</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1750,7 +1698,7 @@
         <v>103</v>
       </c>
       <c r="F69" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1761,7 +1709,7 @@
         <v>104</v>
       </c>
       <c r="F70" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -1772,7 +1720,7 @@
         <v>105</v>
       </c>
       <c r="F71" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1783,7 +1731,7 @@
         <v>107</v>
       </c>
       <c r="F72" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1794,7 +1742,7 @@
         <v>108</v>
       </c>
       <c r="F73" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -1805,7 +1753,7 @@
         <v>109</v>
       </c>
       <c r="F74" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -1816,7 +1764,7 @@
         <v>110</v>
       </c>
       <c r="F75" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E76536-CF02-3A4C-B42C-B0084F0AF24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC588FA-D9D6-D444-9923-1E65F7099BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="chapters" sheetId="1" r:id="rId1"/>
+    <sheet name="img_url_links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">img_url_links!$B$1:$C$506</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="444">
   <si>
     <t>index</t>
   </si>
@@ -242,12 +246,6 @@
     <t>Jinekolojik Patoloji</t>
   </si>
   <si>
-    <t>WSI_screenshot</t>
-  </si>
-  <si>
-    <t>WSI_link</t>
-  </si>
-  <si>
     <t>EN_Dx</t>
   </si>
   <si>
@@ -537,6 +535,843 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/mucicarmine_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/mucin/mucicarmine.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/cish_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/her2-cish/cish.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/cholesterolpolyp_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/cholesterolpolyp/HE.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/glycogenstorage-HE_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/glycogenstorage/HE.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/glycogenstorage-PAS_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/glycogenstorage/PAS.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/glycogenstorage-PASD_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/glycogenstorage/PASD.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/anthracosis1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/anthracosis/HE2.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/melanosiscoli-HE_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/melanosiscoli/HE.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/melanosiscoli-PAS_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/melanosiscoli/PAS.html</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>html_url</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/myxoidliposarcoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/acute-appendicitis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/amyloid/crystalviolet.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/congored/congored.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/ampullary-adenocarcinoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/WDNET-ampulla/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/helicobacterpylori/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/helicobacterpylori/warthinstarry.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/helicobacterpylori/giemsa.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/helicobacterpylori/IHC.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/tubularadenoma-flat/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/tubularadenoma-flat/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/tubularadenoma/tubular-adenoma-with-stalk/viewer_z0.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/kidneyoncocytoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/crohn-colonoscopic-biopsy/all.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/crohn-colonoscopic-biopsy/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/crohn-colonoscopic-biopsy/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/crohn-colonoscopic-biopsy/HE3.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/crohn-colonoscopic-biopsy/HE4.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/celiac-disease/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/extramuralvenousinvasion/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/extramuralvenousinvasion/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/extramural-venous-invasion/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/endometriosis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/endometrial-polyp/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/erosion/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/lymphocytic-gastritis/all.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/lymphocytic-gastritis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/lymphocytic-gastritis/CD3.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/lymphocytic-gastritis/CD8.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/lymphocytic-gastritis/CD20.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/high-grade-glioma-squash/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/necrotisinggranuloma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-1/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-2/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-3/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-4/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-4/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-5/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-6/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-7/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-8/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-9/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-10/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-11/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-12/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-13/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-14/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-17/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-17/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-18/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-19/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-21/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-23/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-24/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-25/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-27/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-27/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-28/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-28/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-31/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-32/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-33/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-38/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hacettepe-com-case-39/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hamartomatouspolyp/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/schwanncellhamartoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/intrapancreaticspleen/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/ectopic-adrenal/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/pituitary-adenoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hodgkin/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/ochronosis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/reactive-atypia/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/anthracosis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/ICE1-WDNET-duodenum/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/fat-necrosis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/ovarianserousmicropapillary/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/liver-hemangioma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hepatocellularcarcinoma/HCC/viewer_z0.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/fibrolamellar-hepatocellular-carcinoma/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/fibrolamellar-hepatocellular-carcinoma/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/fibrolamellar-hepatocellular-carcinoma/HE3.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/fibrolamellar-hepatocellular-carcinoma/HE4.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/carcinogenesis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/exostosis/oc.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/exostosis/oc001.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/exostosis/oc002.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/ischemic-colitis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/hyperplasticpolyp/case1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/colon-submucosal-lipoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/mucinous-adenocarcinoma-colon/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/colon-adenocarcinoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/colon-adenocarcinoma/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/colon-adenocarcinoma/HE3.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/congestion-spleen/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/chronicpyelonephritis/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/chronicpyelonephritis/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/chronic-pyelonephritis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/cholesteatoma/cholesteatoma.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/pleomorphism/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/candidaalbicans/cervicovaginalsmear/viewer_z0.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/brain-mucormycosis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/brain-mucormycosis/GMS.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/brain-invasive-meningioma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/meningioma-bone-infiltration/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/metaplasia/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/metaplasia/trypsin.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/metastaticsarcoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/insidious-lymph-node-metastasis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/insidious-lymph-node-metastasis/OSKARCK.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/abdominal-mezotelyoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/gastritis-cystica-profunda/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/nasopharynx-nonkeratinizing-scc/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/nasopharynx-nonkeratinizing-scc/panCK.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/nasopharynx-nonkeratinizing-scc/p63.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/nasopharynx-nonkeratinizing-scc/EBER.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/neuroendocrine-cytology/giemsa.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/granular-cell-tumor/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/pancreas-undifferentiated-osteoclast/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/enterobius-vermicularis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/PDAC-tru-cut/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/PDAC-tru-cut/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/PDAC-tru-cut/HE3.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/chorioamnionitis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/benign-prostate-hyperplasia/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/gallbladder-adenomyoma/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/ischemia-gangrenous-cholecystitis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/cervix-SCC/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/brain-arteriovenous-malformation/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/fibrosis/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/keloid-scar/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/mammary-analogue-secretory-carcinoma/HE1.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/mammary-analogue-secretory-carcinoma/HE2.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/tumor-spread/HE-cervix.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/tumor-spread/HE-endometrium.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/tumor-spread/HE-over.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/tumor-spread/HE-small-intestine.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/venous-invasion/HE.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/HSV/herpesesophagitis/viewer_z0.html</t>
+  </si>
+  <si>
+    <t>https://images.patolojiatlasi.com/molluscum-contagiosum/HE.html</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/myxoidliposarcoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/acute-appendicitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/crystalviolet_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/congored_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/ampullary-adenocarcinoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/WDNET-ampulla_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/helicobacterpylori_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/helicobacterpyloriWS_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/helicobacterpyloriGiemsa_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/helicobacterpyloriIHC_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/tubularadenoma-flat1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/tubularadenoma-flat2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/tubular-adenoma-with-stalk_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/kidneyoncocytoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/crohn-colonoscopic-biopsy-all_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/crohn-colonoscopic-biopsy-HE1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/crohn-colonoscopic-biopsy-HE2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/crohn-colonoscopic-biopsy-HE3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/crohn-colonoscopic-biopsy-HE4_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/celiac-disease_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/extramuralvenousinvasion_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/extramural-venous-invasion_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/endometriosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/endometrial-polyp_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/erosion_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/lymphocytic-gastritis-all_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/lymphocytic-gastritisHE_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/lymphocytic-gastritisCD3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/lymphocytic-gastritisCD8_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/lymphocytic-gastritisCD20_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/high-grade-glioma-squash_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/necrotisinggranuloma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-4_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-4-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-5_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-6_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-7_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-8_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-9_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hacettepe-com-case-10_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hamartomatouspolyp_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/schwanncellhamartoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/intrapancreaticspleen_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/ectopic-adrenal_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/pituitary-adenoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hodgkin_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/ochronosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/reactive-atypia_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/anthracosis2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/ICE1-WDNET-duodenum_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/fat-necrosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/ovarianserousmicropapillary_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/liver-hemangioma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hepatocellularcarcinoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/fibrolamellar-hepatocellular-carcinoma-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/fibrolamellar-hepatocellular-carcinoma-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/fibrolamellar-hepatocellular-carcinoma-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/fibrolamellar-hepatocellular-carcinoma-4_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/carcinogenesis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/exostosis-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/exostosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/exostosis-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/ischemic-colitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/hyperplasticpolyp-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/colon-submucosal-lipoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/mucinous-adenocarcinoma-colon_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/colon-adenocarcinoma-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/colon-adenocarcinoma-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/colon-adenocarcinoma-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/congestion-spleen_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/chronicpyelonephritis-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/chronicpyelonephritis-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/chronic-pyelonephritis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/cholesteatoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/pleomorphism_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/candidaalbicans_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/brain-mucormycosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/brain-invasive-meningioma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/meningioma-bone-infiltration_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/metaplasia_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/metaplasia-trypsin_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/metastaticsarcoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/insidious-lymph-node-metastasis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/insidious-lymph-node-metastasis-OSKARCK_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/abdominal-mezotelyoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/gastritis-cystica-profunda_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/nasopharynx-nonkeratinizing-scc-HE_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/nasopharynx-nonkeratinizing-scc-panCK_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/nasopharynx-nonkeratinizing-scc-p63_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/nasopharynx-nonkeratinizing-scc-EBER_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/neuroendocrine-cytology-giemsa_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/granular-cell-tumor_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/pancreas-undifferentiated-osteoclast_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/enterobius-vermicularis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/PDAC-tru-cut-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/PDAC-tru-cut-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/PDAC-tru-cut-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/chorioamnionitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/benign-prostate-hyperplasia_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/gallbladder-adenomyoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/ischemia-gangrenous-cholecystitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/cervix-SCC_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/brain-arteriovenous-malformation_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/fibrosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/keloid-scar_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/mammary-analogue-secretory-carcinoma1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/mammary-analogue-secretory-carcinoma2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/tumor-spread-cervix_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/tumor-spread-endometrium_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/tumor-spread-over_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/tumor-spread-small-intestine_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/venous-invasion_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/herpesesophagitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/molluscum-contagiosum_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/brain-mucormycosis-GMS_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.patolojiatlasi.com/screenshots/extramuralvenousinvasion-2_screenshot.png</t>
   </si>
 </sst>
 </file>
@@ -578,7 +1413,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -888,28 +1734,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" customWidth="1"/>
     <col min="8" max="10" width="3.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -940,20 +1784,8 @@
       <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -961,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -972,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -983,10 +1815,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -994,10 +1826,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1005,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1016,10 +1848,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1027,10 +1859,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1038,10 +1870,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1049,10 +1881,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1060,10 +1892,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1071,10 +1903,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1082,10 +1914,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1093,10 +1925,10 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1104,10 +1936,10 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1137,7 +1969,7 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1148,7 +1980,7 @@
         <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1159,7 +1991,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1181,7 +2013,7 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,7 +2024,7 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1203,7 +2035,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1214,7 +2046,7 @@
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,7 +2057,7 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1236,7 +2068,7 @@
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1247,7 +2079,7 @@
         <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,7 +2090,7 @@
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,7 +2101,7 @@
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1302,7 +2134,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1313,7 +2145,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,7 +2156,7 @@
         <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1346,7 +2178,7 @@
         <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1368,7 +2200,7 @@
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1379,7 +2211,7 @@
         <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1390,7 +2222,7 @@
         <v>53</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1412,7 +2244,7 @@
         <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1434,7 +2266,7 @@
         <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1445,7 +2277,7 @@
         <v>66</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1453,10 +2285,10 @@
         <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,10 +2296,10 @@
         <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,10 +2307,10 @@
         <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1486,10 +2318,10 @@
         <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,278 +2329,1896 @@
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
         <v>77</v>
       </c>
-      <c r="D53" t="s">
-        <v>79</v>
-      </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
         <v>85</v>
       </c>
-      <c r="D58" t="s">
-        <v>87</v>
-      </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
         <v>89</v>
       </c>
-      <c r="D61" t="s">
-        <v>91</v>
-      </c>
       <c r="F61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" t="s">
         <v>99</v>
       </c>
-      <c r="D67" t="s">
-        <v>101</v>
-      </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" t="s">
         <v>106</v>
       </c>
-      <c r="D73" t="s">
-        <v>108</v>
-      </c>
       <c r="F73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778041DF-66F8-024B-9CEF-40948B51CD1F}">
+  <dimension ref="A1:E150"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>441</v>
+      </c>
+      <c r="C27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>410</v>
+      </c>
+      <c r="C45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>436</v>
+      </c>
+      <c r="C48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>437</v>
+      </c>
+      <c r="C49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>438</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>439</v>
+      </c>
+      <c r="C51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>443</v>
+      </c>
+      <c r="C53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>373</v>
+      </c>
+      <c r="C55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>419</v>
+      </c>
+      <c r="C56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>413</v>
+      </c>
+      <c r="C57" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>350</v>
+      </c>
+      <c r="C58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>354</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>344</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" t="s">
+        <v>390</v>
+      </c>
+      <c r="C64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>335</v>
+      </c>
+      <c r="C65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>336</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>391</v>
+      </c>
+      <c r="C68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>392</v>
+      </c>
+      <c r="C69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" t="s">
+        <v>393</v>
+      </c>
+      <c r="C70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" t="s">
+        <v>394</v>
+      </c>
+      <c r="C71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" t="s">
+        <v>395</v>
+      </c>
+      <c r="C72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>396</v>
+      </c>
+      <c r="C73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" t="s">
+        <v>343</v>
+      </c>
+      <c r="C78" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" t="s">
+        <v>381</v>
+      </c>
+      <c r="C79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" t="s">
+        <v>382</v>
+      </c>
+      <c r="C80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>383</v>
+      </c>
+      <c r="C81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" t="s">
+        <v>420</v>
+      </c>
+      <c r="C85" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" t="s">
+        <v>422</v>
+      </c>
+      <c r="C86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>423</v>
+      </c>
+      <c r="C87" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" t="s">
+        <v>424</v>
+      </c>
+      <c r="C88" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>427</v>
+      </c>
+      <c r="C89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>428</v>
+      </c>
+      <c r="C90" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>418</v>
+      </c>
+      <c r="C93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" t="s">
+        <v>412</v>
+      </c>
+      <c r="C94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" t="s">
+        <v>429</v>
+      </c>
+      <c r="C96" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" t="s">
+        <v>347</v>
+      </c>
+      <c r="C98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" t="s">
+        <v>426</v>
+      </c>
+      <c r="C100" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" t="s">
+        <v>372</v>
+      </c>
+      <c r="C101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" t="s">
+        <v>414</v>
+      </c>
+      <c r="C102" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" t="s">
+        <v>415</v>
+      </c>
+      <c r="C103" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" t="s">
+        <v>417</v>
+      </c>
+      <c r="C105" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" t="s">
+        <v>401</v>
+      </c>
+      <c r="C106" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" t="s">
+        <v>433</v>
+      </c>
+      <c r="C107" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>434</v>
+      </c>
+      <c r="C108" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" t="s">
+        <v>355</v>
+      </c>
+      <c r="C109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" t="s">
+        <v>405</v>
+      </c>
+      <c r="C110" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" t="s">
+        <v>406</v>
+      </c>
+      <c r="C111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" t="s">
+        <v>388</v>
+      </c>
+      <c r="C113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" t="s">
+        <v>387</v>
+      </c>
+      <c r="C114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" t="s">
+        <v>389</v>
+      </c>
+      <c r="C115" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" t="s">
+        <v>325</v>
+      </c>
+      <c r="C116" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>96</v>
+      </c>
+      <c r="B117" t="s">
+        <v>425</v>
+      </c>
+      <c r="C117" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122" t="s">
+        <v>361</v>
+      </c>
+      <c r="C122" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" t="s">
+        <v>362</v>
+      </c>
+      <c r="C123" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" t="s">
+        <v>363</v>
+      </c>
+      <c r="C124" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" t="s">
+        <v>365</v>
+      </c>
+      <c r="C126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" t="s">
+        <v>367</v>
+      </c>
+      <c r="C128" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>99</v>
+      </c>
+      <c r="C129" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>99</v>
+      </c>
+      <c r="C131" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>99</v>
+      </c>
+      <c r="C133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>99</v>
+      </c>
+      <c r="C137" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>99</v>
+      </c>
+      <c r="C143" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>99</v>
+      </c>
+      <c r="C144" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>99</v>
+      </c>
+      <c r="C145" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>99</v>
+      </c>
+      <c r="C146" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>99</v>
+      </c>
+      <c r="C148" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>99</v>
+      </c>
+      <c r="C149" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>101</v>
+      </c>
+      <c r="B150" t="s">
+        <v>377</v>
+      </c>
+      <c r="C150" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B156:C159 B161:C161 B163:C163 B165:C165 B175:C176 B188:C190 B192:C1048576 B154:B155 B117:C150 B1:C115">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC588FA-D9D6-D444-9923-1E65F7099BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C5BA0-F864-3B4E-AD49-795C05AE2539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
     <sheet name="img_url_links" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">img_url_links!$B$1:$C$506</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">img_url_links!$B$1:$D$506</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="573">
   <si>
     <t>index</t>
   </si>
@@ -591,9 +591,6 @@
     <t>https://images.patolojiatlasi.com/melanosiscoli/PAS.html</t>
   </si>
   <si>
-    <t>image_url</t>
-  </si>
-  <si>
     <t>html_url</t>
   </si>
   <si>
@@ -1372,6 +1369,396 @@
   </si>
   <si>
     <t>https://www.patolojiatlasi.com/screenshots/extramuralvenousinvasion-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>image_url_TR</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/mucicarmine_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/cish_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/cholesterolpolyp_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/glycogenstorage-HE_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/glycogenstorage-PAS_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/glycogenstorage-PASD_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/anthracosis1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/anthracosis2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/melanosiscoli-HE_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/melanosiscoli-PAS_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/ochronosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/reactive-atypia_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/fat-necrosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/congestion-spleen_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/crystalviolet_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/congored_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/fibrosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/keloid-scar_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/erosion_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/acute-appendicitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/chronicpyelonephritis-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/chronicpyelonephritis-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/chronic-pyelonephritis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/necrotisinggranuloma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/herpesesophagitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/molluscum-contagiosum_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/helicobacterpylori_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/helicobacterpyloriWS_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/helicobacterpyloriGiemsa_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/helicobacterpyloriIHC_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/candidaalbicans_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/brain-mucormycosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/brain-mucormycosis-GMS_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/enterobius-vermicularis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hamartomatouspolyp_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/schwanncellhamartoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/intrapancreaticspleen_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/ectopic-adrenal_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/metaplasia_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/metaplasia-trypsin_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/carcinogenesis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/pleomorphism_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/metastaticsarcoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/insidious-lymph-node-metastasis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/insidious-lymph-node-metastasis-OSKARCK_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/tumor-spread-cervix_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/tumor-spread-endometrium_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/tumor-spread-over_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/tumor-spread-small-intestine_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/venous-invasion_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/extramuralvenousinvasion_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/extramuralvenousinvasion-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/extramural-venous-invasion_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hodgkin_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/granular-cell-tumor_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/gastritis-cystica-profunda_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/lymphocytic-gastritis-all_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/lymphocytic-gastritisHE_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/lymphocytic-gastritisCD3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/lymphocytic-gastritisCD8_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/lymphocytic-gastritisCD20_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/celiac-disease_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/ischemic-colitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/tubularadenoma-flat1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/tubularadenoma-flat2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/tubular-adenoma-with-stalk_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hyperplasticpolyp-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/colon-submucosal-lipoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/mucinous-adenocarcinoma-colon_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/colon-adenocarcinoma-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/colon-adenocarcinoma-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/colon-adenocarcinoma-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/crohn-colonoscopic-biopsy-all_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/crohn-colonoscopic-biopsy-HE1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/crohn-colonoscopic-biopsy-HE2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/crohn-colonoscopic-biopsy-HE3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/crohn-colonoscopic-biopsy-HE4_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hepatocellularcarcinoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/fibrolamellar-hepatocellular-carcinoma-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/fibrolamellar-hepatocellular-carcinoma-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/fibrolamellar-hepatocellular-carcinoma-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/fibrolamellar-hepatocellular-carcinoma-4_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/liver-hemangioma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/pancreas-undifferentiated-osteoclast_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/PDAC-tru-cut-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/PDAC-tru-cut-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/PDAC-tru-cut-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/gallbladder-adenomyoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/ischemia-gangrenous-cholecystitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/ampullary-adenocarcinoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/WDNET-ampulla_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/neuroendocrine-cytology-giemsa_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/abdominal-mezotelyoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/ovarianserousmicropapillary_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/cervix-SCC_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/endometrial-polyp_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/endometriosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/kidneyoncocytoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/benign-prostate-hyperplasia_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/pituitary-adenoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/nasopharynx-nonkeratinizing-scc-HE_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/nasopharynx-nonkeratinizing-scc-panCK_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/nasopharynx-nonkeratinizing-scc-p63_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/nasopharynx-nonkeratinizing-scc-EBER_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/cholesteatoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/mammary-analogue-secretory-carcinoma1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/mammary-analogue-secretory-carcinoma2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/high-grade-glioma-squash_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/brain-invasive-meningioma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/meningioma-bone-infiltration_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/brain-arteriovenous-malformation_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/exostosis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/exostosis-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/exostosis-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/myxoidliposarcoma_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/chorioamnionitis_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-1_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-3_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-4_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-4-2_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-5_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-6_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-7_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-8_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-9_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/hacettepe-com-case-10_screenshot.png</t>
+  </si>
+  <si>
+    <t>https://www.histopathologyatlas.com/screenshots/ICE1-WDNET-duodenum_screenshot.png</t>
+  </si>
+  <si>
+    <t>image_url_EN</t>
   </si>
 </sst>
 </file>
@@ -1744,13 +2131,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" customWidth="1"/>
-    <col min="8" max="10" width="3.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2607,38 +2996,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778041DF-66F8-024B-9CEF-40948B51CD1F}">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118:XFD125"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.6640625" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+    <col min="2" max="3" width="94.33203125" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2646,10 +3038,13 @@
         <v>165</v>
       </c>
       <c r="C2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2657,10 +3052,13 @@
         <v>167</v>
       </c>
       <c r="C3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2668,10 +3066,13 @@
         <v>169</v>
       </c>
       <c r="C4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2679,10 +3080,13 @@
         <v>171</v>
       </c>
       <c r="C5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2690,10 +3094,13 @@
         <v>173</v>
       </c>
       <c r="C6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2701,10 +3108,13 @@
         <v>175</v>
       </c>
       <c r="C7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2712,21 +3122,27 @@
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+      <c r="D8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2734,10 +3150,13 @@
         <v>179</v>
       </c>
       <c r="C10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2745,1477 +3164,1834 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="D12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+      <c r="D13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+      <c r="D14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="D16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="D18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C19" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="D19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="D22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="D23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="D24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+      <c r="D25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="D26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+      <c r="D27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="D28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="D29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="D30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+      <c r="D31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C32" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="D32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="D33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C34" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="D34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="D35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="D36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="D38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="D39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C40" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="D40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C41" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+      <c r="D41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="D42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="D43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C44" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="D44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C45" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+      <c r="D45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C46" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="D46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+      <c r="D47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+      <c r="D48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+      <c r="D49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+      <c r="D50" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C51" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+      <c r="D51" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="D53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+      <c r="D54" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C55" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="D55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C56" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+      <c r="D56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C57" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+      <c r="D57" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+      <c r="D59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="D60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+      <c r="D61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+      <c r="D62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="D64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+      <c r="D65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="D67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="D68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+      <c r="D73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+      <c r="D74" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+      <c r="D75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+      <c r="D77" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+      <c r="D79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+      <c r="D80" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="D81" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C82" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="D82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C83" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="D84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C85" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="D85" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C86" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="D86" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C87" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="D87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+      <c r="D88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+      <c r="D89" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="D90" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+      <c r="D92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C93" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+      <c r="D93" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C94" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+      <c r="D94" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C95" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="D95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C96" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+      <c r="D96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="D97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+      <c r="D99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C100" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+      <c r="D100" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C101" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+      <c r="D101" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C102" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+      <c r="D102" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C103" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+      <c r="D103" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C104" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="D104" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C105" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+      <c r="D105" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C106" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+      <c r="D106" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="D107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+      <c r="D108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="D109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+      <c r="D110" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C111" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="D111" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C112" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+      <c r="D112" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="D113" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+      <c r="D114" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="D115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C116" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+      <c r="D116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C117" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="D117" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+      <c r="D118" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+      <c r="D119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="D120" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C121" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+      <c r="D121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+      <c r="D122" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C123" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+      <c r="D123" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C124" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="D124" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="D125" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+      <c r="D126" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C127" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="D127" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+      <c r="D128" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>99</v>
       </c>
-      <c r="C129" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>99</v>
       </c>
-      <c r="C130" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>99</v>
       </c>
-      <c r="C131" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>99</v>
       </c>
-      <c r="C132" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>99</v>
       </c>
-      <c r="C133" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>99</v>
       </c>
-      <c r="C134" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>99</v>
       </c>
-      <c r="C135" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>99</v>
       </c>
-      <c r="C136" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>99</v>
       </c>
-      <c r="C137" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>99</v>
       </c>
-      <c r="C138" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>99</v>
       </c>
-      <c r="C139" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>99</v>
       </c>
-      <c r="C140" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>99</v>
       </c>
-      <c r="C141" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>99</v>
       </c>
-      <c r="C142" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>99</v>
       </c>
-      <c r="C143" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>99</v>
       </c>
-      <c r="C144" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>99</v>
       </c>
-      <c r="C145" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>99</v>
       </c>
-      <c r="C146" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>99</v>
       </c>
-      <c r="C147" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>99</v>
       </c>
-      <c r="C148" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>99</v>
       </c>
-      <c r="C149" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>101</v>
       </c>
       <c r="B150" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C150" t="s">
-        <v>259</v>
+        <v>571</v>
+      </c>
+      <c r="D150" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B156:C159 B161:C161 B163:C163 B165:C165 B175:C176 B188:C190 B192:C1048576 B154:B155 B117:C150 B1:C115">
+  <conditionalFormatting sqref="D156:D159 B161:D161 B163:D163 B165:D165 B175:D176 B188:D190 B192:D1048576 B154:C159 B117:D150 B1:D115">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C5BA0-F864-3B4E-AD49-795C05AE2539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FE33C5-710C-A147-B5C6-C4A8F56EE656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">img_url_links!$B$1:$D$506</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="648">
   <si>
     <t>index</t>
   </si>
@@ -1759,6 +1759,231 @@
   </si>
   <si>
     <t>image_url_EN</t>
+  </si>
+  <si>
+    <t>TR_epub_chapter_qmd</t>
+  </si>
+  <si>
+    <t>index_epub_TR</t>
+  </si>
+  <si>
+    <t>giris_epub_TR</t>
+  </si>
+  <si>
+    <t>yazarlar_epub_TR</t>
+  </si>
+  <si>
+    <t>teknik_epub_TR</t>
+  </si>
+  <si>
+    <t>hucre-ici-birikimler_epub_TR</t>
+  </si>
+  <si>
+    <t>hucre-disi-birikimler_epub_TR</t>
+  </si>
+  <si>
+    <t>hucre-hasari_epub_TR</t>
+  </si>
+  <si>
+    <t>iskemi-nekroz_epub_TR</t>
+  </si>
+  <si>
+    <t>konjesyon_epub_TR</t>
+  </si>
+  <si>
+    <t>amiloid_epub_TR</t>
+  </si>
+  <si>
+    <t>tamir_epub_TR</t>
+  </si>
+  <si>
+    <t>erozyon_epub_TR</t>
+  </si>
+  <si>
+    <t>akut-inflamasyon_epub_TR</t>
+  </si>
+  <si>
+    <t>kronik-inflamasyon_epub_TR</t>
+  </si>
+  <si>
+    <t>granulom_epub_TR</t>
+  </si>
+  <si>
+    <t>virus_epub_TR</t>
+  </si>
+  <si>
+    <t>bakteri_epub_TR</t>
+  </si>
+  <si>
+    <t>mantar_epub_TR</t>
+  </si>
+  <si>
+    <t>parazit_epub_TR</t>
+  </si>
+  <si>
+    <t>benign_epub_TR</t>
+  </si>
+  <si>
+    <t>hamartom_epub_TR</t>
+  </si>
+  <si>
+    <t>heterotopi_epub_TR</t>
+  </si>
+  <si>
+    <t>metaplazi_epub_TR</t>
+  </si>
+  <si>
+    <t>karsinogenez_epub_TR</t>
+  </si>
+  <si>
+    <t>malign_epub_TR</t>
+  </si>
+  <si>
+    <t>metastaz_epub_TR</t>
+  </si>
+  <si>
+    <t>tumor-yayilimi_epub_TR</t>
+  </si>
+  <si>
+    <t>venoz-invazyon_epub_TR</t>
+  </si>
+  <si>
+    <t>ekstramural-venoz-invazyon_epub_TR</t>
+  </si>
+  <si>
+    <t>hodgkin_epub_TR</t>
+  </si>
+  <si>
+    <t>gastro_epub_TR</t>
+  </si>
+  <si>
+    <t>ozofagus_epub_TR</t>
+  </si>
+  <si>
+    <t>mide_epub_TR</t>
+  </si>
+  <si>
+    <t>gastrit_epub_TR</t>
+  </si>
+  <si>
+    <t>duodenum_epub_TR</t>
+  </si>
+  <si>
+    <t>kolon_epub_TR</t>
+  </si>
+  <si>
+    <t>crohn_epub_TR</t>
+  </si>
+  <si>
+    <t>karaciger_epub_TR</t>
+  </si>
+  <si>
+    <t>karaciger-benign_epub_TR</t>
+  </si>
+  <si>
+    <t>pankreas_epub_TR</t>
+  </si>
+  <si>
+    <t>pdac_epub_TR</t>
+  </si>
+  <si>
+    <t>safra-kesesi_epub_TR</t>
+  </si>
+  <si>
+    <t>ampulla-vater_epub_TR</t>
+  </si>
+  <si>
+    <t>noroendokrin_epub_TR</t>
+  </si>
+  <si>
+    <t>mezotel_epub_TR</t>
+  </si>
+  <si>
+    <t>jineko_epub_TR</t>
+  </si>
+  <si>
+    <t>genital_epub_TR</t>
+  </si>
+  <si>
+    <t>serviks_epub_TR</t>
+  </si>
+  <si>
+    <t>endometrium_epub_TR</t>
+  </si>
+  <si>
+    <t>endometriosis_epub_TR</t>
+  </si>
+  <si>
+    <t>uriner_epub_TR</t>
+  </si>
+  <si>
+    <t>bobrek_epub_TR</t>
+  </si>
+  <si>
+    <t>prostat_epub_TR</t>
+  </si>
+  <si>
+    <t>hipofiz_epub_TR</t>
+  </si>
+  <si>
+    <t>meme_epub_TR</t>
+  </si>
+  <si>
+    <t>nazofarenks_epub_TR</t>
+  </si>
+  <si>
+    <t>kulak_epub_TR</t>
+  </si>
+  <si>
+    <t>tukuruk_epub_TR</t>
+  </si>
+  <si>
+    <t>gliom_epub_TR</t>
+  </si>
+  <si>
+    <t>meningiom_epub_TR</t>
+  </si>
+  <si>
+    <t>sss-vaskuler_epub_TR</t>
+  </si>
+  <si>
+    <t>kemik_epub_TR</t>
+  </si>
+  <si>
+    <t>adipoz_epub_TR</t>
+  </si>
+  <si>
+    <t>plasenta_epub_TR</t>
+  </si>
+  <si>
+    <t>gbd_epub_TR</t>
+  </si>
+  <si>
+    <t>hacettepecom_epub_TR</t>
+  </si>
+  <si>
+    <t>bs_epub_TR</t>
+  </si>
+  <si>
+    <t>ice_epub_TR</t>
+  </si>
+  <si>
+    <t>wsi_epub_TR</t>
+  </si>
+  <si>
+    <t>referanslar_epub_TR</t>
+  </si>
+  <si>
+    <t>katki_epub_TR</t>
+  </si>
+  <si>
+    <t>yorum_epub_TR</t>
+  </si>
+  <si>
+    <t>listing_epub_TR</t>
+  </si>
+  <si>
+    <t>listing2_epub_TR</t>
   </si>
 </sst>
 </file>
@@ -2121,11 +2346,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2134,15 +2359,16 @@
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2156,835 +2382,1060 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
+        <v>578</v>
+      </c>
+      <c r="G6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
+        <v>582</v>
+      </c>
+      <c r="G10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
+        <v>583</v>
+      </c>
+      <c r="G11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
+        <v>584</v>
+      </c>
+      <c r="G12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
+        <v>585</v>
+      </c>
+      <c r="G13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
+        <v>586</v>
+      </c>
+      <c r="G14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
+        <v>587</v>
+      </c>
+      <c r="G15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
+        <v>589</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
+        <v>590</v>
+      </c>
+      <c r="G18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
+        <v>592</v>
+      </c>
+      <c r="G20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
+        <v>593</v>
+      </c>
+      <c r="G21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
+        <v>594</v>
+      </c>
+      <c r="G22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
+        <v>595</v>
+      </c>
+      <c r="G23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
+        <v>596</v>
+      </c>
+      <c r="G24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
+        <v>597</v>
+      </c>
+      <c r="G25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
+        <v>598</v>
+      </c>
+      <c r="G26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
+        <v>599</v>
+      </c>
+      <c r="G27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
+        <v>600</v>
+      </c>
+      <c r="G28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
+        <v>601</v>
+      </c>
+      <c r="G29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
+        <v>602</v>
+      </c>
+      <c r="G30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
+        <v>603</v>
+      </c>
+      <c r="G31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s">
+        <v>604</v>
+      </c>
+      <c r="G32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" t="s">
+        <v>605</v>
+      </c>
+      <c r="G33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
+        <v>606</v>
+      </c>
+      <c r="G34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="D35" t="s">
         <v>45</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s">
+        <v>607</v>
+      </c>
+      <c r="G35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s">
+        <v>608</v>
+      </c>
+      <c r="G36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
+        <v>609</v>
+      </c>
+      <c r="G37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
         <v>48</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
+        <v>610</v>
+      </c>
+      <c r="G38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>49</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
+        <v>611</v>
+      </c>
+      <c r="G39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
       <c r="D40" t="s">
         <v>51</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
+        <v>612</v>
+      </c>
+      <c r="G40" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s">
+        <v>613</v>
+      </c>
+      <c r="G41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" t="s">
+        <v>614</v>
+      </c>
+      <c r="G42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
+        <v>615</v>
+      </c>
+      <c r="G43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="D44" t="s">
         <v>56</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" t="s">
+        <v>616</v>
+      </c>
+      <c r="G44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
       <c r="D45" t="s">
         <v>62</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" t="s">
+        <v>617</v>
+      </c>
+      <c r="G45" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
       <c r="D46" t="s">
         <v>66</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" t="s">
+        <v>618</v>
+      </c>
+      <c r="G46" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
       <c r="D47" t="s">
         <v>70</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s">
+        <v>619</v>
+      </c>
+      <c r="G47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>71</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
+        <v>620</v>
+      </c>
+      <c r="G48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
       <c r="D49" t="s">
         <v>72</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
+        <v>621</v>
+      </c>
+      <c r="G49" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
       <c r="D50" t="s">
         <v>73</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" t="s">
+        <v>622</v>
+      </c>
+      <c r="G50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>67</v>
       </c>
       <c r="D51" t="s">
         <v>74</v>
       </c>
-      <c r="F51" t="s">
+      <c r="E51" t="s">
+        <v>623</v>
+      </c>
+      <c r="G51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
       <c r="D52" t="s">
         <v>76</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" t="s">
+        <v>624</v>
+      </c>
+      <c r="G52" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
       <c r="D53" t="s">
         <v>77</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" t="s">
+        <v>625</v>
+      </c>
+      <c r="G53" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
       <c r="D54" t="s">
         <v>78</v>
       </c>
-      <c r="F54" t="s">
+      <c r="E54" t="s">
+        <v>626</v>
+      </c>
+      <c r="G54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
       </c>
-      <c r="F55" t="s">
+      <c r="E55" t="s">
+        <v>627</v>
+      </c>
+      <c r="G55" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
       <c r="D56" t="s">
         <v>82</v>
       </c>
-      <c r="F56" t="s">
+      <c r="E56" t="s">
+        <v>628</v>
+      </c>
+      <c r="G56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
       <c r="D57" t="s">
         <v>84</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E57" t="s">
+        <v>629</v>
+      </c>
+      <c r="G57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
       <c r="D58" t="s">
         <v>85</v>
       </c>
-      <c r="F58" t="s">
+      <c r="E58" t="s">
+        <v>630</v>
+      </c>
+      <c r="G58" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
       <c r="D59" t="s">
         <v>86</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E59" t="s">
+        <v>631</v>
+      </c>
+      <c r="G59" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>87</v>
       </c>
       <c r="D60" t="s">
         <v>88</v>
       </c>
-      <c r="F60" t="s">
+      <c r="E60" t="s">
+        <v>632</v>
+      </c>
+      <c r="G60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
       <c r="D61" t="s">
         <v>89</v>
       </c>
-      <c r="F61" t="s">
+      <c r="E61" t="s">
+        <v>633</v>
+      </c>
+      <c r="G61" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>87</v>
       </c>
       <c r="D62" t="s">
         <v>90</v>
       </c>
-      <c r="F62" t="s">
+      <c r="E62" t="s">
+        <v>634</v>
+      </c>
+      <c r="G62" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
       <c r="D63" t="s">
         <v>92</v>
       </c>
-      <c r="F63" t="s">
+      <c r="E63" t="s">
+        <v>635</v>
+      </c>
+      <c r="G63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>93</v>
       </c>
       <c r="D64" t="s">
         <v>94</v>
       </c>
-      <c r="F64" t="s">
+      <c r="E64" t="s">
+        <v>636</v>
+      </c>
+      <c r="G64" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
       <c r="D65" t="s">
         <v>96</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E65" t="s">
+        <v>637</v>
+      </c>
+      <c r="G65" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>97</v>
       </c>
       <c r="D66" t="s">
         <v>98</v>
       </c>
-      <c r="F66" t="s">
+      <c r="E66" t="s">
+        <v>638</v>
+      </c>
+      <c r="G66" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>97</v>
       </c>
       <c r="D67" t="s">
         <v>99</v>
       </c>
-      <c r="F67" t="s">
+      <c r="E67" t="s">
+        <v>639</v>
+      </c>
+      <c r="G67" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>97</v>
       </c>
       <c r="D68" t="s">
         <v>100</v>
       </c>
-      <c r="F68" t="s">
+      <c r="E68" t="s">
+        <v>640</v>
+      </c>
+      <c r="G68" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>97</v>
       </c>
       <c r="D69" t="s">
         <v>101</v>
       </c>
-      <c r="F69" t="s">
+      <c r="E69" t="s">
+        <v>641</v>
+      </c>
+      <c r="G69" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>97</v>
       </c>
       <c r="D70" t="s">
         <v>102</v>
       </c>
-      <c r="F70" t="s">
+      <c r="E70" t="s">
+        <v>642</v>
+      </c>
+      <c r="G70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>104</v>
       </c>
       <c r="D71" t="s">
         <v>103</v>
       </c>
-      <c r="F71" t="s">
+      <c r="E71" t="s">
+        <v>643</v>
+      </c>
+      <c r="G71" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>104</v>
       </c>
       <c r="D72" t="s">
         <v>105</v>
       </c>
-      <c r="F72" t="s">
+      <c r="E72" t="s">
+        <v>644</v>
+      </c>
+      <c r="G72" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>104</v>
       </c>
       <c r="D73" t="s">
         <v>106</v>
       </c>
-      <c r="F73" t="s">
+      <c r="E73" t="s">
+        <v>645</v>
+      </c>
+      <c r="G73" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>104</v>
       </c>
       <c r="D74" t="s">
         <v>107</v>
       </c>
-      <c r="F74" t="s">
+      <c r="E74" t="s">
+        <v>646</v>
+      </c>
+      <c r="G74" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>104</v>
       </c>
       <c r="D75" t="s">
         <v>108</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E75" t="s">
+        <v>647</v>
+      </c>
+      <c r="G75" t="s">
         <v>108</v>
       </c>
     </row>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FE33C5-710C-A147-B5C6-C4A8F56EE656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7FE5B3-ACF3-BD4D-B3DF-0566E9431E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="798">
   <si>
     <t>index</t>
   </si>
@@ -1761,229 +1761,679 @@
     <t>image_url_EN</t>
   </si>
   <si>
-    <t>TR_epub_chapter_qmd</t>
-  </si>
-  <si>
-    <t>index_epub_TR</t>
-  </si>
-  <si>
-    <t>giris_epub_TR</t>
-  </si>
-  <si>
-    <t>yazarlar_epub_TR</t>
-  </si>
-  <si>
-    <t>teknik_epub_TR</t>
-  </si>
-  <si>
-    <t>hucre-ici-birikimler_epub_TR</t>
-  </si>
-  <si>
-    <t>hucre-disi-birikimler_epub_TR</t>
-  </si>
-  <si>
-    <t>hucre-hasari_epub_TR</t>
-  </si>
-  <si>
-    <t>iskemi-nekroz_epub_TR</t>
-  </si>
-  <si>
-    <t>konjesyon_epub_TR</t>
-  </si>
-  <si>
-    <t>amiloid_epub_TR</t>
-  </si>
-  <si>
-    <t>tamir_epub_TR</t>
-  </si>
-  <si>
-    <t>erozyon_epub_TR</t>
-  </si>
-  <si>
-    <t>akut-inflamasyon_epub_TR</t>
-  </si>
-  <si>
-    <t>kronik-inflamasyon_epub_TR</t>
-  </si>
-  <si>
-    <t>granulom_epub_TR</t>
-  </si>
-  <si>
-    <t>virus_epub_TR</t>
-  </si>
-  <si>
-    <t>bakteri_epub_TR</t>
-  </si>
-  <si>
-    <t>mantar_epub_TR</t>
-  </si>
-  <si>
-    <t>parazit_epub_TR</t>
-  </si>
-  <si>
-    <t>benign_epub_TR</t>
-  </si>
-  <si>
-    <t>hamartom_epub_TR</t>
-  </si>
-  <si>
-    <t>heterotopi_epub_TR</t>
-  </si>
-  <si>
-    <t>metaplazi_epub_TR</t>
-  </si>
-  <si>
-    <t>karsinogenez_epub_TR</t>
-  </si>
-  <si>
-    <t>malign_epub_TR</t>
-  </si>
-  <si>
-    <t>metastaz_epub_TR</t>
-  </si>
-  <si>
-    <t>tumor-yayilimi_epub_TR</t>
-  </si>
-  <si>
-    <t>venoz-invazyon_epub_TR</t>
-  </si>
-  <si>
-    <t>ekstramural-venoz-invazyon_epub_TR</t>
-  </si>
-  <si>
-    <t>hodgkin_epub_TR</t>
-  </si>
-  <si>
-    <t>gastro_epub_TR</t>
-  </si>
-  <si>
-    <t>ozofagus_epub_TR</t>
-  </si>
-  <si>
-    <t>mide_epub_TR</t>
-  </si>
-  <si>
-    <t>gastrit_epub_TR</t>
-  </si>
-  <si>
-    <t>duodenum_epub_TR</t>
-  </si>
-  <si>
-    <t>kolon_epub_TR</t>
-  </si>
-  <si>
-    <t>crohn_epub_TR</t>
-  </si>
-  <si>
-    <t>karaciger_epub_TR</t>
-  </si>
-  <si>
-    <t>karaciger-benign_epub_TR</t>
-  </si>
-  <si>
-    <t>pankreas_epub_TR</t>
-  </si>
-  <si>
-    <t>pdac_epub_TR</t>
-  </si>
-  <si>
-    <t>safra-kesesi_epub_TR</t>
-  </si>
-  <si>
-    <t>ampulla-vater_epub_TR</t>
-  </si>
-  <si>
-    <t>noroendokrin_epub_TR</t>
-  </si>
-  <si>
-    <t>mezotel_epub_TR</t>
-  </si>
-  <si>
-    <t>jineko_epub_TR</t>
-  </si>
-  <si>
-    <t>genital_epub_TR</t>
-  </si>
-  <si>
-    <t>serviks_epub_TR</t>
-  </si>
-  <si>
-    <t>endometrium_epub_TR</t>
-  </si>
-  <si>
-    <t>endometriosis_epub_TR</t>
-  </si>
-  <si>
-    <t>uriner_epub_TR</t>
-  </si>
-  <si>
-    <t>bobrek_epub_TR</t>
-  </si>
-  <si>
-    <t>prostat_epub_TR</t>
-  </si>
-  <si>
-    <t>hipofiz_epub_TR</t>
-  </si>
-  <si>
-    <t>meme_epub_TR</t>
-  </si>
-  <si>
-    <t>nazofarenks_epub_TR</t>
-  </si>
-  <si>
-    <t>kulak_epub_TR</t>
-  </si>
-  <si>
-    <t>tukuruk_epub_TR</t>
-  </si>
-  <si>
-    <t>gliom_epub_TR</t>
-  </si>
-  <si>
-    <t>meningiom_epub_TR</t>
-  </si>
-  <si>
-    <t>sss-vaskuler_epub_TR</t>
-  </si>
-  <si>
-    <t>kemik_epub_TR</t>
-  </si>
-  <si>
-    <t>adipoz_epub_TR</t>
-  </si>
-  <si>
-    <t>plasenta_epub_TR</t>
-  </si>
-  <si>
-    <t>gbd_epub_TR</t>
-  </si>
-  <si>
-    <t>hacettepecom_epub_TR</t>
-  </si>
-  <si>
-    <t>bs_epub_TR</t>
-  </si>
-  <si>
-    <t>ice_epub_TR</t>
-  </si>
-  <si>
-    <t>wsi_epub_TR</t>
-  </si>
-  <si>
-    <t>referanslar_epub_TR</t>
-  </si>
-  <si>
-    <t>katki_epub_TR</t>
-  </si>
-  <si>
-    <t>yorum_epub_TR</t>
-  </si>
-  <si>
-    <t>listing_epub_TR</t>
-  </si>
-  <si>
-    <t>listing2_epub_TR</t>
+    <t>TR_epub_word_chapter_qmd</t>
+  </si>
+  <si>
+    <t>index_epub_word_TR</t>
+  </si>
+  <si>
+    <t>giris_epub_word_TR</t>
+  </si>
+  <si>
+    <t>yazarlar_epub_word_TR</t>
+  </si>
+  <si>
+    <t>teknik_epub_word_TR</t>
+  </si>
+  <si>
+    <t>hucre-ici-birikimler_epub_word_TR</t>
+  </si>
+  <si>
+    <t>hucre-disi-birikimler_epub_word_TR</t>
+  </si>
+  <si>
+    <t>hucre-hasari_epub_word_TR</t>
+  </si>
+  <si>
+    <t>iskemi-nekroz_epub_word_TR</t>
+  </si>
+  <si>
+    <t>konjesyon_epub_word_TR</t>
+  </si>
+  <si>
+    <t>amiloid_epub_word_TR</t>
+  </si>
+  <si>
+    <t>tamir_epub_word_TR</t>
+  </si>
+  <si>
+    <t>erozyon_epub_word_TR</t>
+  </si>
+  <si>
+    <t>akut-inflamasyon_epub_word_TR</t>
+  </si>
+  <si>
+    <t>kronik-inflamasyon_epub_word_TR</t>
+  </si>
+  <si>
+    <t>granulom_epub_word_TR</t>
+  </si>
+  <si>
+    <t>virus_epub_word_TR</t>
+  </si>
+  <si>
+    <t>bakteri_epub_word_TR</t>
+  </si>
+  <si>
+    <t>mantar_epub_word_TR</t>
+  </si>
+  <si>
+    <t>parazit_epub_word_TR</t>
+  </si>
+  <si>
+    <t>benign_epub_word_TR</t>
+  </si>
+  <si>
+    <t>hamartom_epub_word_TR</t>
+  </si>
+  <si>
+    <t>heterotopi_epub_word_TR</t>
+  </si>
+  <si>
+    <t>metaplazi_epub_word_TR</t>
+  </si>
+  <si>
+    <t>karsinogenez_epub_word_TR</t>
+  </si>
+  <si>
+    <t>malign_epub_word_TR</t>
+  </si>
+  <si>
+    <t>metastaz_epub_word_TR</t>
+  </si>
+  <si>
+    <t>tumor-yayilimi_epub_word_TR</t>
+  </si>
+  <si>
+    <t>venoz-invazyon_epub_word_TR</t>
+  </si>
+  <si>
+    <t>ekstramural-venoz-invazyon_epub_word_TR</t>
+  </si>
+  <si>
+    <t>hodgkin_epub_word_TR</t>
+  </si>
+  <si>
+    <t>gastro_epub_word_TR</t>
+  </si>
+  <si>
+    <t>ozofagus_epub_word_TR</t>
+  </si>
+  <si>
+    <t>mide_epub_word_TR</t>
+  </si>
+  <si>
+    <t>gastrit_epub_word_TR</t>
+  </si>
+  <si>
+    <t>duodenum_epub_word_TR</t>
+  </si>
+  <si>
+    <t>kolon_epub_word_TR</t>
+  </si>
+  <si>
+    <t>crohn_epub_word_TR</t>
+  </si>
+  <si>
+    <t>karaciger_epub_word_TR</t>
+  </si>
+  <si>
+    <t>karaciger-benign_epub_word_TR</t>
+  </si>
+  <si>
+    <t>pankreas_epub_word_TR</t>
+  </si>
+  <si>
+    <t>pdac_epub_word_TR</t>
+  </si>
+  <si>
+    <t>safra-kesesi_epub_word_TR</t>
+  </si>
+  <si>
+    <t>ampulla-vater_epub_word_TR</t>
+  </si>
+  <si>
+    <t>noroendokrin_epub_word_TR</t>
+  </si>
+  <si>
+    <t>mezotel_epub_word_TR</t>
+  </si>
+  <si>
+    <t>jineko_epub_word_TR</t>
+  </si>
+  <si>
+    <t>genital_epub_word_TR</t>
+  </si>
+  <si>
+    <t>serviks_epub_word_TR</t>
+  </si>
+  <si>
+    <t>endometrium_epub_word_TR</t>
+  </si>
+  <si>
+    <t>endometriosis_epub_word_TR</t>
+  </si>
+  <si>
+    <t>uriner_epub_word_TR</t>
+  </si>
+  <si>
+    <t>bobrek_epub_word_TR</t>
+  </si>
+  <si>
+    <t>prostat_epub_word_TR</t>
+  </si>
+  <si>
+    <t>hipofiz_epub_word_TR</t>
+  </si>
+  <si>
+    <t>meme_epub_word_TR</t>
+  </si>
+  <si>
+    <t>nazofarenks_epub_word_TR</t>
+  </si>
+  <si>
+    <t>kulak_epub_word_TR</t>
+  </si>
+  <si>
+    <t>tukuruk_epub_word_TR</t>
+  </si>
+  <si>
+    <t>gliom_epub_word_TR</t>
+  </si>
+  <si>
+    <t>meningiom_epub_word_TR</t>
+  </si>
+  <si>
+    <t>sss-vaskuler_epub_word_TR</t>
+  </si>
+  <si>
+    <t>kemik_epub_word_TR</t>
+  </si>
+  <si>
+    <t>adipoz_epub_word_TR</t>
+  </si>
+  <si>
+    <t>plasenta_epub_word_TR</t>
+  </si>
+  <si>
+    <t>gbd_epub_word_TR</t>
+  </si>
+  <si>
+    <t>hacettepecom_epub_word_TR</t>
+  </si>
+  <si>
+    <t>bs_epub_word_TR</t>
+  </si>
+  <si>
+    <t>ice_epub_word_TR</t>
+  </si>
+  <si>
+    <t>wsi_epub_word_TR</t>
+  </si>
+  <si>
+    <t>referanslar_epub_word_TR</t>
+  </si>
+  <si>
+    <t>katki_epub_word_TR</t>
+  </si>
+  <si>
+    <t>yorum_epub_word_TR</t>
+  </si>
+  <si>
+    <t>listing_epub_word_TR</t>
+  </si>
+  <si>
+    <t>listing2_epub_word_TR</t>
+  </si>
+  <si>
+    <t>TR_pdf_chapter_qmd</t>
+  </si>
+  <si>
+    <t>index_pdf_TR</t>
+  </si>
+  <si>
+    <t>giris_pdf_TR</t>
+  </si>
+  <si>
+    <t>yazarlar_pdf_TR</t>
+  </si>
+  <si>
+    <t>teknik_pdf_TR</t>
+  </si>
+  <si>
+    <t>hucre-ici-birikimler_pdf_TR</t>
+  </si>
+  <si>
+    <t>hucre-disi-birikimler_pdf_TR</t>
+  </si>
+  <si>
+    <t>hucre-hasari_pdf_TR</t>
+  </si>
+  <si>
+    <t>iskemi-nekroz_pdf_TR</t>
+  </si>
+  <si>
+    <t>konjesyon_pdf_TR</t>
+  </si>
+  <si>
+    <t>amiloid_pdf_TR</t>
+  </si>
+  <si>
+    <t>tamir_pdf_TR</t>
+  </si>
+  <si>
+    <t>erozyon_pdf_TR</t>
+  </si>
+  <si>
+    <t>akut-inflamasyon_pdf_TR</t>
+  </si>
+  <si>
+    <t>kronik-inflamasyon_pdf_TR</t>
+  </si>
+  <si>
+    <t>granulom_pdf_TR</t>
+  </si>
+  <si>
+    <t>virus_pdf_TR</t>
+  </si>
+  <si>
+    <t>bakteri_pdf_TR</t>
+  </si>
+  <si>
+    <t>mantar_pdf_TR</t>
+  </si>
+  <si>
+    <t>parazit_pdf_TR</t>
+  </si>
+  <si>
+    <t>benign_pdf_TR</t>
+  </si>
+  <si>
+    <t>hamartom_pdf_TR</t>
+  </si>
+  <si>
+    <t>heterotopi_pdf_TR</t>
+  </si>
+  <si>
+    <t>metaplazi_pdf_TR</t>
+  </si>
+  <si>
+    <t>karsinogenez_pdf_TR</t>
+  </si>
+  <si>
+    <t>malign_pdf_TR</t>
+  </si>
+  <si>
+    <t>metastaz_pdf_TR</t>
+  </si>
+  <si>
+    <t>tumor-yayilimi_pdf_TR</t>
+  </si>
+  <si>
+    <t>venoz-invazyon_pdf_TR</t>
+  </si>
+  <si>
+    <t>ekstramural-venoz-invazyon_pdf_TR</t>
+  </si>
+  <si>
+    <t>hodgkin_pdf_TR</t>
+  </si>
+  <si>
+    <t>gastro_pdf_TR</t>
+  </si>
+  <si>
+    <t>ozofagus_pdf_TR</t>
+  </si>
+  <si>
+    <t>mide_pdf_TR</t>
+  </si>
+  <si>
+    <t>gastrit_pdf_TR</t>
+  </si>
+  <si>
+    <t>duodenum_pdf_TR</t>
+  </si>
+  <si>
+    <t>kolon_pdf_TR</t>
+  </si>
+  <si>
+    <t>crohn_pdf_TR</t>
+  </si>
+  <si>
+    <t>karaciger_pdf_TR</t>
+  </si>
+  <si>
+    <t>karaciger-benign_pdf_TR</t>
+  </si>
+  <si>
+    <t>pankreas_pdf_TR</t>
+  </si>
+  <si>
+    <t>pdac_pdf_TR</t>
+  </si>
+  <si>
+    <t>safra-kesesi_pdf_TR</t>
+  </si>
+  <si>
+    <t>ampulla-vater_pdf_TR</t>
+  </si>
+  <si>
+    <t>noroendokrin_pdf_TR</t>
+  </si>
+  <si>
+    <t>mezotel_pdf_TR</t>
+  </si>
+  <si>
+    <t>jineko_pdf_TR</t>
+  </si>
+  <si>
+    <t>genital_pdf_TR</t>
+  </si>
+  <si>
+    <t>serviks_pdf_TR</t>
+  </si>
+  <si>
+    <t>endometrium_pdf_TR</t>
+  </si>
+  <si>
+    <t>endometriosis_pdf_TR</t>
+  </si>
+  <si>
+    <t>uriner_pdf_TR</t>
+  </si>
+  <si>
+    <t>bobrek_pdf_TR</t>
+  </si>
+  <si>
+    <t>prostat_pdf_TR</t>
+  </si>
+  <si>
+    <t>hipofiz_pdf_TR</t>
+  </si>
+  <si>
+    <t>meme_pdf_TR</t>
+  </si>
+  <si>
+    <t>nazofarenks_pdf_TR</t>
+  </si>
+  <si>
+    <t>kulak_pdf_TR</t>
+  </si>
+  <si>
+    <t>tukuruk_pdf_TR</t>
+  </si>
+  <si>
+    <t>gliom_pdf_TR</t>
+  </si>
+  <si>
+    <t>meningiom_pdf_TR</t>
+  </si>
+  <si>
+    <t>sss-vaskuler_pdf_TR</t>
+  </si>
+  <si>
+    <t>kemik_pdf_TR</t>
+  </si>
+  <si>
+    <t>adipoz_pdf_TR</t>
+  </si>
+  <si>
+    <t>plasenta_pdf_TR</t>
+  </si>
+  <si>
+    <t>gbd_pdf_TR</t>
+  </si>
+  <si>
+    <t>hacettepecom_pdf_TR</t>
+  </si>
+  <si>
+    <t>bs_pdf_TR</t>
+  </si>
+  <si>
+    <t>ice_pdf_TR</t>
+  </si>
+  <si>
+    <t>wsi_pdf_TR</t>
+  </si>
+  <si>
+    <t>referanslar_pdf_TR</t>
+  </si>
+  <si>
+    <t>katki_pdf_TR</t>
+  </si>
+  <si>
+    <t>yorum_pdf_TR</t>
+  </si>
+  <si>
+    <t>listing_pdf_TR</t>
+  </si>
+  <si>
+    <t>listing2_pdf_TR</t>
+  </si>
+  <si>
+    <t>TR_others_chapter_qmd</t>
+  </si>
+  <si>
+    <t>index_others_TR</t>
+  </si>
+  <si>
+    <t>giris_others_TR</t>
+  </si>
+  <si>
+    <t>yazarlar_others_TR</t>
+  </si>
+  <si>
+    <t>teknik_others_TR</t>
+  </si>
+  <si>
+    <t>hucre-ici-birikimler_others_TR</t>
+  </si>
+  <si>
+    <t>hucre-disi-birikimler_others_TR</t>
+  </si>
+  <si>
+    <t>hucre-hasari_others_TR</t>
+  </si>
+  <si>
+    <t>iskemi-nekroz_others_TR</t>
+  </si>
+  <si>
+    <t>konjesyon_others_TR</t>
+  </si>
+  <si>
+    <t>amiloid_others_TR</t>
+  </si>
+  <si>
+    <t>tamir_others_TR</t>
+  </si>
+  <si>
+    <t>erozyon_others_TR</t>
+  </si>
+  <si>
+    <t>akut-inflamasyon_others_TR</t>
+  </si>
+  <si>
+    <t>kronik-inflamasyon_others_TR</t>
+  </si>
+  <si>
+    <t>granulom_others_TR</t>
+  </si>
+  <si>
+    <t>virus_others_TR</t>
+  </si>
+  <si>
+    <t>bakteri_others_TR</t>
+  </si>
+  <si>
+    <t>mantar_others_TR</t>
+  </si>
+  <si>
+    <t>parazit_others_TR</t>
+  </si>
+  <si>
+    <t>benign_others_TR</t>
+  </si>
+  <si>
+    <t>hamartom_others_TR</t>
+  </si>
+  <si>
+    <t>heterotopi_others_TR</t>
+  </si>
+  <si>
+    <t>metaplazi_others_TR</t>
+  </si>
+  <si>
+    <t>karsinogenez_others_TR</t>
+  </si>
+  <si>
+    <t>malign_others_TR</t>
+  </si>
+  <si>
+    <t>metastaz_others_TR</t>
+  </si>
+  <si>
+    <t>tumor-yayilimi_others_TR</t>
+  </si>
+  <si>
+    <t>venoz-invazyon_others_TR</t>
+  </si>
+  <si>
+    <t>ekstramural-venoz-invazyon_others_TR</t>
+  </si>
+  <si>
+    <t>hodgkin_others_TR</t>
+  </si>
+  <si>
+    <t>gastro_others_TR</t>
+  </si>
+  <si>
+    <t>ozofagus_others_TR</t>
+  </si>
+  <si>
+    <t>mide_others_TR</t>
+  </si>
+  <si>
+    <t>gastrit_others_TR</t>
+  </si>
+  <si>
+    <t>duodenum_others_TR</t>
+  </si>
+  <si>
+    <t>kolon_others_TR</t>
+  </si>
+  <si>
+    <t>crohn_others_TR</t>
+  </si>
+  <si>
+    <t>karaciger_others_TR</t>
+  </si>
+  <si>
+    <t>karaciger-benign_others_TR</t>
+  </si>
+  <si>
+    <t>pankreas_others_TR</t>
+  </si>
+  <si>
+    <t>pdac_others_TR</t>
+  </si>
+  <si>
+    <t>safra-kesesi_others_TR</t>
+  </si>
+  <si>
+    <t>ampulla-vater_others_TR</t>
+  </si>
+  <si>
+    <t>noroendokrin_others_TR</t>
+  </si>
+  <si>
+    <t>mezotel_others_TR</t>
+  </si>
+  <si>
+    <t>jineko_others_TR</t>
+  </si>
+  <si>
+    <t>genital_others_TR</t>
+  </si>
+  <si>
+    <t>serviks_others_TR</t>
+  </si>
+  <si>
+    <t>endometrium_others_TR</t>
+  </si>
+  <si>
+    <t>endometriosis_others_TR</t>
+  </si>
+  <si>
+    <t>uriner_others_TR</t>
+  </si>
+  <si>
+    <t>bobrek_others_TR</t>
+  </si>
+  <si>
+    <t>prostat_others_TR</t>
+  </si>
+  <si>
+    <t>hipofiz_others_TR</t>
+  </si>
+  <si>
+    <t>meme_others_TR</t>
+  </si>
+  <si>
+    <t>nazofarenks_others_TR</t>
+  </si>
+  <si>
+    <t>kulak_others_TR</t>
+  </si>
+  <si>
+    <t>tukuruk_others_TR</t>
+  </si>
+  <si>
+    <t>gliom_others_TR</t>
+  </si>
+  <si>
+    <t>meningiom_others_TR</t>
+  </si>
+  <si>
+    <t>sss-vaskuler_others_TR</t>
+  </si>
+  <si>
+    <t>kemik_others_TR</t>
+  </si>
+  <si>
+    <t>adipoz_others_TR</t>
+  </si>
+  <si>
+    <t>plasenta_others_TR</t>
+  </si>
+  <si>
+    <t>gbd_others_TR</t>
+  </si>
+  <si>
+    <t>hacettepecom_others_TR</t>
+  </si>
+  <si>
+    <t>bs_others_TR</t>
+  </si>
+  <si>
+    <t>ice_others_TR</t>
+  </si>
+  <si>
+    <t>wsi_others_TR</t>
+  </si>
+  <si>
+    <t>referanslar_others_TR</t>
+  </si>
+  <si>
+    <t>katki_others_TR</t>
+  </si>
+  <si>
+    <t>yorum_others_TR</t>
+  </si>
+  <si>
+    <t>listing_others_TR</t>
+  </si>
+  <si>
+    <t>listing2_others_TR</t>
   </si>
 </sst>
 </file>
@@ -2346,11 +2796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2359,16 +2809,16 @@
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2385,25 +2835,31 @@
         <v>573</v>
       </c>
       <c r="F1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2413,11 +2869,17 @@
       <c r="E2" t="s">
         <v>574</v>
       </c>
+      <c r="F2" t="s">
+        <v>649</v>
+      </c>
       <c r="G2" t="s">
+        <v>724</v>
+      </c>
+      <c r="I2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2427,11 +2889,17 @@
       <c r="E3" t="s">
         <v>575</v>
       </c>
+      <c r="F3" t="s">
+        <v>650</v>
+      </c>
       <c r="G3" t="s">
+        <v>725</v>
+      </c>
+      <c r="I3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2441,11 +2909,17 @@
       <c r="E4" t="s">
         <v>576</v>
       </c>
+      <c r="F4" t="s">
+        <v>651</v>
+      </c>
       <c r="G4" t="s">
+        <v>726</v>
+      </c>
+      <c r="I4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2455,11 +2929,17 @@
       <c r="E5" t="s">
         <v>577</v>
       </c>
+      <c r="F5" t="s">
+        <v>652</v>
+      </c>
       <c r="G5" t="s">
+        <v>727</v>
+      </c>
+      <c r="I5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2469,11 +2949,17 @@
       <c r="E6" t="s">
         <v>578</v>
       </c>
+      <c r="F6" t="s">
+        <v>653</v>
+      </c>
       <c r="G6" t="s">
+        <v>728</v>
+      </c>
+      <c r="I6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2483,11 +2969,17 @@
       <c r="E7" t="s">
         <v>579</v>
       </c>
+      <c r="F7" t="s">
+        <v>654</v>
+      </c>
       <c r="G7" t="s">
+        <v>729</v>
+      </c>
+      <c r="I7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2497,11 +2989,17 @@
       <c r="E8" t="s">
         <v>580</v>
       </c>
+      <c r="F8" t="s">
+        <v>655</v>
+      </c>
       <c r="G8" t="s">
+        <v>730</v>
+      </c>
+      <c r="I8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2511,11 +3009,17 @@
       <c r="E9" t="s">
         <v>581</v>
       </c>
+      <c r="F9" t="s">
+        <v>656</v>
+      </c>
       <c r="G9" t="s">
+        <v>731</v>
+      </c>
+      <c r="I9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2525,11 +3029,17 @@
       <c r="E10" t="s">
         <v>582</v>
       </c>
+      <c r="F10" t="s">
+        <v>657</v>
+      </c>
       <c r="G10" t="s">
+        <v>732</v>
+      </c>
+      <c r="I10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2539,11 +3049,17 @@
       <c r="E11" t="s">
         <v>583</v>
       </c>
+      <c r="F11" t="s">
+        <v>658</v>
+      </c>
       <c r="G11" t="s">
+        <v>733</v>
+      </c>
+      <c r="I11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2553,11 +3069,17 @@
       <c r="E12" t="s">
         <v>584</v>
       </c>
+      <c r="F12" t="s">
+        <v>659</v>
+      </c>
       <c r="G12" t="s">
+        <v>734</v>
+      </c>
+      <c r="I12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2567,11 +3089,17 @@
       <c r="E13" t="s">
         <v>585</v>
       </c>
+      <c r="F13" t="s">
+        <v>660</v>
+      </c>
       <c r="G13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2581,11 +3109,17 @@
       <c r="E14" t="s">
         <v>586</v>
       </c>
+      <c r="F14" t="s">
+        <v>661</v>
+      </c>
       <c r="G14" t="s">
+        <v>736</v>
+      </c>
+      <c r="I14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2595,11 +3129,17 @@
       <c r="E15" t="s">
         <v>587</v>
       </c>
+      <c r="F15" t="s">
+        <v>662</v>
+      </c>
       <c r="G15" t="s">
+        <v>737</v>
+      </c>
+      <c r="I15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2609,11 +3149,17 @@
       <c r="E16" t="s">
         <v>588</v>
       </c>
+      <c r="F16" t="s">
+        <v>663</v>
+      </c>
       <c r="G16" t="s">
+        <v>738</v>
+      </c>
+      <c r="I16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2623,11 +3169,17 @@
       <c r="E17" t="s">
         <v>589</v>
       </c>
+      <c r="F17" t="s">
+        <v>664</v>
+      </c>
       <c r="G17" t="s">
+        <v>739</v>
+      </c>
+      <c r="I17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2637,11 +3189,17 @@
       <c r="E18" t="s">
         <v>590</v>
       </c>
+      <c r="F18" t="s">
+        <v>665</v>
+      </c>
       <c r="G18" t="s">
+        <v>740</v>
+      </c>
+      <c r="I18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2651,11 +3209,17 @@
       <c r="E19" t="s">
         <v>591</v>
       </c>
+      <c r="F19" t="s">
+        <v>666</v>
+      </c>
       <c r="G19" t="s">
+        <v>741</v>
+      </c>
+      <c r="I19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2665,11 +3229,17 @@
       <c r="E20" t="s">
         <v>592</v>
       </c>
+      <c r="F20" t="s">
+        <v>667</v>
+      </c>
       <c r="G20" t="s">
+        <v>742</v>
+      </c>
+      <c r="I20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2679,11 +3249,17 @@
       <c r="E21" t="s">
         <v>593</v>
       </c>
+      <c r="F21" t="s">
+        <v>668</v>
+      </c>
       <c r="G21" t="s">
+        <v>743</v>
+      </c>
+      <c r="I21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2693,11 +3269,17 @@
       <c r="E22" t="s">
         <v>594</v>
       </c>
+      <c r="F22" t="s">
+        <v>669</v>
+      </c>
       <c r="G22" t="s">
+        <v>744</v>
+      </c>
+      <c r="I22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2707,11 +3289,17 @@
       <c r="E23" t="s">
         <v>595</v>
       </c>
+      <c r="F23" t="s">
+        <v>670</v>
+      </c>
       <c r="G23" t="s">
+        <v>745</v>
+      </c>
+      <c r="I23" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2721,11 +3309,17 @@
       <c r="E24" t="s">
         <v>596</v>
       </c>
+      <c r="F24" t="s">
+        <v>671</v>
+      </c>
       <c r="G24" t="s">
+        <v>746</v>
+      </c>
+      <c r="I24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2735,11 +3329,17 @@
       <c r="E25" t="s">
         <v>597</v>
       </c>
+      <c r="F25" t="s">
+        <v>672</v>
+      </c>
       <c r="G25" t="s">
+        <v>747</v>
+      </c>
+      <c r="I25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2749,11 +3349,17 @@
       <c r="E26" t="s">
         <v>598</v>
       </c>
+      <c r="F26" t="s">
+        <v>673</v>
+      </c>
       <c r="G26" t="s">
+        <v>748</v>
+      </c>
+      <c r="I26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2763,11 +3369,17 @@
       <c r="E27" t="s">
         <v>599</v>
       </c>
+      <c r="F27" t="s">
+        <v>674</v>
+      </c>
       <c r="G27" t="s">
+        <v>749</v>
+      </c>
+      <c r="I27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2777,11 +3389,17 @@
       <c r="E28" t="s">
         <v>600</v>
       </c>
+      <c r="F28" t="s">
+        <v>675</v>
+      </c>
       <c r="G28" t="s">
+        <v>750</v>
+      </c>
+      <c r="I28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2791,11 +3409,17 @@
       <c r="E29" t="s">
         <v>601</v>
       </c>
+      <c r="F29" t="s">
+        <v>676</v>
+      </c>
       <c r="G29" t="s">
+        <v>751</v>
+      </c>
+      <c r="I29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2805,11 +3429,17 @@
       <c r="E30" t="s">
         <v>602</v>
       </c>
+      <c r="F30" t="s">
+        <v>677</v>
+      </c>
       <c r="G30" t="s">
+        <v>752</v>
+      </c>
+      <c r="I30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2819,11 +3449,17 @@
       <c r="E31" t="s">
         <v>603</v>
       </c>
+      <c r="F31" t="s">
+        <v>678</v>
+      </c>
       <c r="G31" t="s">
+        <v>753</v>
+      </c>
+      <c r="I31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2833,11 +3469,17 @@
       <c r="E32" t="s">
         <v>604</v>
       </c>
+      <c r="F32" t="s">
+        <v>679</v>
+      </c>
       <c r="G32" t="s">
+        <v>754</v>
+      </c>
+      <c r="I32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2847,11 +3489,17 @@
       <c r="E33" t="s">
         <v>605</v>
       </c>
+      <c r="F33" t="s">
+        <v>680</v>
+      </c>
       <c r="G33" t="s">
+        <v>755</v>
+      </c>
+      <c r="I33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2861,11 +3509,17 @@
       <c r="E34" t="s">
         <v>606</v>
       </c>
+      <c r="F34" t="s">
+        <v>681</v>
+      </c>
       <c r="G34" t="s">
+        <v>756</v>
+      </c>
+      <c r="I34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2875,11 +3529,17 @@
       <c r="E35" t="s">
         <v>607</v>
       </c>
+      <c r="F35" t="s">
+        <v>682</v>
+      </c>
       <c r="G35" t="s">
+        <v>757</v>
+      </c>
+      <c r="I35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2889,11 +3549,17 @@
       <c r="E36" t="s">
         <v>608</v>
       </c>
+      <c r="F36" t="s">
+        <v>683</v>
+      </c>
       <c r="G36" t="s">
+        <v>758</v>
+      </c>
+      <c r="I36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2903,11 +3569,17 @@
       <c r="E37" t="s">
         <v>609</v>
       </c>
+      <c r="F37" t="s">
+        <v>684</v>
+      </c>
       <c r="G37" t="s">
+        <v>759</v>
+      </c>
+      <c r="I37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2917,11 +3589,17 @@
       <c r="E38" t="s">
         <v>610</v>
       </c>
+      <c r="F38" t="s">
+        <v>685</v>
+      </c>
       <c r="G38" t="s">
+        <v>760</v>
+      </c>
+      <c r="I38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2931,11 +3609,17 @@
       <c r="E39" t="s">
         <v>611</v>
       </c>
+      <c r="F39" t="s">
+        <v>686</v>
+      </c>
       <c r="G39" t="s">
+        <v>761</v>
+      </c>
+      <c r="I39" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2945,11 +3629,17 @@
       <c r="E40" t="s">
         <v>612</v>
       </c>
+      <c r="F40" t="s">
+        <v>687</v>
+      </c>
       <c r="G40" t="s">
+        <v>762</v>
+      </c>
+      <c r="I40" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2959,11 +3649,17 @@
       <c r="E41" t="s">
         <v>613</v>
       </c>
+      <c r="F41" t="s">
+        <v>688</v>
+      </c>
       <c r="G41" t="s">
+        <v>763</v>
+      </c>
+      <c r="I41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2973,11 +3669,17 @@
       <c r="E42" t="s">
         <v>614</v>
       </c>
+      <c r="F42" t="s">
+        <v>689</v>
+      </c>
       <c r="G42" t="s">
+        <v>764</v>
+      </c>
+      <c r="I42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2987,11 +3689,17 @@
       <c r="E43" t="s">
         <v>615</v>
       </c>
+      <c r="F43" t="s">
+        <v>690</v>
+      </c>
       <c r="G43" t="s">
+        <v>765</v>
+      </c>
+      <c r="I43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3001,11 +3709,17 @@
       <c r="E44" t="s">
         <v>616</v>
       </c>
+      <c r="F44" t="s">
+        <v>691</v>
+      </c>
       <c r="G44" t="s">
+        <v>766</v>
+      </c>
+      <c r="I44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -3015,11 +3729,17 @@
       <c r="E45" t="s">
         <v>617</v>
       </c>
+      <c r="F45" t="s">
+        <v>692</v>
+      </c>
       <c r="G45" t="s">
+        <v>767</v>
+      </c>
+      <c r="I45" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -3029,11 +3749,17 @@
       <c r="E46" t="s">
         <v>618</v>
       </c>
+      <c r="F46" t="s">
+        <v>693</v>
+      </c>
       <c r="G46" t="s">
+        <v>768</v>
+      </c>
+      <c r="I46" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -3043,11 +3769,17 @@
       <c r="E47" t="s">
         <v>619</v>
       </c>
+      <c r="F47" t="s">
+        <v>694</v>
+      </c>
       <c r="G47" t="s">
+        <v>769</v>
+      </c>
+      <c r="I47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -3057,11 +3789,17 @@
       <c r="E48" t="s">
         <v>620</v>
       </c>
+      <c r="F48" t="s">
+        <v>695</v>
+      </c>
       <c r="G48" t="s">
+        <v>770</v>
+      </c>
+      <c r="I48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3071,11 +3809,17 @@
       <c r="E49" t="s">
         <v>621</v>
       </c>
+      <c r="F49" t="s">
+        <v>696</v>
+      </c>
       <c r="G49" t="s">
+        <v>771</v>
+      </c>
+      <c r="I49" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3085,11 +3829,17 @@
       <c r="E50" t="s">
         <v>622</v>
       </c>
+      <c r="F50" t="s">
+        <v>697</v>
+      </c>
       <c r="G50" t="s">
+        <v>772</v>
+      </c>
+      <c r="I50" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -3099,11 +3849,17 @@
       <c r="E51" t="s">
         <v>623</v>
       </c>
+      <c r="F51" t="s">
+        <v>698</v>
+      </c>
       <c r="G51" t="s">
+        <v>773</v>
+      </c>
+      <c r="I51" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -3113,11 +3869,17 @@
       <c r="E52" t="s">
         <v>624</v>
       </c>
+      <c r="F52" t="s">
+        <v>699</v>
+      </c>
       <c r="G52" t="s">
+        <v>774</v>
+      </c>
+      <c r="I52" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -3127,11 +3889,17 @@
       <c r="E53" t="s">
         <v>625</v>
       </c>
+      <c r="F53" t="s">
+        <v>700</v>
+      </c>
       <c r="G53" t="s">
+        <v>775</v>
+      </c>
+      <c r="I53" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -3141,11 +3909,17 @@
       <c r="E54" t="s">
         <v>626</v>
       </c>
+      <c r="F54" t="s">
+        <v>701</v>
+      </c>
       <c r="G54" t="s">
+        <v>776</v>
+      </c>
+      <c r="I54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -3155,11 +3929,17 @@
       <c r="E55" t="s">
         <v>627</v>
       </c>
+      <c r="F55" t="s">
+        <v>702</v>
+      </c>
       <c r="G55" t="s">
+        <v>777</v>
+      </c>
+      <c r="I55" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3169,11 +3949,17 @@
       <c r="E56" t="s">
         <v>628</v>
       </c>
+      <c r="F56" t="s">
+        <v>703</v>
+      </c>
       <c r="G56" t="s">
+        <v>778</v>
+      </c>
+      <c r="I56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -3183,11 +3969,17 @@
       <c r="E57" t="s">
         <v>629</v>
       </c>
+      <c r="F57" t="s">
+        <v>704</v>
+      </c>
       <c r="G57" t="s">
+        <v>779</v>
+      </c>
+      <c r="I57" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -3197,11 +3989,17 @@
       <c r="E58" t="s">
         <v>630</v>
       </c>
+      <c r="F58" t="s">
+        <v>705</v>
+      </c>
       <c r="G58" t="s">
+        <v>780</v>
+      </c>
+      <c r="I58" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -3211,11 +4009,17 @@
       <c r="E59" t="s">
         <v>631</v>
       </c>
+      <c r="F59" t="s">
+        <v>706</v>
+      </c>
       <c r="G59" t="s">
+        <v>781</v>
+      </c>
+      <c r="I59" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -3225,11 +4029,17 @@
       <c r="E60" t="s">
         <v>632</v>
       </c>
+      <c r="F60" t="s">
+        <v>707</v>
+      </c>
       <c r="G60" t="s">
+        <v>782</v>
+      </c>
+      <c r="I60" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -3239,11 +4049,17 @@
       <c r="E61" t="s">
         <v>633</v>
       </c>
+      <c r="F61" t="s">
+        <v>708</v>
+      </c>
       <c r="G61" t="s">
+        <v>783</v>
+      </c>
+      <c r="I61" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -3253,11 +4069,17 @@
       <c r="E62" t="s">
         <v>634</v>
       </c>
+      <c r="F62" t="s">
+        <v>709</v>
+      </c>
       <c r="G62" t="s">
+        <v>784</v>
+      </c>
+      <c r="I62" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -3267,11 +4089,17 @@
       <c r="E63" t="s">
         <v>635</v>
       </c>
+      <c r="F63" t="s">
+        <v>710</v>
+      </c>
       <c r="G63" t="s">
+        <v>785</v>
+      </c>
+      <c r="I63" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -3281,11 +4109,17 @@
       <c r="E64" t="s">
         <v>636</v>
       </c>
+      <c r="F64" t="s">
+        <v>711</v>
+      </c>
       <c r="G64" t="s">
+        <v>786</v>
+      </c>
+      <c r="I64" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -3295,11 +4129,17 @@
       <c r="E65" t="s">
         <v>637</v>
       </c>
+      <c r="F65" t="s">
+        <v>712</v>
+      </c>
       <c r="G65" t="s">
+        <v>787</v>
+      </c>
+      <c r="I65" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -3309,11 +4149,17 @@
       <c r="E66" t="s">
         <v>638</v>
       </c>
+      <c r="F66" t="s">
+        <v>713</v>
+      </c>
       <c r="G66" t="s">
+        <v>788</v>
+      </c>
+      <c r="I66" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -3323,11 +4169,17 @@
       <c r="E67" t="s">
         <v>639</v>
       </c>
+      <c r="F67" t="s">
+        <v>714</v>
+      </c>
       <c r="G67" t="s">
+        <v>789</v>
+      </c>
+      <c r="I67" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -3337,11 +4189,17 @@
       <c r="E68" t="s">
         <v>640</v>
       </c>
+      <c r="F68" t="s">
+        <v>715</v>
+      </c>
       <c r="G68" t="s">
+        <v>790</v>
+      </c>
+      <c r="I68" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -3351,11 +4209,17 @@
       <c r="E69" t="s">
         <v>641</v>
       </c>
+      <c r="F69" t="s">
+        <v>716</v>
+      </c>
       <c r="G69" t="s">
+        <v>791</v>
+      </c>
+      <c r="I69" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -3365,11 +4229,17 @@
       <c r="E70" t="s">
         <v>642</v>
       </c>
+      <c r="F70" t="s">
+        <v>717</v>
+      </c>
       <c r="G70" t="s">
+        <v>792</v>
+      </c>
+      <c r="I70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -3379,11 +4249,17 @@
       <c r="E71" t="s">
         <v>643</v>
       </c>
+      <c r="F71" t="s">
+        <v>718</v>
+      </c>
       <c r="G71" t="s">
+        <v>793</v>
+      </c>
+      <c r="I71" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -3393,11 +4269,17 @@
       <c r="E72" t="s">
         <v>644</v>
       </c>
+      <c r="F72" t="s">
+        <v>719</v>
+      </c>
       <c r="G72" t="s">
+        <v>794</v>
+      </c>
+      <c r="I72" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -3407,11 +4289,17 @@
       <c r="E73" t="s">
         <v>645</v>
       </c>
+      <c r="F73" t="s">
+        <v>720</v>
+      </c>
       <c r="G73" t="s">
+        <v>795</v>
+      </c>
+      <c r="I73" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -3421,11 +4309,17 @@
       <c r="E74" t="s">
         <v>646</v>
       </c>
+      <c r="F74" t="s">
+        <v>721</v>
+      </c>
       <c r="G74" t="s">
+        <v>796</v>
+      </c>
+      <c r="I74" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -3435,7 +4329,13 @@
       <c r="E75" t="s">
         <v>647</v>
       </c>
+      <c r="F75" t="s">
+        <v>722</v>
+      </c>
       <c r="G75" t="s">
+        <v>797</v>
+      </c>
+      <c r="I75" t="s">
         <v>108</v>
       </c>
     </row>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7FE5B3-ACF3-BD4D-B3DF-0566E9431E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4980D3-8DB2-7743-A77D-78C8D12370A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="16000" yWindow="5920" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="873">
   <si>
     <t>index</t>
   </si>
@@ -2434,6 +2434,231 @@
   </si>
   <si>
     <t>listing2_others_TR</t>
+  </si>
+  <si>
+    <t>EN_epub_word_chapter_qmd</t>
+  </si>
+  <si>
+    <t>introduction_epub_word_EN</t>
+  </si>
+  <si>
+    <t>authors_epub_word_EN</t>
+  </si>
+  <si>
+    <t>techniques_epub_word_EN</t>
+  </si>
+  <si>
+    <t>intracellular-accumulations_epub_word_EN</t>
+  </si>
+  <si>
+    <t>extracellular-accumulations_epub_word_EN</t>
+  </si>
+  <si>
+    <t>cell-injury_epub_word_EN</t>
+  </si>
+  <si>
+    <t>ischemia-necrosis_epub_word_EN</t>
+  </si>
+  <si>
+    <t>congestion_epub_word_EN</t>
+  </si>
+  <si>
+    <t>amyloidosis_epub_word_EN</t>
+  </si>
+  <si>
+    <t>repair_epub_word_EN</t>
+  </si>
+  <si>
+    <t>erosion_epub_word_EN</t>
+  </si>
+  <si>
+    <t>acute-inflammation_epub_word_EN</t>
+  </si>
+  <si>
+    <t>chronic-inflammation_epub_word_EN</t>
+  </si>
+  <si>
+    <t>granulamatous-inflammation_epub_word_EN</t>
+  </si>
+  <si>
+    <t>virus_epub_word_EN</t>
+  </si>
+  <si>
+    <t>bacteria_epub_word_EN</t>
+  </si>
+  <si>
+    <t>fungi_epub_word_EN</t>
+  </si>
+  <si>
+    <t>parasites_epub_word_EN</t>
+  </si>
+  <si>
+    <t>benign_epub_word_EN</t>
+  </si>
+  <si>
+    <t>hamartoma_epub_word_EN</t>
+  </si>
+  <si>
+    <t>heterotopia_epub_word_EN</t>
+  </si>
+  <si>
+    <t>metaplasia_epub_word_EN</t>
+  </si>
+  <si>
+    <t>carcinogenesis_epub_word_EN</t>
+  </si>
+  <si>
+    <t>malignant_epub_word_EN</t>
+  </si>
+  <si>
+    <t>metastasis_epub_word_EN</t>
+  </si>
+  <si>
+    <t>tumor-spread_epub_word_EN</t>
+  </si>
+  <si>
+    <t>venous-invasion_epub_word_EN</t>
+  </si>
+  <si>
+    <t>extramural-venous-invasion_epub_word_EN</t>
+  </si>
+  <si>
+    <t>hodgkin_epub_word_EN</t>
+  </si>
+  <si>
+    <t>gastro_epub_word_EN</t>
+  </si>
+  <si>
+    <t>esophagus_epub_word_EN</t>
+  </si>
+  <si>
+    <t>stomach_epub_word_EN</t>
+  </si>
+  <si>
+    <t>gastritis_epub_word_EN</t>
+  </si>
+  <si>
+    <t>duodenum_epub_word_EN</t>
+  </si>
+  <si>
+    <t>colon_epub_word_EN</t>
+  </si>
+  <si>
+    <t>crohn_epub_word_EN</t>
+  </si>
+  <si>
+    <t>liver_epub_word_EN</t>
+  </si>
+  <si>
+    <t>benign-liver-tumors_epub_word_EN</t>
+  </si>
+  <si>
+    <t>pancreas_epub_word_EN</t>
+  </si>
+  <si>
+    <t>pdac_epub_word_EN</t>
+  </si>
+  <si>
+    <t>gallbladder_epub_word_EN</t>
+  </si>
+  <si>
+    <t>ampulla-vater_epub_word_EN</t>
+  </si>
+  <si>
+    <t>neuroendocrine_epub_word_EN</t>
+  </si>
+  <si>
+    <t>mesothelial_epub_word_EN</t>
+  </si>
+  <si>
+    <t>gynecologic_epub_word_EN</t>
+  </si>
+  <si>
+    <t>genital_epub_word_EN</t>
+  </si>
+  <si>
+    <t>cervix_epub_word_EN</t>
+  </si>
+  <si>
+    <t>endometrium_epub_word_EN</t>
+  </si>
+  <si>
+    <t>endometriosis_epub_word_EN</t>
+  </si>
+  <si>
+    <t>urinary_epub_word_EN</t>
+  </si>
+  <si>
+    <t>kidney_epub_word_EN</t>
+  </si>
+  <si>
+    <t>prostate_epub_word_EN</t>
+  </si>
+  <si>
+    <t>pituitary_epub_word_EN</t>
+  </si>
+  <si>
+    <t>breast_epub_word_EN</t>
+  </si>
+  <si>
+    <t>nasopharynx_epub_word_EN</t>
+  </si>
+  <si>
+    <t>ear_epub_word_EN</t>
+  </si>
+  <si>
+    <t>salivary_epub_word_EN</t>
+  </si>
+  <si>
+    <t>glioma_epub_word_EN</t>
+  </si>
+  <si>
+    <t>meningioma_epub_word_EN</t>
+  </si>
+  <si>
+    <t>cns-vascular_epub_word_EN</t>
+  </si>
+  <si>
+    <t>bone_epub_word_EN</t>
+  </si>
+  <si>
+    <t>adipose_epub_word_EN</t>
+  </si>
+  <si>
+    <t>placenta_epub_word_EN</t>
+  </si>
+  <si>
+    <t>gbd_epub_word_EN</t>
+  </si>
+  <si>
+    <t>hacettepecom_epub_word_EN</t>
+  </si>
+  <si>
+    <t>bs_epub_word_EN</t>
+  </si>
+  <si>
+    <t>ice_epub_word_EN</t>
+  </si>
+  <si>
+    <t>wsi_epub_word_EN</t>
+  </si>
+  <si>
+    <t>references_epub_word_EN</t>
+  </si>
+  <si>
+    <t>contributions_epub_word_EN</t>
+  </si>
+  <si>
+    <t>comments_epub_word_EN</t>
+  </si>
+  <si>
+    <t>listing_epub_word_EN</t>
+  </si>
+  <si>
+    <t>listing2_epub_word_EN</t>
+  </si>
+  <si>
+    <t>index_epub_word_EN</t>
   </si>
 </sst>
 </file>
@@ -2796,11 +3021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2812,13 +3037,14 @@
     <col min="5" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2847,19 +3073,22 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
+        <v>798</v>
+      </c>
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2878,8 +3107,11 @@
       <c r="I2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2898,8 +3130,11 @@
       <c r="I3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2918,8 +3153,11 @@
       <c r="I4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2938,8 +3176,11 @@
       <c r="I5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2958,8 +3199,11 @@
       <c r="I6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2978,8 +3222,11 @@
       <c r="I7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2998,8 +3245,11 @@
       <c r="I8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3018,8 +3268,11 @@
       <c r="I9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3038,8 +3291,11 @@
       <c r="I10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3058,8 +3314,11 @@
       <c r="I11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3078,8 +3337,11 @@
       <c r="I12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3098,8 +3360,11 @@
       <c r="I13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3118,8 +3383,11 @@
       <c r="I14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3138,8 +3406,11 @@
       <c r="I15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3158,8 +3429,11 @@
       <c r="I16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3178,8 +3452,11 @@
       <c r="I17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3198,8 +3475,11 @@
       <c r="I18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3218,8 +3498,11 @@
       <c r="I19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3238,8 +3521,11 @@
       <c r="I20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3258,8 +3544,11 @@
       <c r="I21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3278,8 +3567,11 @@
       <c r="I22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3298,8 +3590,11 @@
       <c r="I23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3318,8 +3613,11 @@
       <c r="I24" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3338,8 +3636,11 @@
       <c r="I25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3358,8 +3659,11 @@
       <c r="I26" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3378,8 +3682,11 @@
       <c r="I27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3398,8 +3705,11 @@
       <c r="I28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3418,8 +3728,11 @@
       <c r="I29" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3438,8 +3751,11 @@
       <c r="I30" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3458,8 +3774,11 @@
       <c r="I31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3478,8 +3797,11 @@
       <c r="I32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3498,8 +3820,11 @@
       <c r="I33" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3518,8 +3843,11 @@
       <c r="I34" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3538,8 +3866,11 @@
       <c r="I35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3558,8 +3889,11 @@
       <c r="I36" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3578,8 +3912,11 @@
       <c r="I37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -3598,8 +3935,11 @@
       <c r="I38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3618,8 +3958,11 @@
       <c r="I39" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3638,8 +3981,11 @@
       <c r="I40" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3658,8 +4004,11 @@
       <c r="I41" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3678,8 +4027,11 @@
       <c r="I42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3698,8 +4050,11 @@
       <c r="I43" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3718,8 +4073,11 @@
       <c r="I44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -3738,8 +4096,11 @@
       <c r="I45" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -3758,8 +4119,11 @@
       <c r="I46" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -3778,8 +4142,11 @@
       <c r="I47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -3798,8 +4165,11 @@
       <c r="I48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3818,8 +4188,11 @@
       <c r="I49" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -3838,8 +4211,11 @@
       <c r="I50" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -3858,8 +4234,11 @@
       <c r="I51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -3878,8 +4257,11 @@
       <c r="I52" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -3898,8 +4280,11 @@
       <c r="I53" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -3918,8 +4303,11 @@
       <c r="I54" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -3938,8 +4326,11 @@
       <c r="I55" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3958,8 +4349,11 @@
       <c r="I56" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -3978,8 +4372,11 @@
       <c r="I57" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -3998,8 +4395,11 @@
       <c r="I58" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -4018,8 +4418,11 @@
       <c r="I59" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4441,11 @@
       <c r="I60" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -4058,8 +4464,11 @@
       <c r="I61" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -4078,8 +4487,11 @@
       <c r="I62" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -4098,8 +4510,11 @@
       <c r="I63" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -4118,8 +4533,11 @@
       <c r="I64" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4138,8 +4556,11 @@
       <c r="I65" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -4158,8 +4579,11 @@
       <c r="I66" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -4178,8 +4602,11 @@
       <c r="I67" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -4198,8 +4625,11 @@
       <c r="I68" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -4218,8 +4648,11 @@
       <c r="I69" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -4238,8 +4671,11 @@
       <c r="I70" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -4258,8 +4694,11 @@
       <c r="I71" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -4278,8 +4717,11 @@
       <c r="I72" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -4298,8 +4740,11 @@
       <c r="I73" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -4318,8 +4763,11 @@
       <c r="I74" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -4337,6 +4785,9 @@
       </c>
       <c r="I75" t="s">
         <v>108</v>
+      </c>
+      <c r="J75" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4980D3-8DB2-7743-A77D-78C8D12370A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1FDC3-02B8-3043-AE6D-D075B3C8A5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="5920" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
-    <sheet name="img_url_links" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="img_url_links" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">img_url_links!$B$1:$D$506</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">img_url_links!$B$1:$D$506</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="948">
   <si>
     <t>index</t>
   </si>
@@ -2659,6 +2660,231 @@
   </si>
   <si>
     <t>index_epub_word_EN</t>
+  </si>
+  <si>
+    <t>EN_pdf_chapter_qmd</t>
+  </si>
+  <si>
+    <t>index_pdf_EN</t>
+  </si>
+  <si>
+    <t>virus_pdf_EN</t>
+  </si>
+  <si>
+    <t>benign_pdf_EN</t>
+  </si>
+  <si>
+    <t>hodgkin_pdf_EN</t>
+  </si>
+  <si>
+    <t>gastro_pdf_EN</t>
+  </si>
+  <si>
+    <t>duodenum_pdf_EN</t>
+  </si>
+  <si>
+    <t>crohn_pdf_EN</t>
+  </si>
+  <si>
+    <t>pdac_pdf_EN</t>
+  </si>
+  <si>
+    <t>ampulla-vater_pdf_EN</t>
+  </si>
+  <si>
+    <t>genital_pdf_EN</t>
+  </si>
+  <si>
+    <t>endometrium_pdf_EN</t>
+  </si>
+  <si>
+    <t>endometriosis_pdf_EN</t>
+  </si>
+  <si>
+    <t>gbd_pdf_EN</t>
+  </si>
+  <si>
+    <t>hacettepecom_pdf_EN</t>
+  </si>
+  <si>
+    <t>bs_pdf_EN</t>
+  </si>
+  <si>
+    <t>ice_pdf_EN</t>
+  </si>
+  <si>
+    <t>wsi_pdf_EN</t>
+  </si>
+  <si>
+    <t>listing_pdf_EN</t>
+  </si>
+  <si>
+    <t>listing2_pdf_EN</t>
+  </si>
+  <si>
+    <t>introduction_pdf_EN</t>
+  </si>
+  <si>
+    <t>authors_pdf_EN</t>
+  </si>
+  <si>
+    <t>techniques_pdf_EN</t>
+  </si>
+  <si>
+    <t>intracellular-accumulations_pdf_EN</t>
+  </si>
+  <si>
+    <t>extracellular-accumulations_pdf_EN</t>
+  </si>
+  <si>
+    <t>cell-injury_pdf_EN</t>
+  </si>
+  <si>
+    <t>ischemia-necrosis_pdf_EN</t>
+  </si>
+  <si>
+    <t>congestion_pdf_EN</t>
+  </si>
+  <si>
+    <t>amyloidosis_pdf_EN</t>
+  </si>
+  <si>
+    <t>repair_pdf_EN</t>
+  </si>
+  <si>
+    <t>erosion_pdf_EN</t>
+  </si>
+  <si>
+    <t>acute-inflammation_pdf_EN</t>
+  </si>
+  <si>
+    <t>chronic-inflammation_pdf_EN</t>
+  </si>
+  <si>
+    <t>granulamatous-inflammation_pdf_EN</t>
+  </si>
+  <si>
+    <t>bacteria_pdf_EN</t>
+  </si>
+  <si>
+    <t>fungi_pdf_EN</t>
+  </si>
+  <si>
+    <t>parasites_pdf_EN</t>
+  </si>
+  <si>
+    <t>hamartoma_pdf_EN</t>
+  </si>
+  <si>
+    <t>heterotopia_pdf_EN</t>
+  </si>
+  <si>
+    <t>metaplasia_pdf_EN</t>
+  </si>
+  <si>
+    <t>carcinogenesis_pdf_EN</t>
+  </si>
+  <si>
+    <t>malignant_pdf_EN</t>
+  </si>
+  <si>
+    <t>metastasis_pdf_EN</t>
+  </si>
+  <si>
+    <t>tumor-spread_pdf_EN</t>
+  </si>
+  <si>
+    <t>venous-invasion_pdf_EN</t>
+  </si>
+  <si>
+    <t>extramural-venous-invasion_pdf_EN</t>
+  </si>
+  <si>
+    <t>esophagus_pdf_EN</t>
+  </si>
+  <si>
+    <t>stomach_pdf_EN</t>
+  </si>
+  <si>
+    <t>gastritis_pdf_EN</t>
+  </si>
+  <si>
+    <t>colon_pdf_EN</t>
+  </si>
+  <si>
+    <t>liver_pdf_EN</t>
+  </si>
+  <si>
+    <t>benign-liver-tumors_pdf_EN</t>
+  </si>
+  <si>
+    <t>pancreas_pdf_EN</t>
+  </si>
+  <si>
+    <t>gallbladder_pdf_EN</t>
+  </si>
+  <si>
+    <t>neuroendocrine_pdf_EN</t>
+  </si>
+  <si>
+    <t>mesothelial_pdf_EN</t>
+  </si>
+  <si>
+    <t>gynecologic_pdf_EN</t>
+  </si>
+  <si>
+    <t>cervix_pdf_EN</t>
+  </si>
+  <si>
+    <t>urinary_pdf_EN</t>
+  </si>
+  <si>
+    <t>kidney_pdf_EN</t>
+  </si>
+  <si>
+    <t>prostate_pdf_EN</t>
+  </si>
+  <si>
+    <t>pituitary_pdf_EN</t>
+  </si>
+  <si>
+    <t>breast_pdf_EN</t>
+  </si>
+  <si>
+    <t>nasopharynx_pdf_EN</t>
+  </si>
+  <si>
+    <t>ear_pdf_EN</t>
+  </si>
+  <si>
+    <t>salivary_pdf_EN</t>
+  </si>
+  <si>
+    <t>glioma_pdf_EN</t>
+  </si>
+  <si>
+    <t>meningioma_pdf_EN</t>
+  </si>
+  <si>
+    <t>cns-vascular_pdf_EN</t>
+  </si>
+  <si>
+    <t>bone_pdf_EN</t>
+  </si>
+  <si>
+    <t>adipose_pdf_EN</t>
+  </si>
+  <si>
+    <t>placenta_pdf_EN</t>
+  </si>
+  <si>
+    <t>references_pdf_EN</t>
+  </si>
+  <si>
+    <t>contributions_pdf_EN</t>
+  </si>
+  <si>
+    <t>comments_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -3021,11 +3247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3037,14 +3263,14 @@
     <col min="5" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3076,19 +3302,22 @@
         <v>798</v>
       </c>
       <c r="K1" t="s">
+        <v>873</v>
+      </c>
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3110,8 +3339,11 @@
       <c r="J2" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3133,8 +3365,11 @@
       <c r="J3" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3156,8 +3391,11 @@
       <c r="J4" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3179,8 +3417,11 @@
       <c r="J5" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3202,8 +3443,11 @@
       <c r="J6" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3225,8 +3469,11 @@
       <c r="J7" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3248,8 +3495,11 @@
       <c r="J8" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3271,8 +3521,11 @@
       <c r="J9" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3294,8 +3547,11 @@
       <c r="J10" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3317,8 +3573,11 @@
       <c r="J11" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3340,8 +3599,11 @@
       <c r="J12" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3363,8 +3625,11 @@
       <c r="J13" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3386,8 +3651,11 @@
       <c r="J14" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3409,8 +3677,11 @@
       <c r="J15" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3432,8 +3703,11 @@
       <c r="J16" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3455,8 +3729,11 @@
       <c r="J17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3478,8 +3755,11 @@
       <c r="J18" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3501,8 +3781,11 @@
       <c r="J19" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3524,8 +3807,11 @@
       <c r="J20" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3547,8 +3833,11 @@
       <c r="J21" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3570,8 +3859,11 @@
       <c r="J22" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3593,8 +3885,11 @@
       <c r="J23" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3616,8 +3911,11 @@
       <c r="J24" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3639,8 +3937,11 @@
       <c r="J25" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3662,8 +3963,11 @@
       <c r="J26" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3685,8 +3989,11 @@
       <c r="J27" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3708,8 +4015,11 @@
       <c r="J28" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3731,8 +4041,11 @@
       <c r="J29" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3754,8 +4067,11 @@
       <c r="J30" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3777,8 +4093,11 @@
       <c r="J31" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3800,8 +4119,11 @@
       <c r="J32" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3823,8 +4145,11 @@
       <c r="J33" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3846,8 +4171,11 @@
       <c r="J34" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +4197,11 @@
       <c r="J35" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3892,8 +4223,11 @@
       <c r="J36" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3915,8 +4249,11 @@
       <c r="J37" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -3938,8 +4275,11 @@
       <c r="J38" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3961,8 +4301,11 @@
       <c r="J39" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3984,8 +4327,11 @@
       <c r="J40" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -4007,8 +4353,11 @@
       <c r="J41" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -4030,8 +4379,11 @@
       <c r="J42" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4053,8 +4405,11 @@
       <c r="J43" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -4076,8 +4431,11 @@
       <c r="J44" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -4099,8 +4457,11 @@
       <c r="J45" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -4122,8 +4483,11 @@
       <c r="J46" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -4145,8 +4509,11 @@
       <c r="J47" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -4168,8 +4535,11 @@
       <c r="J48" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -4191,8 +4561,11 @@
       <c r="J49" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -4214,8 +4587,11 @@
       <c r="J50" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -4237,8 +4613,11 @@
       <c r="J51" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -4260,8 +4639,11 @@
       <c r="J52" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -4283,8 +4665,11 @@
       <c r="J53" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -4306,8 +4691,11 @@
       <c r="J54" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -4329,8 +4717,11 @@
       <c r="J55" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -4352,8 +4743,11 @@
       <c r="J56" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -4375,8 +4769,11 @@
       <c r="J57" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -4398,8 +4795,11 @@
       <c r="J58" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -4421,8 +4821,11 @@
       <c r="J59" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -4444,8 +4847,11 @@
       <c r="J60" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -4467,8 +4873,11 @@
       <c r="J61" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -4490,8 +4899,11 @@
       <c r="J62" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -4513,8 +4925,11 @@
       <c r="J63" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -4536,8 +4951,11 @@
       <c r="J64" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4559,8 +4977,11 @@
       <c r="J65" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -4582,8 +5003,11 @@
       <c r="J66" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -4605,8 +5029,11 @@
       <c r="J67" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -4628,8 +5055,11 @@
       <c r="J68" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -4651,8 +5081,11 @@
       <c r="J69" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -4674,8 +5107,11 @@
       <c r="J70" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -4697,8 +5133,11 @@
       <c r="J71" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -4720,8 +5159,11 @@
       <c r="J72" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -4743,8 +5185,11 @@
       <c r="J73" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -4766,8 +5211,11 @@
       <c r="J74" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -4788,6 +5236,9 @@
       </c>
       <c r="J75" t="s">
         <v>871</v>
+      </c>
+      <c r="K75" t="s">
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -4797,6 +5248,399 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836776B0-A411-444A-A4BE-0B2E3B72CCEF}">
+  <dimension ref="A1:A75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778041DF-66F8-024B-9CEF-40948B51CD1F}">
   <dimension ref="A1:F150"/>
   <sheetViews>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1FDC3-02B8-3043-AE6D-D075B3C8A5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BAF7C8-6B70-6742-9DFE-76C715080418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="img_url_links" sheetId="2" r:id="rId3"/>
+    <sheet name="img_url_links" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">img_url_links!$B$1:$D$506</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">img_url_links!$B$1:$D$506</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="948">
   <si>
     <t>index</t>
   </si>
@@ -3251,7 +3250,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5248,399 +5247,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836776B0-A411-444A-A4BE-0B2E3B72CCEF}">
-  <dimension ref="A1:A75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>892</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778041DF-66F8-024B-9CEF-40948B51CD1F}">
   <dimension ref="A1:F150"/>
   <sheetViews>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BAF7C8-6B70-6742-9DFE-76C715080418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A495522A-F298-8A4B-A440-A0C52C8C5E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1012">
   <si>
     <t>index</t>
   </si>
@@ -2884,16 +2884,214 @@
   </si>
   <si>
     <t>comments_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS1</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS2</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS3</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS4</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS5</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS6</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS7</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS8</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS9</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS10</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS11</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS12</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS13</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS14</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS15</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS16</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS17</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS18</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS19</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS20</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS21</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS22</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS23</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS24</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS25</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS26</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS27</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS28</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS29</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS30</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS31</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS32</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS1_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS2_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS3_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS4_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS5_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS6_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS7_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS8_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS9_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS10_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS11_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS12_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS13_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS14_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS15_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS16_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS17_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS18_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS19_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS20_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS21_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS22_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS23_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS24_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS25_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS26_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS27_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS28_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS29_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS30_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS31_pdf_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS32_pdf_TR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3246,11 +3444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5240,7 +5438,264 @@
         <v>892</v>
       </c>
     </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>948</v>
+      </c>
+      <c r="F76" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>949</v>
+      </c>
+      <c r="F77" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>950</v>
+      </c>
+      <c r="F78" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>951</v>
+      </c>
+      <c r="F79" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>952</v>
+      </c>
+      <c r="F80" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>953</v>
+      </c>
+      <c r="F81" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>954</v>
+      </c>
+      <c r="F82" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>955</v>
+      </c>
+      <c r="F83" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>956</v>
+      </c>
+      <c r="F84" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>957</v>
+      </c>
+      <c r="F85" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>958</v>
+      </c>
+      <c r="F86" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>959</v>
+      </c>
+      <c r="F87" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>960</v>
+      </c>
+      <c r="F88" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>961</v>
+      </c>
+      <c r="F89" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>962</v>
+      </c>
+      <c r="F90" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>963</v>
+      </c>
+      <c r="F91" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>964</v>
+      </c>
+      <c r="F92" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>965</v>
+      </c>
+      <c r="F93" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>966</v>
+      </c>
+      <c r="F94" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>967</v>
+      </c>
+      <c r="F95" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>968</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>969</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>970</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>971</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>972</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>973</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>974</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>975</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>976</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>977</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>978</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>979</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1011</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A495522A-F298-8A4B-A440-A0C52C8C5E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE1A0EB-E733-4E4B-87D2-59F12F4738C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
     <sheet name="img_url_links" sheetId="2" r:id="rId2"/>
+    <sheet name="file_names" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">img_url_links!$B$1:$D$506</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1097">
   <si>
     <t>index</t>
   </si>
@@ -3076,6 +3077,261 @@
   </si>
   <si>
     <t>_subchapters/_BS32_pdf_TR</t>
+  </si>
+  <si>
+    <t>gsub_files_pdf_TR</t>
+  </si>
+  <si>
+    <t>bs_pdf_TR.qmd</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_1</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_1_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_2</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_2_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_3</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_3_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_4</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_4_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_5</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_5_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_6</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_6_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_7</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_7_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_8</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_8_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_9</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_9_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_10</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_10_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_11</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_11_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_12</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_12_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_13</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_13_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_14</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_14_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_15</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_15_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_16</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_16_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_17</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_17_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_18</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_18_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_19</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_19_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_20</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_20_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_21</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_21_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_22</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_22_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_23</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_23_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_24</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_24_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_25</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_25_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_26</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_26_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_27</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_27_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_28</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_28_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_29</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_29_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_30</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_30_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_31</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_31_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_32</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_32_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_33</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_33_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_34</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_34_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_35</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_35_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_36</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_36_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_37</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_37_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_38</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_38_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_39</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_39_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_40</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_40_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_41</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_41_pdf_TR</t>
+  </si>
+  <si>
+    <t>hacettepecom_pdf_TR.qmd</t>
   </si>
 </sst>
 </file>
@@ -3444,11 +3700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108:F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5692,6 +5948,334 @@
       </c>
       <c r="F107" t="s">
         <v>1011</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -7704,4 +8288,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C10F84-4214-A542-88B3-724262ABD536}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE1A0EB-E733-4E4B-87D2-59F12F4738C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA757634-4C71-DF42-A33B-C5B98F2AEEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1316">
   <si>
     <t>index</t>
   </si>
@@ -3332,6 +3332,663 @@
   </si>
   <si>
     <t>hacettepecom_pdf_TR.qmd</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS1_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS2_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS3_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS4_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS5_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS6_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS7_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS8_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS9_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS10_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS11_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS12_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS13_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS14_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS15_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS16_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS17_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS18_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS19_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS20_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS21_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS22_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS23_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS24_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS25_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS26_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS27_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS28_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS29_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS30_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS31_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS32_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_1_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_2_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_3_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_4_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_5_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_6_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_7_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_8_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_9_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_10_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_11_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_12_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_13_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_14_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_15_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_16_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_17_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_18_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_19_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_20_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_21_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_22_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_23_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_24_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_25_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_26_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_27_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_28_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_29_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_30_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_31_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_32_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_33_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_34_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_35_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_36_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_37_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_38_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_39_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_40_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_41_pdf_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS1_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS2_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS3_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS4_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS5_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS6_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS7_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS8_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS9_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS10_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS11_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS12_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS13_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS14_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS15_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS16_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS17_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS18_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS19_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS20_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS21_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS22_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS23_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS24_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS25_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS26_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS27_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS28_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS29_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS30_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS31_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS32_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_1_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_2_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_3_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_4_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_5_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_6_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_7_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_8_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_9_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_10_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_11_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_12_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_13_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_14_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_15_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_16_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_17_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_18_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_19_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_20_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_21_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_22_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_23_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_24_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_25_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_26_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_27_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_28_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_29_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_30_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_31_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_32_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_33_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_34_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_35_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_36_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_37_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_38_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_39_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_40_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_41_epub_word_TR</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS1_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS2_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS3_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS4_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS5_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS6_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS7_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS8_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS9_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS10_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS11_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS12_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS13_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS14_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS15_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS16_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS17_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS18_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS19_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS20_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS21_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS22_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS23_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS24_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS25_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS26_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS27_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS28_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS29_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS30_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS31_epub_word_EN</t>
+  </si>
+  <si>
+    <t>_subchapters/_BS32_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_1_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_2_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_3_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_4_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_5_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_6_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_7_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_8_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_9_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_10_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_11_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_12_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_13_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_14_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_15_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_16_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_17_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_18_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_19_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_20_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_21_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_22_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_23_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_24_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_25_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_26_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_27_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_28_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_29_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_30_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_31_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_32_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_33_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_34_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_35_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_36_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_37_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_38_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_39_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_40_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_hacettepe_com_case_41_epub_word_EN</t>
   </si>
 </sst>
 </file>
@@ -3702,9 +4359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108:F148"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5698,584 +6355,1241 @@
       <c r="D76" t="s">
         <v>948</v>
       </c>
+      <c r="E76" t="s">
+        <v>1170</v>
+      </c>
       <c r="F76" t="s">
         <v>980</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
         <v>949</v>
       </c>
+      <c r="E77" t="s">
+        <v>1171</v>
+      </c>
       <c r="F77" t="s">
         <v>981</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>950</v>
       </c>
+      <c r="E78" t="s">
+        <v>1172</v>
+      </c>
       <c r="F78" t="s">
         <v>982</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>951</v>
       </c>
+      <c r="E79" t="s">
+        <v>1173</v>
+      </c>
       <c r="F79" t="s">
         <v>983</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>952</v>
       </c>
+      <c r="E80" t="s">
+        <v>1174</v>
+      </c>
       <c r="F80" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J80" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>953</v>
       </c>
+      <c r="E81" t="s">
+        <v>1175</v>
+      </c>
       <c r="F81" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J81" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>954</v>
       </c>
+      <c r="E82" t="s">
+        <v>1176</v>
+      </c>
       <c r="F82" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J82" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
         <v>955</v>
       </c>
+      <c r="E83" t="s">
+        <v>1177</v>
+      </c>
       <c r="F83" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J83" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
         <v>956</v>
       </c>
+      <c r="E84" t="s">
+        <v>1178</v>
+      </c>
       <c r="F84" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J84" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
         <v>957</v>
       </c>
+      <c r="E85" t="s">
+        <v>1179</v>
+      </c>
       <c r="F85" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J85" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
         <v>958</v>
       </c>
+      <c r="E86" t="s">
+        <v>1180</v>
+      </c>
       <c r="F86" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
         <v>959</v>
       </c>
+      <c r="E87" t="s">
+        <v>1181</v>
+      </c>
       <c r="F87" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J87" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
         <v>960</v>
       </c>
+      <c r="E88" t="s">
+        <v>1182</v>
+      </c>
       <c r="F88" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J88" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
         <v>961</v>
       </c>
+      <c r="E89" t="s">
+        <v>1183</v>
+      </c>
       <c r="F89" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
         <v>962</v>
       </c>
+      <c r="E90" t="s">
+        <v>1184</v>
+      </c>
       <c r="F90" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J90" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
         <v>963</v>
       </c>
+      <c r="E91" t="s">
+        <v>1185</v>
+      </c>
       <c r="F91" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J91" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
         <v>964</v>
       </c>
+      <c r="E92" t="s">
+        <v>1186</v>
+      </c>
       <c r="F92" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J92" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
         <v>965</v>
       </c>
+      <c r="E93" t="s">
+        <v>1187</v>
+      </c>
       <c r="F93" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J93" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
         <v>966</v>
       </c>
+      <c r="E94" t="s">
+        <v>1188</v>
+      </c>
       <c r="F94" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J94" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>967</v>
       </c>
+      <c r="E95" t="s">
+        <v>1189</v>
+      </c>
       <c r="F95" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J95" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
         <v>968</v>
       </c>
+      <c r="E96" t="s">
+        <v>1190</v>
+      </c>
       <c r="F96" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J96" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
         <v>969</v>
       </c>
+      <c r="E97" t="s">
+        <v>1191</v>
+      </c>
       <c r="F97" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J97" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
         <v>970</v>
       </c>
+      <c r="E98" t="s">
+        <v>1192</v>
+      </c>
       <c r="F98" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J98" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
         <v>971</v>
       </c>
+      <c r="E99" t="s">
+        <v>1193</v>
+      </c>
       <c r="F99" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
         <v>972</v>
       </c>
+      <c r="E100" t="s">
+        <v>1194</v>
+      </c>
       <c r="F100" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J100" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
         <v>973</v>
       </c>
+      <c r="E101" t="s">
+        <v>1195</v>
+      </c>
       <c r="F101" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J101" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
         <v>974</v>
       </c>
+      <c r="E102" t="s">
+        <v>1196</v>
+      </c>
       <c r="F102" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J102" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="103" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
         <v>975</v>
       </c>
+      <c r="E103" t="s">
+        <v>1197</v>
+      </c>
       <c r="F103" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J103" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="104" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
         <v>976</v>
       </c>
+      <c r="E104" t="s">
+        <v>1198</v>
+      </c>
       <c r="F104" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J104" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="105" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>977</v>
       </c>
+      <c r="E105" t="s">
+        <v>1199</v>
+      </c>
       <c r="F105" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J105" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="106" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
         <v>978</v>
       </c>
+      <c r="E106" t="s">
+        <v>1200</v>
+      </c>
       <c r="F106" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J106" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="107" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
         <v>979</v>
       </c>
+      <c r="E107" t="s">
+        <v>1201</v>
+      </c>
       <c r="F107" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J107" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="108" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
         <v>1014</v>
       </c>
+      <c r="E108" t="s">
+        <v>1202</v>
+      </c>
       <c r="F108" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J108" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="109" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
         <v>1016</v>
       </c>
+      <c r="E109" t="s">
+        <v>1203</v>
+      </c>
       <c r="F109" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J109" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="110" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
         <v>1018</v>
       </c>
+      <c r="E110" t="s">
+        <v>1204</v>
+      </c>
       <c r="F110" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J110" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="111" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
         <v>1020</v>
       </c>
+      <c r="E111" t="s">
+        <v>1205</v>
+      </c>
       <c r="F111" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J111" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="112" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
         <v>1022</v>
       </c>
+      <c r="E112" t="s">
+        <v>1206</v>
+      </c>
       <c r="F112" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J112" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="113" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>1024</v>
       </c>
+      <c r="E113" t="s">
+        <v>1207</v>
+      </c>
       <c r="F113" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J113" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="114" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>1026</v>
       </c>
+      <c r="E114" t="s">
+        <v>1208</v>
+      </c>
       <c r="F114" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J114" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="115" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
         <v>1028</v>
       </c>
+      <c r="E115" t="s">
+        <v>1209</v>
+      </c>
       <c r="F115" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J115" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="116" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>1030</v>
       </c>
+      <c r="E116" t="s">
+        <v>1210</v>
+      </c>
       <c r="F116" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J116" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="117" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
         <v>1032</v>
       </c>
+      <c r="E117" t="s">
+        <v>1211</v>
+      </c>
       <c r="F117" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J117" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="118" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
         <v>1034</v>
       </c>
+      <c r="E118" t="s">
+        <v>1212</v>
+      </c>
       <c r="F118" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J118" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="119" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
         <v>1036</v>
       </c>
+      <c r="E119" t="s">
+        <v>1213</v>
+      </c>
       <c r="F119" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J119" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="120" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
         <v>1038</v>
       </c>
+      <c r="E120" t="s">
+        <v>1214</v>
+      </c>
       <c r="F120" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J120" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="121" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
         <v>1040</v>
       </c>
+      <c r="E121" t="s">
+        <v>1215</v>
+      </c>
       <c r="F121" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J121" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="122" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>1042</v>
       </c>
+      <c r="E122" t="s">
+        <v>1216</v>
+      </c>
       <c r="F122" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J122" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="123" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>1044</v>
       </c>
+      <c r="E123" t="s">
+        <v>1217</v>
+      </c>
       <c r="F123" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J123" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="124" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>1046</v>
       </c>
+      <c r="E124" t="s">
+        <v>1218</v>
+      </c>
       <c r="F124" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J124" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K124" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="125" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>1048</v>
       </c>
+      <c r="E125" t="s">
+        <v>1219</v>
+      </c>
       <c r="F125" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J125" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="126" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>1050</v>
       </c>
+      <c r="E126" t="s">
+        <v>1220</v>
+      </c>
       <c r="F126" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J126" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="127" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>1052</v>
       </c>
+      <c r="E127" t="s">
+        <v>1221</v>
+      </c>
       <c r="F127" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J127" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="128" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
         <v>1054</v>
       </c>
+      <c r="E128" t="s">
+        <v>1222</v>
+      </c>
       <c r="F128" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J128" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="129" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
         <v>1056</v>
       </c>
+      <c r="E129" t="s">
+        <v>1223</v>
+      </c>
       <c r="F129" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J129" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="130" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>1058</v>
       </c>
+      <c r="E130" t="s">
+        <v>1224</v>
+      </c>
       <c r="F130" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J130" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K130" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="131" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>1060</v>
       </c>
+      <c r="E131" t="s">
+        <v>1225</v>
+      </c>
       <c r="F131" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J131" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="132" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>1062</v>
       </c>
+      <c r="E132" t="s">
+        <v>1226</v>
+      </c>
       <c r="F132" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J132" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="133" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
         <v>1064</v>
       </c>
+      <c r="E133" t="s">
+        <v>1227</v>
+      </c>
       <c r="F133" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J133" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="134" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
         <v>1066</v>
       </c>
+      <c r="E134" t="s">
+        <v>1228</v>
+      </c>
       <c r="F134" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J134" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="135" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>1068</v>
       </c>
+      <c r="E135" t="s">
+        <v>1229</v>
+      </c>
       <c r="F135" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J135" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="136" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>1070</v>
       </c>
+      <c r="E136" t="s">
+        <v>1230</v>
+      </c>
       <c r="F136" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J136" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K136" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="137" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>1072</v>
       </c>
+      <c r="E137" t="s">
+        <v>1231</v>
+      </c>
       <c r="F137" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J137" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="138" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
         <v>1074</v>
       </c>
+      <c r="E138" t="s">
+        <v>1232</v>
+      </c>
       <c r="F138" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J138" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="139" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
         <v>1076</v>
       </c>
+      <c r="E139" t="s">
+        <v>1233</v>
+      </c>
       <c r="F139" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J139" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K139" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="140" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>1078</v>
       </c>
+      <c r="E140" t="s">
+        <v>1234</v>
+      </c>
       <c r="F140" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J140" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="141" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>1080</v>
       </c>
+      <c r="E141" t="s">
+        <v>1235</v>
+      </c>
       <c r="F141" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J141" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="142" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>1082</v>
       </c>
+      <c r="E142" t="s">
+        <v>1236</v>
+      </c>
       <c r="F142" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J142" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K142" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="143" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
         <v>1084</v>
       </c>
+      <c r="E143" t="s">
+        <v>1237</v>
+      </c>
       <c r="F143" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J143" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K143" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="144" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
         <v>1086</v>
       </c>
+      <c r="E144" t="s">
+        <v>1238</v>
+      </c>
       <c r="F144" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J144" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K144" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="145" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>1088</v>
       </c>
+      <c r="E145" t="s">
+        <v>1239</v>
+      </c>
       <c r="F145" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J145" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K145" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="146" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>1090</v>
       </c>
+      <c r="E146" t="s">
+        <v>1240</v>
+      </c>
       <c r="F146" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J146" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K146" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="147" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>1092</v>
       </c>
+      <c r="E147" t="s">
+        <v>1241</v>
+      </c>
       <c r="F147" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J147" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K147" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="148" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
         <v>1094</v>
       </c>
+      <c r="E148" t="s">
+        <v>1242</v>
+      </c>
       <c r="F148" t="s">
         <v>1095</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K148" t="s">
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +9608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C10F84-4214-A542-88B3-724262ABD536}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA757634-4C71-DF42-A33B-C5B98F2AEEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3616EC-1500-2C49-BFEE-03FA1DA54B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1315">
   <si>
     <t>index</t>
   </si>
@@ -529,9 +529,6 @@
     <t>placenta</t>
   </si>
   <si>
-    <t>references</t>
-  </si>
-  <si>
     <t>contributions</t>
   </si>
   <si>
@@ -2644,9 +2641,6 @@
     <t>wsi_epub_word_EN</t>
   </si>
   <si>
-    <t>references_epub_word_EN</t>
-  </si>
-  <si>
     <t>contributions_epub_word_EN</t>
   </si>
   <si>
@@ -2878,9 +2872,6 @@
     <t>placenta_pdf_EN</t>
   </si>
   <si>
-    <t>references_pdf_EN</t>
-  </si>
-  <si>
     <t>contributions_pdf_EN</t>
   </si>
   <si>
@@ -3989,6 +3980,12 @@
   </si>
   <si>
     <t>./_subchapters/_hacettepe_com_case_41_epub_word_EN</t>
+  </si>
+  <si>
+    <t>referanslar_epub_word_EN</t>
+  </si>
+  <si>
+    <t>referanslar_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -4361,7 +4358,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4394,13 +4391,13 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1" t="s">
         <v>64</v>
@@ -4409,10 +4406,10 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="L1" t="s">
         <v>58</v>
@@ -4435,22 +4432,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I2" t="s">
         <v>111</v>
       </c>
       <c r="J2" t="s">
+        <v>870</v>
+      </c>
+      <c r="K2" t="s">
         <v>872</v>
-      </c>
-      <c r="K2" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -4461,22 +4458,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I3" t="s">
         <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -4487,22 +4484,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I4" t="s">
         <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -4513,22 +4510,22 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I5" t="s">
         <v>113</v>
       </c>
       <c r="J5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -4539,22 +4536,22 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I6" t="s">
         <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -4565,22 +4562,22 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I7" t="s">
         <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -4591,22 +4588,22 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I8" t="s">
         <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K8" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -4617,22 +4614,22 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I9" t="s">
         <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -4643,22 +4640,22 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F10" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I10" t="s">
         <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K10" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -4669,22 +4666,22 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I11" t="s">
         <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K11" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -4695,22 +4692,22 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I12" t="s">
         <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -4721,22 +4718,22 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I13" t="s">
         <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K13" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -4747,22 +4744,22 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I14" t="s">
         <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K14" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -4773,22 +4770,22 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I15" t="s">
         <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K15" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4799,22 +4796,22 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I16" t="s">
         <v>123</v>
       </c>
       <c r="J16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K16" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4825,22 +4822,22 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K17" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4851,22 +4848,22 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I18" t="s">
         <v>124</v>
       </c>
       <c r="J18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K18" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4877,22 +4874,22 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I19" t="s">
         <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4903,22 +4900,22 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I20" t="s">
         <v>126</v>
       </c>
       <c r="J20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K20" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4929,22 +4926,22 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K21" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4955,22 +4952,22 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I22" t="s">
         <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K22" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4981,22 +4978,22 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I23" t="s">
         <v>128</v>
       </c>
       <c r="J23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K23" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -5007,22 +5004,22 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I24" t="s">
         <v>129</v>
       </c>
       <c r="J24" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K24" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5033,22 +5030,22 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K25" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -5059,22 +5056,22 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I26" t="s">
         <v>131</v>
       </c>
       <c r="J26" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K26" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -5085,22 +5082,22 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I27" t="s">
         <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="K27" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -5111,22 +5108,22 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I28" t="s">
         <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K28" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -5137,22 +5134,22 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I29" t="s">
         <v>134</v>
       </c>
       <c r="J29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K29" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -5163,22 +5160,22 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I30" t="s">
         <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K30" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -5189,22 +5186,22 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G31" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I31" t="s">
         <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K31" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -5215,22 +5212,22 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G32" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I32" t="s">
         <v>42</v>
       </c>
       <c r="J32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K32" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -5241,22 +5238,22 @@
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G33" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I33" t="s">
         <v>136</v>
       </c>
       <c r="J33" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K33" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -5267,22 +5264,22 @@
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I34" t="s">
         <v>137</v>
       </c>
       <c r="J34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K34" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -5293,22 +5290,22 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I35" t="s">
         <v>138</v>
       </c>
       <c r="J35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K35" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -5319,22 +5316,22 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I36" t="s">
         <v>46</v>
       </c>
       <c r="J36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K36" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -5345,22 +5342,22 @@
         <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I37" t="s">
         <v>139</v>
       </c>
       <c r="J37" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K37" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -5371,22 +5368,22 @@
         <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I38" t="s">
         <v>48</v>
       </c>
       <c r="J38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K38" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -5397,22 +5394,22 @@
         <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F39" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I39" t="s">
         <v>140</v>
       </c>
       <c r="J39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K39" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -5423,22 +5420,22 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I40" t="s">
         <v>141</v>
       </c>
       <c r="J40" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K40" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -5449,22 +5446,22 @@
         <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G41" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I41" t="s">
         <v>142</v>
       </c>
       <c r="J41" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K41" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -5475,22 +5472,22 @@
         <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F42" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I42" t="s">
         <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K42" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -5501,22 +5498,22 @@
         <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F43" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G43" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I43" t="s">
         <v>143</v>
       </c>
       <c r="J43" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K43" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -5527,22 +5524,22 @@
         <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F44" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G44" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I44" t="s">
         <v>56</v>
       </c>
       <c r="J44" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K44" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -5553,22 +5550,22 @@
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F45" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G45" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I45" t="s">
         <v>144</v>
       </c>
       <c r="J45" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K45" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -5579,22 +5576,22 @@
         <v>66</v>
       </c>
       <c r="E46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F46" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G46" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I46" t="s">
         <v>145</v>
       </c>
       <c r="J46" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K46" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -5605,22 +5602,22 @@
         <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G47" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I47" t="s">
         <v>146</v>
       </c>
       <c r="J47" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K47" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -5631,22 +5628,22 @@
         <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F48" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G48" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I48" t="s">
         <v>71</v>
       </c>
       <c r="J48" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K48" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -5657,22 +5654,22 @@
         <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F49" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G49" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I49" t="s">
         <v>147</v>
       </c>
       <c r="J49" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K49" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -5683,22 +5680,22 @@
         <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F50" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G50" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I50" t="s">
         <v>73</v>
       </c>
       <c r="J50" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K50" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -5709,22 +5706,22 @@
         <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F51" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G51" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I51" t="s">
         <v>74</v>
       </c>
       <c r="J51" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K51" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -5735,22 +5732,22 @@
         <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F52" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G52" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I52" t="s">
         <v>148</v>
       </c>
       <c r="J52" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K52" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -5761,22 +5758,22 @@
         <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G53" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I53" t="s">
         <v>149</v>
       </c>
       <c r="J53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K53" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -5787,22 +5784,22 @@
         <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F54" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G54" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I54" t="s">
         <v>150</v>
       </c>
       <c r="J54" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K54" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -5813,22 +5810,22 @@
         <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G55" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I55" t="s">
         <v>151</v>
       </c>
       <c r="J55" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K55" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -5839,22 +5836,22 @@
         <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F56" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G56" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I56" t="s">
         <v>152</v>
       </c>
       <c r="J56" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K56" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -5865,22 +5862,22 @@
         <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F57" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G57" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I57" t="s">
         <v>153</v>
       </c>
       <c r="J57" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K57" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -5891,22 +5888,22 @@
         <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F58" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G58" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I58" t="s">
         <v>154</v>
       </c>
       <c r="J58" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K58" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -5917,22 +5914,22 @@
         <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F59" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G59" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I59" t="s">
         <v>155</v>
       </c>
       <c r="J59" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K59" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -5943,22 +5940,22 @@
         <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F60" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G60" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I60" t="s">
         <v>156</v>
       </c>
       <c r="J60" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K60" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -5969,22 +5966,22 @@
         <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F61" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G61" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I61" t="s">
         <v>157</v>
       </c>
       <c r="J61" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K61" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -5995,22 +5992,22 @@
         <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F62" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G62" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I62" t="s">
         <v>158</v>
       </c>
       <c r="J62" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K62" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -6021,22 +6018,22 @@
         <v>92</v>
       </c>
       <c r="E63" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F63" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I63" t="s">
         <v>159</v>
       </c>
       <c r="J63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K63" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -6047,22 +6044,22 @@
         <v>94</v>
       </c>
       <c r="E64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F64" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G64" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I64" t="s">
         <v>160</v>
       </c>
       <c r="J64" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K64" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -6073,22 +6070,22 @@
         <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F65" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G65" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I65" t="s">
         <v>161</v>
       </c>
       <c r="J65" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K65" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -6099,22 +6096,22 @@
         <v>98</v>
       </c>
       <c r="E66" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F66" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G66" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I66" t="s">
         <v>98</v>
       </c>
       <c r="J66" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K66" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -6125,22 +6122,22 @@
         <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F67" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G67" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I67" t="s">
         <v>99</v>
       </c>
       <c r="J67" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K67" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -6151,22 +6148,22 @@
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F68" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G68" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I68" t="s">
         <v>100</v>
       </c>
       <c r="J68" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K68" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -6177,22 +6174,22 @@
         <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F69" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G69" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I69" t="s">
         <v>101</v>
       </c>
       <c r="J69" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K69" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -6203,22 +6200,22 @@
         <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F70" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G70" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I70" t="s">
         <v>102</v>
       </c>
       <c r="J70" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K70" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -6229,22 +6226,22 @@
         <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F71" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G71" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I71" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="J71" t="s">
-        <v>867</v>
+        <v>1313</v>
       </c>
       <c r="K71" t="s">
-        <v>945</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -6255,22 +6252,22 @@
         <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F72" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G72" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J72" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="K72" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -6281,22 +6278,22 @@
         <v>106</v>
       </c>
       <c r="E73" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F73" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G73" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J73" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="K73" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -6307,22 +6304,22 @@
         <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F74" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G74" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I74" t="s">
         <v>107</v>
       </c>
       <c r="J74" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="K74" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -6333,1263 +6330,1263 @@
         <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F75" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G75" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I75" t="s">
         <v>108</v>
       </c>
       <c r="J75" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="K75" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E76" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F76" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="J76" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="K76" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E77" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F77" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="J77" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="K77" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E78" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="F78" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="J78" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="K78" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E79" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F79" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="J79" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="K79" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E80" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F80" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="J80" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="K80" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="81" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E81" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F81" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="J81" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="K81" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E82" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="F82" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="J82" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="K82" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E83" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="F83" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="J83" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="K83" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E84" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="F84" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="J84" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="K84" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E85" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="F85" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="J85" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="K85" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E86" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F86" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J86" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="K86" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E87" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F87" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="J87" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="K87" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E88" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F88" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J88" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="K88" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="E89" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F89" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="J89" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="K89" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E90" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="F90" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="J90" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="K90" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E91" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="F91" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="J91" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="K91" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D92" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E92" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="F92" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="J92" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="K92" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="93" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="E93" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="F93" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="J93" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="K93" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E94" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="F94" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="J94" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K94" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E95" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F95" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="J95" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="K95" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="96" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E96" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="F96" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="J96" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="K96" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="97" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D97" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E97" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="F97" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="J97" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="K97" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="98" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D98" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="E98" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F98" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="J98" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="K98" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="99" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D99" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="E99" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="F99" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="J99" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="K99" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="100" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D100" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E100" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F100" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="J100" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="K100" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="101" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E101" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F101" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J101" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="K101" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="102" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E102" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F102" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="J102" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="K102" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="103" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E103" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="F103" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="J103" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="K103" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="104" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E104" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="F104" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="J104" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="K104" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="105" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E105" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="F105" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="J105" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="K105" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="106" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E106" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="F106" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="J106" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="K106" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="107" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E107" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F107" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="J107" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="K107" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="108" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E108" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="F108" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="J108" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="K108" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="109" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D109" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E109" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="F109" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="J109" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="K109" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="110" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D110" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E110" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="F110" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="J110" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="K110" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="111" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D111" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E111" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F111" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="J111" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="K111" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="112" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D112" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E112" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F112" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="J112" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="K112" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="113" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E113" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="F113" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="J113" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="K113" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="114" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E114" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="F114" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="J114" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="K114" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="115" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E115" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F115" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="J115" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="K115" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="116" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E116" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F116" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="J116" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="K116" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="117" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E117" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F117" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="J117" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="K117" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="118" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E118" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F118" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="J118" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="K118" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="119" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E119" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F119" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="J119" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="K119" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="120" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E120" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F120" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="J120" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="K120" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="121" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E121" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F121" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="J121" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="K121" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="122" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="E122" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F122" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="J122" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="K122" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="123" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E123" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F123" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="J123" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="K123" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="124" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E124" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="F124" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="J124" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="K124" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="125" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E125" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="F125" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J125" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="K125" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="126" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="E126" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="F126" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="J126" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="K126" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="127" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E127" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="F127" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="J127" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="K127" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="128" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E128" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="F128" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="J128" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="K128" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="129" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E129" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="F129" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="J129" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="K129" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="130" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E130" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F130" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="J130" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="K130" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="131" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E131" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F131" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="J131" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="K131" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="132" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="E132" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="F132" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J132" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="K132" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="133" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E133" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F133" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="J133" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="K133" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="134" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E134" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F134" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="J134" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="K134" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="135" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E135" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="F135" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="J135" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="K135" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="136" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E136" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="F136" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="J136" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="K136" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="137" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E137" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F137" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="J137" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="K137" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="138" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E138" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="F138" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="J138" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="K138" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="139" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E139" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="F139" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="J139" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="K139" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="140" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E140" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="F140" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="J140" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="K140" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="141" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E141" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="F141" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="J141" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="K141" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="142" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E142" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="F142" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="J142" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="K142" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="143" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E143" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="F143" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="J143" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="K143" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="144" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E144" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F144" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="J144" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="K144" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="145" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E145" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F145" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="J145" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="K145" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="146" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E146" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F146" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="J146" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="K146" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="147" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E147" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="F147" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="J147" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="K147" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="148" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E148" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="F148" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="J148" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="K148" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -7620,13 +7617,13 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
@@ -7640,13 +7637,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" t="s">
         <v>165</v>
-      </c>
-      <c r="C2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7654,13 +7651,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7668,13 +7665,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" t="s">
         <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7682,13 +7679,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" t="s">
         <v>171</v>
-      </c>
-      <c r="C5" t="s">
-        <v>447</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7696,13 +7693,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" t="s">
         <v>173</v>
-      </c>
-      <c r="C6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7710,13 +7707,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" t="s">
         <v>175</v>
-      </c>
-      <c r="C7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7724,13 +7721,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7738,13 +7735,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7752,13 +7749,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" t="s">
         <v>179</v>
-      </c>
-      <c r="C10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7766,13 +7763,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" t="s">
         <v>181</v>
-      </c>
-      <c r="C11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D11" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7780,13 +7777,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7794,13 +7791,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7808,13 +7805,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7822,13 +7819,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -7836,13 +7833,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7850,13 +7847,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7864,13 +7861,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7878,13 +7875,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7892,13 +7889,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7906,13 +7903,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7920,13 +7917,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7934,13 +7931,13 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -7948,13 +7945,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7962,13 +7959,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7976,13 +7973,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7990,13 +7987,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -8004,13 +8001,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -8018,13 +8015,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -8032,13 +8029,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8046,13 +8043,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8060,13 +8057,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -8074,13 +8071,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -8088,13 +8085,13 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -8102,13 +8099,13 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8116,13 +8113,13 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -8130,13 +8127,13 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -8144,13 +8141,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -8158,13 +8155,13 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,13 +8169,13 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -8186,13 +8183,13 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -8200,13 +8197,13 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -8214,13 +8211,13 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8228,13 +8225,13 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,13 +8239,13 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -8256,13 +8253,13 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C46" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -8270,13 +8267,13 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C47" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -8284,13 +8281,13 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -8298,13 +8295,13 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C49" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -8312,13 +8309,13 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C50" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -8326,13 +8323,13 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -8340,13 +8337,13 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -8354,13 +8351,13 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8368,13 +8365,13 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -8382,13 +8379,13 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -8396,13 +8393,13 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -8410,13 +8407,13 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -8424,13 +8421,13 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -8438,13 +8435,13 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C59" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -8452,13 +8449,13 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C60" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -8466,13 +8463,13 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -8480,13 +8477,13 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -8494,13 +8491,13 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C63" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -8508,13 +8505,13 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -8522,13 +8519,13 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C65" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -8536,13 +8533,13 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -8550,13 +8547,13 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C67" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -8564,13 +8561,13 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C68" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -8578,13 +8575,13 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C69" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -8592,13 +8589,13 @@
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C70" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -8606,13 +8603,13 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C71" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -8620,13 +8617,13 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -8634,13 +8631,13 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C73" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -8648,13 +8645,13 @@
         <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -8662,13 +8659,13 @@
         <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -8676,13 +8673,13 @@
         <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C76" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -8690,13 +8687,13 @@
         <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -8704,13 +8701,13 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -8718,13 +8715,13 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C79" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -8732,13 +8729,13 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C80" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -8746,13 +8743,13 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C81" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -8760,13 +8757,13 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C82" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8774,13 +8771,13 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -8788,13 +8785,13 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C84" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8802,13 +8799,13 @@
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8816,13 +8813,13 @@
         <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C86" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D86" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -8830,13 +8827,13 @@
         <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C87" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8844,13 +8841,13 @@
         <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C88" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -8858,13 +8855,13 @@
         <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -8872,13 +8869,13 @@
         <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -8886,13 +8883,13 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C91" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -8900,13 +8897,13 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C92" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -8914,13 +8911,13 @@
         <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C93" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8928,13 +8925,13 @@
         <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C94" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8942,13 +8939,13 @@
         <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8956,13 +8953,13 @@
         <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C96" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8970,13 +8967,13 @@
         <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C97" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8984,13 +8981,13 @@
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C98" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8998,13 +8995,13 @@
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C99" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -9012,13 +9009,13 @@
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C100" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -9026,13 +9023,13 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C101" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -9040,13 +9037,13 @@
         <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -9054,13 +9051,13 @@
         <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C103" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -9068,13 +9065,13 @@
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D104" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -9082,13 +9079,13 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C105" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D105" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -9096,13 +9093,13 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D106" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -9110,13 +9107,13 @@
         <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D107" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -9124,13 +9121,13 @@
         <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C108" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D108" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -9138,13 +9135,13 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -9152,13 +9149,13 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C110" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -9166,13 +9163,13 @@
         <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D111" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -9180,13 +9177,13 @@
         <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -9194,13 +9191,13 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C113" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D113" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -9208,13 +9205,13 @@
         <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C114" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -9222,13 +9219,13 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C115" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D115" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -9236,13 +9233,13 @@
         <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C116" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -9250,13 +9247,13 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C117" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D117" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -9264,13 +9261,13 @@
         <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C118" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D118" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -9278,13 +9275,13 @@
         <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C119" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -9292,13 +9289,13 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C120" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -9306,13 +9303,13 @@
         <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C121" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D121" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -9320,13 +9317,13 @@
         <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C122" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -9334,13 +9331,13 @@
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C123" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D123" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -9348,13 +9345,13 @@
         <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C124" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -9362,13 +9359,13 @@
         <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C125" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -9376,13 +9373,13 @@
         <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C126" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -9390,13 +9387,13 @@
         <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C127" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -9404,13 +9401,13 @@
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C128" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -9418,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="D129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -9426,7 +9423,7 @@
         <v>99</v>
       </c>
       <c r="D130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -9434,7 +9431,7 @@
         <v>99</v>
       </c>
       <c r="D131" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -9442,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="D132" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -9450,7 +9447,7 @@
         <v>99</v>
       </c>
       <c r="D133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -9458,7 +9455,7 @@
         <v>99</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -9466,7 +9463,7 @@
         <v>99</v>
       </c>
       <c r="D135" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -9474,7 +9471,7 @@
         <v>99</v>
       </c>
       <c r="D136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -9482,7 +9479,7 @@
         <v>99</v>
       </c>
       <c r="D137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -9490,7 +9487,7 @@
         <v>99</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -9498,7 +9495,7 @@
         <v>99</v>
       </c>
       <c r="D139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -9506,7 +9503,7 @@
         <v>99</v>
       </c>
       <c r="D140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -9514,7 +9511,7 @@
         <v>99</v>
       </c>
       <c r="D141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -9522,7 +9519,7 @@
         <v>99</v>
       </c>
       <c r="D142" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -9530,7 +9527,7 @@
         <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -9538,7 +9535,7 @@
         <v>99</v>
       </c>
       <c r="D144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -9546,7 +9543,7 @@
         <v>99</v>
       </c>
       <c r="D145" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -9554,7 +9551,7 @@
         <v>99</v>
       </c>
       <c r="D146" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -9562,7 +9559,7 @@
         <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -9570,7 +9567,7 @@
         <v>99</v>
       </c>
       <c r="D148" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -9578,7 +9575,7 @@
         <v>99</v>
       </c>
       <c r="D149" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -9586,13 +9583,13 @@
         <v>101</v>
       </c>
       <c r="B150" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C150" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D150" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -9619,17 +9616,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patolojiai\Documents\GitHub\patolojiatlasi-github-io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3616EC-1500-2C49-BFEE-03FA1DA54B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052740F7-5E88-4E24-B7BD-9683728591BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1355">
   <si>
     <t>index</t>
   </si>
@@ -3986,6 +3984,126 @@
   </si>
   <si>
     <t>referanslar_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hamartomatouspolyp</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hyperplasticpolyp</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-schwanncellhamartoma</t>
+  </si>
+  <si>
+    <t>./_subchapters/_giardia</t>
+  </si>
+  <si>
+    <t>./_subchapters/_ischemic-colitis</t>
+  </si>
+  <si>
+    <t>./_subchapters/_organising-thrombus</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-flat</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-with-stalk</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hamartomatouspolyp_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hyperplasticpolyp_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-schwanncellhamartoma_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_giardia_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_ischemic-colitis_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_organising-thrombus_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-flat_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-with-stalk_epub_word_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hamartomatouspolyp_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hyperplasticpolyp_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-schwanncellhamartoma_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_giardia_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_ischemic-colitis_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_organising-thrombus_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-flat_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-with-stalk_pdf_TR</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hamartomatouspolyp_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hyperplasticpolyp_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-schwanncellhamartoma_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_giardia_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_ischemic-colitis_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_organising-thrombus_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-flat_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-with-stalk_epub_word_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hamartomatouspolyp_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-hyperplasticpolyp_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_colon-schwanncellhamartoma_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_giardia_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_ischemic-colitis_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_organising-thrombus_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-flat_pdf_EN</t>
+  </si>
+  <si>
+    <t>./_subchapters/_tubular-adenoma-with-stalk_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -4354,30 +4472,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="29.375" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.625" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4424,7 +4542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4450,7 +4568,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4476,7 +4594,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4502,7 +4620,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4528,7 +4646,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4554,7 +4672,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -4580,7 +4698,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4606,7 +4724,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4632,7 +4750,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4658,7 +4776,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4684,7 +4802,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4710,7 +4828,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -4736,7 +4854,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4762,7 +4880,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4788,7 +4906,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4814,7 +4932,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4840,7 +4958,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4866,7 +4984,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4892,7 +5010,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4918,7 +5036,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4944,7 +5062,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -4970,7 +5088,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4996,7 +5114,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -5022,7 +5140,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -5048,7 +5166,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5074,7 +5192,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5100,7 +5218,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5126,7 +5244,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -5152,7 +5270,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5178,7 +5296,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5204,7 +5322,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -5230,7 +5348,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -5256,7 +5374,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -5282,7 +5400,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -5308,7 +5426,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5334,7 +5452,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -5360,7 +5478,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -5386,7 +5504,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5412,7 +5530,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -5438,7 +5556,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5464,7 +5582,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -5490,7 +5608,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -5516,7 +5634,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -5542,7 +5660,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -5568,7 +5686,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -5594,7 +5712,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -5620,7 +5738,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -5646,7 +5764,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -5672,7 +5790,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -5698,7 +5816,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -5724,7 +5842,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -5750,7 +5868,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -5776,7 +5894,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -5802,7 +5920,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -5828,7 +5946,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -5854,7 +5972,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -5880,7 +5998,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -5906,7 +6024,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -5932,7 +6050,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -5958,7 +6076,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -5984,7 +6102,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -6010,7 +6128,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -6036,7 +6154,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -6062,7 +6180,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -6088,7 +6206,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -6114,7 +6232,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -6140,7 +6258,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -6166,7 +6284,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -6192,7 +6310,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -6218,7 +6336,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -6244,7 +6362,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -6270,7 +6388,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -6296,7 +6414,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -6322,7 +6440,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -6348,7 +6466,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>945</v>
       </c>
@@ -6365,7 +6483,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>946</v>
       </c>
@@ -6382,7 +6500,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>947</v>
       </c>
@@ -6399,7 +6517,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>948</v>
       </c>
@@ -6416,7 +6534,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>949</v>
       </c>
@@ -6433,7 +6551,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>950</v>
       </c>
@@ -6450,7 +6568,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>951</v>
       </c>
@@ -6467,7 +6585,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>952</v>
       </c>
@@ -6484,7 +6602,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>953</v>
       </c>
@@ -6501,7 +6619,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>954</v>
       </c>
@@ -6518,7 +6636,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>955</v>
       </c>
@@ -6535,7 +6653,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="87" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>956</v>
       </c>
@@ -6552,7 +6670,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="88" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>957</v>
       </c>
@@ -6569,7 +6687,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="89" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>958</v>
       </c>
@@ -6586,7 +6704,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="90" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>959</v>
       </c>
@@ -6603,7 +6721,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="91" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>960</v>
       </c>
@@ -6620,7 +6738,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="92" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>961</v>
       </c>
@@ -6637,7 +6755,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="93" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>962</v>
       </c>
@@ -6654,7 +6772,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="94" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>963</v>
       </c>
@@ -6671,7 +6789,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="95" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>964</v>
       </c>
@@ -6688,7 +6806,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="96" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>965</v>
       </c>
@@ -6705,7 +6823,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>966</v>
       </c>
@@ -6722,7 +6840,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>967</v>
       </c>
@@ -6739,7 +6857,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>968</v>
       </c>
@@ -6756,7 +6874,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>969</v>
       </c>
@@ -6773,7 +6891,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>970</v>
       </c>
@@ -6790,7 +6908,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>971</v>
       </c>
@@ -6807,7 +6925,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>972</v>
       </c>
@@ -6824,7 +6942,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>973</v>
       </c>
@@ -6841,7 +6959,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>974</v>
       </c>
@@ -6858,7 +6976,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>975</v>
       </c>
@@ -6875,7 +6993,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>976</v>
       </c>
@@ -6892,7 +7010,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>1011</v>
       </c>
@@ -6909,7 +7027,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>1013</v>
       </c>
@@ -6926,7 +7044,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>1015</v>
       </c>
@@ -6943,7 +7061,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>1017</v>
       </c>
@@ -6960,7 +7078,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>1019</v>
       </c>
@@ -6977,7 +7095,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="113" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>1021</v>
       </c>
@@ -6994,7 +7112,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="114" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>1023</v>
       </c>
@@ -7011,7 +7129,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="115" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>1025</v>
       </c>
@@ -7028,7 +7146,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="116" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>1027</v>
       </c>
@@ -7045,7 +7163,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="117" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>1029</v>
       </c>
@@ -7062,7 +7180,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="118" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>1031</v>
       </c>
@@ -7079,7 +7197,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="119" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>1033</v>
       </c>
@@ -7096,7 +7214,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="120" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>1035</v>
       </c>
@@ -7113,7 +7231,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="121" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>1037</v>
       </c>
@@ -7130,7 +7248,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>1039</v>
       </c>
@@ -7147,7 +7265,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="123" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>1041</v>
       </c>
@@ -7164,7 +7282,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>1043</v>
       </c>
@@ -7181,7 +7299,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="125" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>1045</v>
       </c>
@@ -7198,7 +7316,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="126" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>1047</v>
       </c>
@@ -7215,7 +7333,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="127" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>1049</v>
       </c>
@@ -7232,7 +7350,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="128" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
         <v>1051</v>
       </c>
@@ -7249,7 +7367,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>1053</v>
       </c>
@@ -7266,7 +7384,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="130" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>1055</v>
       </c>
@@ -7283,7 +7401,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>1057</v>
       </c>
@@ -7300,7 +7418,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="132" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>1059</v>
       </c>
@@ -7317,7 +7435,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="133" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>1061</v>
       </c>
@@ -7334,7 +7452,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>1063</v>
       </c>
@@ -7351,7 +7469,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>1065</v>
       </c>
@@ -7368,7 +7486,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
         <v>1067</v>
       </c>
@@ -7385,7 +7503,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>1069</v>
       </c>
@@ -7402,7 +7520,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>1071</v>
       </c>
@@ -7419,7 +7537,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>1073</v>
       </c>
@@ -7436,7 +7554,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="140" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>1075</v>
       </c>
@@ -7453,7 +7571,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="141" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>1077</v>
       </c>
@@ -7470,7 +7588,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="142" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>1079</v>
       </c>
@@ -7487,7 +7605,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="143" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>1081</v>
       </c>
@@ -7504,7 +7622,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="144" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>1083</v>
       </c>
@@ -7521,7 +7639,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="145" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>1085</v>
       </c>
@@ -7538,7 +7656,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="146" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
         <v>1087</v>
       </c>
@@ -7555,7 +7673,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="147" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
         <v>1089</v>
       </c>
@@ -7572,7 +7690,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="148" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>1091</v>
       </c>
@@ -7587,6 +7705,142 @@
       </c>
       <c r="K148" t="s">
         <v>1166</v>
+      </c>
+    </row>
+    <row r="149" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K149" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="150" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="151" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1333</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="152" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="153" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K153" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="154" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="155" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K155" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="156" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K156" t="s">
+        <v>1354</v>
       </c>
     </row>
   </sheetData>
@@ -7605,14 +7859,14 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="94.33203125" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="94.375" customWidth="1"/>
+    <col min="4" max="4" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -7632,7 +7886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7646,7 +7900,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7660,7 +7914,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7674,7 +7928,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7688,7 +7942,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7702,7 +7956,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7716,7 +7970,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7730,7 +7984,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7744,7 +7998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7758,7 +8012,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -7772,7 +8026,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -7786,7 +8040,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -7800,7 +8054,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -7814,7 +8068,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -7828,7 +8082,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -7842,7 +8096,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -7856,7 +8110,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -7870,7 +8124,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7884,7 +8138,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7898,7 +8152,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -7912,7 +8166,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -7926,7 +8180,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -7940,7 +8194,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -7954,7 +8208,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -7968,7 +8222,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7982,7 +8236,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -7996,7 +8250,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -8010,7 +8264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -8024,7 +8278,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -8038,7 +8292,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -8052,7 +8306,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -8066,7 +8320,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -8080,7 +8334,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -8094,7 +8348,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -8108,7 +8362,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -8122,7 +8376,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -8136,7 +8390,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -8150,7 +8404,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -8164,7 +8418,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -8178,7 +8432,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -8192,7 +8446,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -8206,7 +8460,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -8220,7 +8474,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -8234,7 +8488,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -8248,7 +8502,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -8262,7 +8516,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -8276,7 +8530,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -8290,7 +8544,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8304,7 +8558,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -8318,7 +8572,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -8332,7 +8586,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -8346,7 +8600,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -8360,7 +8614,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -8374,7 +8628,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -8388,7 +8642,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -8402,7 +8656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -8416,7 +8670,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -8430,7 +8684,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -8444,7 +8698,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -8458,7 +8712,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -8472,7 +8726,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -8486,7 +8740,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -8500,7 +8754,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -8514,7 +8768,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -8528,7 +8782,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -8542,7 +8796,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -8556,7 +8810,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -8570,7 +8824,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -8584,7 +8838,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -8598,7 +8852,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -8612,7 +8866,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -8626,7 +8880,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -8640,7 +8894,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -8654,7 +8908,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -8668,7 +8922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -8682,7 +8936,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -8696,7 +8950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -8710,7 +8964,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -8724,7 +8978,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -8738,7 +8992,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -8752,7 +9006,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -8766,7 +9020,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -8780,7 +9034,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -8794,7 +9048,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -8808,7 +9062,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -8822,7 +9076,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>54</v>
       </c>
@@ -8836,7 +9090,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -8850,7 +9104,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -8864,7 +9118,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>55</v>
       </c>
@@ -8878,7 +9132,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>56</v>
       </c>
@@ -8892,7 +9146,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>56</v>
       </c>
@@ -8906,7 +9160,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -8920,7 +9174,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -8934,7 +9188,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -8948,7 +9202,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>72</v>
       </c>
@@ -8962,7 +9216,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -8976,7 +9230,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -8990,7 +9244,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -9004,7 +9258,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -9018,7 +9272,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -9032,7 +9286,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>84</v>
       </c>
@@ -9046,7 +9300,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -9060,7 +9314,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -9074,7 +9328,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -9088,7 +9342,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -9102,7 +9356,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -9116,7 +9370,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -9130,7 +9384,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -9144,7 +9398,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -9158,7 +9412,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>89</v>
       </c>
@@ -9172,7 +9426,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -9186,7 +9440,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -9200,7 +9454,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -9214,7 +9468,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -9228,7 +9482,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -9242,7 +9496,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -9256,7 +9510,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -9270,7 +9524,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -9284,7 +9538,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -9298,7 +9552,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -9312,7 +9566,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -9326,7 +9580,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -9340,7 +9594,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -9354,7 +9608,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -9368,7 +9622,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -9382,7 +9636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -9396,7 +9650,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -9410,7 +9664,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -9418,7 +9672,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -9426,7 +9680,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -9434,7 +9688,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -9442,7 +9696,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -9450,7 +9704,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -9458,7 +9712,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -9466,7 +9720,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -9474,7 +9728,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -9482,7 +9736,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -9490,7 +9744,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -9498,7 +9752,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -9506,7 +9760,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -9514,7 +9768,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -9522,7 +9776,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -9530,7 +9784,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -9538,7 +9792,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -9546,7 +9800,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -9554,7 +9808,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -9562,7 +9816,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -9570,7 +9824,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -9578,7 +9832,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>101</v>
       </c>
@@ -9609,22 +9863,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1093</v>
       </c>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patolojiai\Documents\GitHub\patolojiatlasi-github-io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052740F7-5E88-4E24-B7BD-9683728591BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1517F3-1079-3C4E-9A1B-0FD27D7CC87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15400" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
     <sheet name="img_url_links" sheetId="2" r:id="rId2"/>
-    <sheet name="file_names" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">img_url_links!$B$1:$D$506</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="947">
   <si>
     <t>index</t>
   </si>
@@ -2876,1234 +2875,10 @@
     <t>comments_pdf_EN</t>
   </si>
   <si>
-    <t>_subchapters/_BS1</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS2</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS3</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS4</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS5</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS6</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS7</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS8</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS9</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS10</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS11</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS12</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS13</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS14</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS15</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS16</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS17</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS18</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS19</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS20</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS21</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS22</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS23</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS24</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS25</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS26</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS27</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS28</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS29</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS30</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS31</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS32</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS1_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS2_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS3_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS4_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS5_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS6_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS7_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS8_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS9_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS10_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS11_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS12_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS13_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS14_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS15_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS16_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS17_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS18_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS19_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS20_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS21_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS22_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS23_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS24_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS25_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS26_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS27_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS28_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS29_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS30_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS31_pdf_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS32_pdf_TR</t>
-  </si>
-  <si>
-    <t>gsub_files_pdf_TR</t>
-  </si>
-  <si>
-    <t>bs_pdf_TR.qmd</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_1</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_1_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_2</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_2_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_3</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_3_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_4</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_4_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_5</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_5_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_6</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_6_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_7</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_7_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_8</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_8_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_9</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_9_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_10</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_10_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_11</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_11_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_12</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_12_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_13</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_13_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_14</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_14_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_15</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_15_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_16</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_16_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_17</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_17_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_18</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_18_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_19</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_19_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_20</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_20_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_21</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_21_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_22</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_22_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_23</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_23_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_24</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_24_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_25</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_25_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_26</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_26_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_27</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_27_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_28</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_28_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_29</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_29_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_30</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_30_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_31</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_31_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_32</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_32_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_33</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_33_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_34</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_34_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_35</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_35_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_36</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_36_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_37</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_37_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_38</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_38_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_39</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_39_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_40</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_40_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_41</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_41_pdf_TR</t>
-  </si>
-  <si>
-    <t>hacettepecom_pdf_TR.qmd</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS1_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS2_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS3_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS4_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS5_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS6_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS7_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS8_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS9_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS10_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS11_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS12_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS13_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS14_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS15_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS16_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS17_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS18_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS19_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS20_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS21_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS22_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS23_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS24_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS25_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS26_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS27_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS28_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS29_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS30_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS31_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS32_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_1_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_2_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_3_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_4_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_5_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_6_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_7_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_8_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_9_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_10_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_11_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_12_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_13_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_14_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_15_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_16_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_17_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_18_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_19_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_20_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_21_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_22_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_23_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_24_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_25_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_26_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_27_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_28_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_29_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_30_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_31_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_32_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_33_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_34_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_35_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_36_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_37_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_38_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_39_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_40_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_41_pdf_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS1_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS2_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS3_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS4_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS5_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS6_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS7_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS8_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS9_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS10_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS11_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS12_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS13_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS14_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS15_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS16_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS17_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS18_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS19_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS20_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS21_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS22_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS23_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS24_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS25_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS26_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS27_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS28_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS29_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS30_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS31_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS32_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_1_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_2_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_3_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_4_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_5_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_6_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_7_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_8_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_9_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_10_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_11_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_12_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_13_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_14_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_15_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_16_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_17_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_18_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_19_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_20_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_21_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_22_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_23_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_24_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_25_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_26_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_27_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_28_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_29_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_30_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_31_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_32_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_33_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_34_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_35_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_36_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_37_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_38_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_39_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_40_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_41_epub_word_TR</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS1_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS2_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS3_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS4_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS5_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS6_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS7_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS8_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS9_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS10_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS11_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS12_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS13_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS14_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS15_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS16_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS17_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS18_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS19_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS20_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS21_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS22_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS23_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS24_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS25_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS26_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS27_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS28_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS29_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS30_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS31_epub_word_EN</t>
-  </si>
-  <si>
-    <t>_subchapters/_BS32_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_1_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_2_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_3_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_4_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_5_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_6_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_7_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_8_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_9_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_10_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_11_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_12_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_13_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_14_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_15_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_16_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_17_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_18_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_19_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_20_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_21_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_22_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_23_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_24_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_25_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_26_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_27_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_28_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_29_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_30_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_31_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_32_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_33_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_34_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_35_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_36_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_37_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_38_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_39_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_40_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_hacettepe_com_case_41_epub_word_EN</t>
-  </si>
-  <si>
     <t>referanslar_epub_word_EN</t>
   </si>
   <si>
     <t>referanslar_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hamartomatouspolyp</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hyperplasticpolyp</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-schwanncellhamartoma</t>
-  </si>
-  <si>
-    <t>./_subchapters/_giardia</t>
-  </si>
-  <si>
-    <t>./_subchapters/_ischemic-colitis</t>
-  </si>
-  <si>
-    <t>./_subchapters/_organising-thrombus</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-flat</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-with-stalk</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hamartomatouspolyp_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hyperplasticpolyp_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-schwanncellhamartoma_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_giardia_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_ischemic-colitis_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_organising-thrombus_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-flat_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-with-stalk_epub_word_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hamartomatouspolyp_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hyperplasticpolyp_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-schwanncellhamartoma_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_giardia_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_ischemic-colitis_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_organising-thrombus_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-flat_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-with-stalk_pdf_TR</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hamartomatouspolyp_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hyperplasticpolyp_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-schwanncellhamartoma_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_giardia_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_ischemic-colitis_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_organising-thrombus_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-flat_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-with-stalk_epub_word_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hamartomatouspolyp_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-hyperplasticpolyp_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_colon-schwanncellhamartoma_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_giardia_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_ischemic-colitis_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_organising-thrombus_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-flat_pdf_EN</t>
-  </si>
-  <si>
-    <t>./_subchapters/_tubular-adenoma-with-stalk_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -4472,30 +3247,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25.625" customWidth="1"/>
-    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -4542,7 +3317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4568,7 +3343,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4594,7 +3369,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4620,7 +3395,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4646,7 +3421,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4672,7 +3447,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -4698,7 +3473,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4724,7 +3499,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4750,7 +3525,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4776,7 +3551,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4802,7 +3577,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4828,7 +3603,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -4854,7 +3629,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4880,7 +3655,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4906,7 +3681,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4932,7 +3707,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4958,7 +3733,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4984,7 +3759,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -5010,7 +3785,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5036,7 +3811,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5062,7 +3837,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5088,7 +3863,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5114,7 +3889,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -5140,7 +3915,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -5166,7 +3941,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5192,7 +3967,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -5218,7 +3993,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5244,7 +4019,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -5270,7 +4045,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5296,7 +4071,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5322,7 +4097,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -5348,7 +4123,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -5374,7 +4149,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -5400,7 +4175,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -5426,7 +4201,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5452,7 +4227,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -5478,7 +4253,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -5504,7 +4279,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5530,7 +4305,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -5556,7 +4331,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5582,7 +4357,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -5608,7 +4383,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -5634,7 +4409,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -5660,7 +4435,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -5686,7 +4461,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -5712,7 +4487,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -5738,7 +4513,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -5764,7 +4539,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -5790,7 +4565,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -5816,7 +4591,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -5842,7 +4617,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -5868,7 +4643,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -5894,7 +4669,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -5920,7 +4695,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -5946,7 +4721,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -5972,7 +4747,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -5998,7 +4773,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -6024,7 +4799,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -6050,7 +4825,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -6076,7 +4851,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -6102,7 +4877,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -6128,7 +4903,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -6154,7 +4929,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -6180,7 +4955,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -6206,7 +4981,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -6232,7 +5007,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -6258,7 +5033,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -6284,7 +5059,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -6310,7 +5085,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -6336,7 +5111,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -6356,13 +5131,13 @@
         <v>103</v>
       </c>
       <c r="J71" t="s">
-        <v>1313</v>
+        <v>945</v>
       </c>
       <c r="K71" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -6388,7 +5163,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -6414,7 +5189,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -6440,7 +5215,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -6464,1383 +5239,6 @@
       </c>
       <c r="K75" t="s">
         <v>890</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>945</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F76" t="s">
-        <v>977</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1240</v>
-      </c>
-      <c r="K76" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>946</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F77" t="s">
-        <v>978</v>
-      </c>
-      <c r="J77" t="s">
-        <v>1241</v>
-      </c>
-      <c r="K77" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>947</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F78" t="s">
-        <v>979</v>
-      </c>
-      <c r="J78" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K78" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>948</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F79" t="s">
-        <v>980</v>
-      </c>
-      <c r="J79" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K79" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>949</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F80" t="s">
-        <v>981</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>950</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F81" t="s">
-        <v>982</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1245</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>951</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F82" t="s">
-        <v>983</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1246</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>952</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F83" t="s">
-        <v>984</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1247</v>
-      </c>
-      <c r="K83" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>953</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F84" t="s">
-        <v>985</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1248</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>954</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F85" t="s">
-        <v>986</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K85" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>955</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F86" t="s">
-        <v>987</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>956</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F87" t="s">
-        <v>988</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1251</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>957</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F88" t="s">
-        <v>989</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>958</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F89" t="s">
-        <v>990</v>
-      </c>
-      <c r="J89" t="s">
-        <v>1253</v>
-      </c>
-      <c r="K89" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>959</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F90" t="s">
-        <v>991</v>
-      </c>
-      <c r="J90" t="s">
-        <v>1254</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>960</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F91" t="s">
-        <v>992</v>
-      </c>
-      <c r="J91" t="s">
-        <v>1255</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>961</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>993</v>
-      </c>
-      <c r="J92" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>962</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F93" t="s">
-        <v>994</v>
-      </c>
-      <c r="J93" t="s">
-        <v>1257</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>963</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>995</v>
-      </c>
-      <c r="J94" t="s">
-        <v>1258</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>964</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F95" t="s">
-        <v>996</v>
-      </c>
-      <c r="J95" t="s">
-        <v>1259</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>965</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>997</v>
-      </c>
-      <c r="J96" t="s">
-        <v>1260</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>966</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F97" t="s">
-        <v>998</v>
-      </c>
-      <c r="J97" t="s">
-        <v>1261</v>
-      </c>
-      <c r="K97" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>967</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>999</v>
-      </c>
-      <c r="J98" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K98" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>968</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1263</v>
-      </c>
-      <c r="K99" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>969</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J100" t="s">
-        <v>1264</v>
-      </c>
-      <c r="K100" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>970</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1265</v>
-      </c>
-      <c r="K101" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>971</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>1003</v>
-      </c>
-      <c r="J102" t="s">
-        <v>1266</v>
-      </c>
-      <c r="K102" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>972</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F103" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J103" t="s">
-        <v>1267</v>
-      </c>
-      <c r="K103" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>973</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J104" t="s">
-        <v>1268</v>
-      </c>
-      <c r="K104" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>974</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J105" t="s">
-        <v>1269</v>
-      </c>
-      <c r="K105" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>975</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F106" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J106" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K106" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
-        <v>976</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F107" t="s">
-        <v>1008</v>
-      </c>
-      <c r="J107" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K107" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J108" t="s">
-        <v>1272</v>
-      </c>
-      <c r="K108" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1014</v>
-      </c>
-      <c r="J109" t="s">
-        <v>1273</v>
-      </c>
-      <c r="K109" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F110" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J110" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K110" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J111" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K111" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J112" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K112" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="113" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F113" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1277</v>
-      </c>
-      <c r="K113" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="114" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F114" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J114" t="s">
-        <v>1278</v>
-      </c>
-      <c r="K114" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="115" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F115" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J115" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K115" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="116" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K116" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="117" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J117" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K117" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="118" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F118" t="s">
-        <v>1032</v>
-      </c>
-      <c r="J118" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K118" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="119" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J119" t="s">
-        <v>1283</v>
-      </c>
-      <c r="K119" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="120" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1284</v>
-      </c>
-      <c r="K120" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="121" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1038</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1285</v>
-      </c>
-      <c r="K121" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J122" t="s">
-        <v>1286</v>
-      </c>
-      <c r="K122" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="123" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F123" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J123" t="s">
-        <v>1287</v>
-      </c>
-      <c r="K123" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J124" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K124" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="125" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F125" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1289</v>
-      </c>
-      <c r="K125" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="126" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D126" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F126" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J126" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K126" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="127" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F127" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J127" t="s">
-        <v>1291</v>
-      </c>
-      <c r="K127" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="128" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J128" t="s">
-        <v>1292</v>
-      </c>
-      <c r="K128" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1054</v>
-      </c>
-      <c r="J129" t="s">
-        <v>1293</v>
-      </c>
-      <c r="K129" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="130" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J130" t="s">
-        <v>1294</v>
-      </c>
-      <c r="K130" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1058</v>
-      </c>
-      <c r="J131" t="s">
-        <v>1295</v>
-      </c>
-      <c r="K131" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="132" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1296</v>
-      </c>
-      <c r="K132" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="133" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J133" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K133" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1298</v>
-      </c>
-      <c r="K134" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1066</v>
-      </c>
-      <c r="J135" t="s">
-        <v>1299</v>
-      </c>
-      <c r="K135" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J136" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K136" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J137" t="s">
-        <v>1301</v>
-      </c>
-      <c r="K137" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E138" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J138" t="s">
-        <v>1302</v>
-      </c>
-      <c r="K138" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J139" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K139" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="140" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1076</v>
-      </c>
-      <c r="J140" t="s">
-        <v>1304</v>
-      </c>
-      <c r="K140" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="141" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1305</v>
-      </c>
-      <c r="K141" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="142" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D142" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F142" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J142" t="s">
-        <v>1306</v>
-      </c>
-      <c r="K142" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="143" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J143" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K143" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="144" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J144" t="s">
-        <v>1308</v>
-      </c>
-      <c r="K144" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="145" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1086</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1309</v>
-      </c>
-      <c r="K145" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="146" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F146" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J146" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K146" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="147" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F147" t="s">
-        <v>1090</v>
-      </c>
-      <c r="J147" t="s">
-        <v>1311</v>
-      </c>
-      <c r="K147" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="148" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F148" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1312</v>
-      </c>
-      <c r="K148" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="149" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F149" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J149" t="s">
-        <v>1339</v>
-      </c>
-      <c r="K149" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="150" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F150" t="s">
-        <v>1332</v>
-      </c>
-      <c r="J150" t="s">
-        <v>1340</v>
-      </c>
-      <c r="K150" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="151" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F151" t="s">
-        <v>1333</v>
-      </c>
-      <c r="J151" t="s">
-        <v>1341</v>
-      </c>
-      <c r="K151" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="152" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1334</v>
-      </c>
-      <c r="J152" t="s">
-        <v>1342</v>
-      </c>
-      <c r="K152" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="153" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F153" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J153" t="s">
-        <v>1343</v>
-      </c>
-      <c r="K153" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="154" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F154" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1344</v>
-      </c>
-      <c r="K154" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="155" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F155" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1345</v>
-      </c>
-      <c r="K155" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="156" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F156" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J156" t="s">
-        <v>1346</v>
-      </c>
-      <c r="K156" t="s">
-        <v>1354</v>
       </c>
     </row>
   </sheetData>
@@ -7855,18 +5253,18 @@
   <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="94.375" customWidth="1"/>
-    <col min="4" max="4" width="61.625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="94.33203125" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -7886,7 +5284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7900,7 +5298,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7914,7 +5312,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7928,7 +5326,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7942,7 +5340,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7956,7 +5354,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7970,7 +5368,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7984,7 +5382,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7998,7 +5396,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -8012,7 +5410,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -8026,7 +5424,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -8040,7 +5438,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -8054,7 +5452,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -8068,7 +5466,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -8082,7 +5480,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -8096,7 +5494,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -8110,7 +5508,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -8124,7 +5522,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -8138,7 +5536,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -8152,7 +5550,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -8166,7 +5564,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -8180,7 +5578,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -8194,7 +5592,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -8208,7 +5606,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -8222,7 +5620,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8236,7 +5634,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -8250,7 +5648,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -8264,7 +5662,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -8278,7 +5676,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -8292,7 +5690,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -8306,7 +5704,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -8320,7 +5718,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -8334,7 +5732,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -8348,7 +5746,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -8362,7 +5760,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -8376,7 +5774,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -8390,7 +5788,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -8404,7 +5802,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -8418,7 +5816,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -8432,7 +5830,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -8446,7 +5844,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -8460,7 +5858,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -8474,7 +5872,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -8488,7 +5886,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -8502,7 +5900,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -8516,7 +5914,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -8530,7 +5928,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -8544,7 +5942,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8558,7 +5956,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -8572,7 +5970,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -8586,7 +5984,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -8600,7 +5998,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -8614,7 +6012,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -8628,7 +6026,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -8642,7 +6040,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -8656,7 +6054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -8670,7 +6068,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -8684,7 +6082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -8698,7 +6096,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -8712,7 +6110,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -8726,7 +6124,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -8740,7 +6138,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -8754,7 +6152,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -8768,7 +6166,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -8782,7 +6180,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -8796,7 +6194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -8810,7 +6208,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -8824,7 +6222,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -8838,7 +6236,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -8852,7 +6250,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -8866,7 +6264,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -8880,7 +6278,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -8894,7 +6292,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -8908,7 +6306,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -8922,7 +6320,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -8936,7 +6334,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -8950,7 +6348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -8964,7 +6362,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -8978,7 +6376,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -8992,7 +6390,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -9006,7 +6404,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -9020,7 +6418,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -9034,7 +6432,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -9048,7 +6446,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -9062,7 +6460,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -9076,7 +6474,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>54</v>
       </c>
@@ -9090,7 +6488,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -9104,7 +6502,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -9118,7 +6516,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>55</v>
       </c>
@@ -9132,7 +6530,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>56</v>
       </c>
@@ -9146,7 +6544,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>56</v>
       </c>
@@ -9160,7 +6558,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -9174,7 +6572,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -9188,7 +6586,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -9202,7 +6600,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>72</v>
       </c>
@@ -9216,7 +6614,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -9230,7 +6628,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -9244,7 +6642,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -9258,7 +6656,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -9272,7 +6670,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -9286,7 +6684,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>84</v>
       </c>
@@ -9300,7 +6698,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -9314,7 +6712,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -9328,7 +6726,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -9342,7 +6740,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -9356,7 +6754,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -9370,7 +6768,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -9384,7 +6782,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -9398,7 +6796,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -9412,7 +6810,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>89</v>
       </c>
@@ -9426,7 +6824,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -9440,7 +6838,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -9454,7 +6852,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -9468,7 +6866,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -9482,7 +6880,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -9496,7 +6894,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -9510,7 +6908,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -9524,7 +6922,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -9538,7 +6936,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -9552,7 +6950,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -9566,7 +6964,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -9580,7 +6978,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -9594,7 +6992,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -9608,7 +7006,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -9622,7 +7020,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -9636,7 +7034,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -9650,7 +7048,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -9664,7 +7062,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -9672,7 +7070,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -9680,7 +7078,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -9688,7 +7086,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -9696,7 +7094,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -9704,7 +7102,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -9712,7 +7110,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -9720,7 +7118,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -9728,7 +7126,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -9736,7 +7134,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -9744,7 +7142,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -9752,7 +7150,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -9760,7 +7158,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -9768,7 +7166,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -9776,7 +7174,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -9784,7 +7182,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -9792,7 +7190,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -9800,7 +7198,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -9808,7 +7206,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -9816,7 +7214,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -9824,7 +7222,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -9832,7 +7230,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>101</v>
       </c>
@@ -9853,38 +7251,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C10F84-4214-A542-88B3-724262ABD536}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1517F3-1079-3C4E-9A1B-0FD27D7CC87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35229238-4F58-D44C-A118-E4CADAF1CC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15400" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -2875,10 +2875,10 @@
     <t>comments_pdf_EN</t>
   </si>
   <si>
-    <t>referanslar_epub_word_EN</t>
-  </si>
-  <si>
-    <t>referanslar_pdf_EN</t>
+    <t>references_epub_word_EN</t>
+  </si>
+  <si>
+    <t>references_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -3249,9 +3249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35229238-4F58-D44C-A118-E4CADAF1CC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA82AF44-9114-E742-B391-38C61474648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25440" windowHeight="15400" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="953">
   <si>
     <t>index</t>
   </si>
@@ -2879,6 +2879,24 @@
   </si>
   <si>
     <t>references_pdf_EN</t>
+  </si>
+  <si>
+    <t>heterojenite</t>
+  </si>
+  <si>
+    <t>heterogeneity</t>
+  </si>
+  <si>
+    <t>heterojenite_epub_word_TR</t>
+  </si>
+  <si>
+    <t>heterojenite_pdf_TR</t>
+  </si>
+  <si>
+    <t>heterogeneity_epub_word_EN</t>
+  </si>
+  <si>
+    <t>heterogeneity_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -3247,11 +3265,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4021,28 +4039,28 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>947</v>
       </c>
       <c r="E29" t="s">
-        <v>600</v>
+        <v>949</v>
       </c>
       <c r="F29" t="s">
-        <v>675</v>
+        <v>950</v>
       </c>
       <c r="G29" t="s">
-        <v>750</v>
+        <v>947</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>948</v>
       </c>
       <c r="J29" t="s">
-        <v>824</v>
+        <v>951</v>
       </c>
       <c r="K29" t="s">
-        <v>915</v>
+        <v>952</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4050,77 +4068,77 @@
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J30" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K30" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="J31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K31" t="s">
-        <v>875</v>
+        <v>916</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G32" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -4128,25 +4146,25 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G33" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K33" t="s">
-        <v>917</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -4154,25 +4172,25 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F34" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K34" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -4180,25 +4198,25 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K35" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -4206,25 +4224,25 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="J36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K36" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4232,25 +4250,25 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G37" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I37" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K37" t="s">
-        <v>920</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -4258,51 +4276,51 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="J38" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K38" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F39" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K39" t="s">
-        <v>921</v>
+        <v>878</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4310,51 +4328,51 @@
         <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G40" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J40" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F41" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G41" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J41" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -4362,25 +4380,25 @@
         <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F42" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="J42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K42" t="s">
-        <v>879</v>
+        <v>923</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -4388,25 +4406,25 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F43" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G43" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I43" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K43" t="s">
-        <v>924</v>
+        <v>879</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -4414,103 +4432,103 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F44" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G44" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I44" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="J44" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K44" t="s">
-        <v>880</v>
+        <v>924</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F45" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G45" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I45" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K45" t="s">
-        <v>925</v>
+        <v>880</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F46" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G46" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J46" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G47" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J47" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K47" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -4518,25 +4536,25 @@
         <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F48" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G48" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="J48" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K48" t="s">
-        <v>881</v>
+        <v>927</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4544,25 +4562,25 @@
         <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F49" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I49" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="J49" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K49" t="s">
-        <v>928</v>
+        <v>881</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4570,25 +4588,25 @@
         <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F50" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G50" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="J50" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K50" t="s">
-        <v>882</v>
+        <v>928</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4596,51 +4614,51 @@
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F51" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J51" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K51" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F52" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G52" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I52" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K52" t="s">
-        <v>929</v>
+        <v>883</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4648,25 +4666,25 @@
         <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G53" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J53" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K53" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -4674,103 +4692,103 @@
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F54" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G54" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J54" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K54" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F55" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G55" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J55" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K55" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F56" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G56" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J56" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K56" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F57" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G57" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J57" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K57" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -4778,25 +4796,25 @@
         <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F58" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G58" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J58" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K58" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -4804,51 +4822,51 @@
         <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G59" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J59" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K59" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F60" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G60" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J60" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K60" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4856,25 +4874,25 @@
         <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F61" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G61" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J61" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K61" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -4882,129 +4900,129 @@
         <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F62" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G62" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J62" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K62" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F63" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G63" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J63" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K63" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F64" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G64" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J64" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K64" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F65" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G65" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J65" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K65" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F66" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G66" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="J66" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K66" t="s">
-        <v>884</v>
+        <v>942</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -5012,25 +5030,25 @@
         <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F67" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G67" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J67" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K67" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -5038,25 +5056,25 @@
         <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F68" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G68" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J68" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K68" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -5064,25 +5082,25 @@
         <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F69" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G69" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K69" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -5090,51 +5108,51 @@
         <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E70" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F70" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G70" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J70" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K70" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F71" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G71" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J71" t="s">
-        <v>945</v>
+        <v>865</v>
       </c>
       <c r="K71" t="s">
-        <v>946</v>
+        <v>888</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -5142,25 +5160,25 @@
         <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F72" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G72" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="J72" t="s">
-        <v>866</v>
+        <v>945</v>
       </c>
       <c r="K72" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -5168,25 +5186,25 @@
         <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F73" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G73" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J73" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K73" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5194,25 +5212,25 @@
         <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F74" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G74" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="J74" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K74" t="s">
-        <v>889</v>
+        <v>944</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -5220,24 +5238,50 @@
         <v>104</v>
       </c>
       <c r="D75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" t="s">
+        <v>645</v>
+      </c>
+      <c r="F75" t="s">
+        <v>720</v>
+      </c>
+      <c r="G75" t="s">
+        <v>795</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+      <c r="J75" t="s">
+        <v>868</v>
+      </c>
+      <c r="K75" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
         <v>108</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>646</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>721</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>796</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I76" t="s">
         <v>108</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J76" t="s">
         <v>869</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K76" t="s">
         <v>890</v>
       </c>
     </row>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA82AF44-9114-E742-B391-38C61474648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9C0DE3-3FD5-674E-A727-814AA9B014DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="941">
   <si>
     <t>index</t>
   </si>
@@ -361,12 +361,6 @@
     <t>yorum</t>
   </si>
   <si>
-    <t>listing</t>
-  </si>
-  <si>
-    <t>listing2</t>
-  </si>
-  <si>
     <t>introduction</t>
   </si>
   <si>
@@ -1975,12 +1969,6 @@
     <t>yorum_epub_word_TR</t>
   </si>
   <si>
-    <t>listing_epub_word_TR</t>
-  </si>
-  <si>
-    <t>listing2_epub_word_TR</t>
-  </si>
-  <si>
     <t>TR_pdf_chapter_qmd</t>
   </si>
   <si>
@@ -2200,12 +2188,6 @@
     <t>yorum_pdf_TR</t>
   </si>
   <si>
-    <t>listing_pdf_TR</t>
-  </si>
-  <si>
-    <t>listing2_pdf_TR</t>
-  </si>
-  <si>
     <t>TR_others_chapter_qmd</t>
   </si>
   <si>
@@ -2425,12 +2407,6 @@
     <t>yorum_others_TR</t>
   </si>
   <si>
-    <t>listing_others_TR</t>
-  </si>
-  <si>
-    <t>listing2_others_TR</t>
-  </si>
-  <si>
     <t>EN_epub_word_chapter_qmd</t>
   </si>
   <si>
@@ -2644,12 +2620,6 @@
     <t>comments_epub_word_EN</t>
   </si>
   <si>
-    <t>listing_epub_word_EN</t>
-  </si>
-  <si>
-    <t>listing2_epub_word_EN</t>
-  </si>
-  <si>
     <t>index_epub_word_EN</t>
   </si>
   <si>
@@ -2705,12 +2675,6 @@
   </si>
   <si>
     <t>wsi_pdf_EN</t>
-  </si>
-  <si>
-    <t>listing_pdf_EN</t>
-  </si>
-  <si>
-    <t>listing2_pdf_EN</t>
   </si>
   <si>
     <t>introduction_pdf_EN</t>
@@ -3265,11 +3229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3302,13 +3266,13 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H1" t="s">
         <v>64</v>
@@ -3317,10 +3281,10 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="K1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="L1" t="s">
         <v>58</v>
@@ -3343,22 +3307,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="K2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3369,22 +3333,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="K3" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3395,22 +3359,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G4" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="K4" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3421,22 +3385,22 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="G5" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="K5" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3447,22 +3411,22 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G6" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="K6" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3473,22 +3437,22 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="K7" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3499,22 +3463,22 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F8" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G8" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="K8" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3525,22 +3489,22 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F9" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G9" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="K9" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3551,22 +3515,22 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F10" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G10" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="K10" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3577,22 +3541,22 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G11" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="K11" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3603,22 +3567,22 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F12" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G12" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="K12" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3629,22 +3593,22 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G13" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="K13" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3655,22 +3619,22 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F14" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G14" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="K14" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3681,22 +3645,22 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F15" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G15" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="K15" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -3707,22 +3671,22 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F16" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J16" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="K16" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3733,22 +3697,22 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F17" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G17" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="K17" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3759,22 +3723,22 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G18" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="K18" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3785,22 +3749,22 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F19" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G19" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J19" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="K19" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3811,22 +3775,22 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F20" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G20" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="K20" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3837,22 +3801,22 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G21" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="K21" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3863,22 +3827,22 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F22" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G22" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="K22" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3889,22 +3853,22 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F23" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G23" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="K23" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3915,22 +3879,22 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F24" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G24" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="K24" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3941,22 +3905,22 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F25" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G25" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J25" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="K25" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3967,22 +3931,22 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F26" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G26" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J26" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="K26" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3993,22 +3957,22 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F27" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G27" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="K27" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4019,22 +3983,22 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F28" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G28" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="K28" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -4042,25 +4006,25 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="E29" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F29" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="G29" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="I29" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="J29" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="K29" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4071,22 +4035,22 @@
         <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F30" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G30" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="I30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="K30" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4097,22 +4061,22 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G31" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="K31" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4123,22 +4087,22 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F32" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G32" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="I32" t="s">
         <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="K32" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -4149,22 +4113,22 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F33" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G33" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="I33" t="s">
         <v>42</v>
       </c>
       <c r="J33" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="K33" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -4175,22 +4139,22 @@
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F34" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G34" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J34" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="K34" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -4201,22 +4165,22 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F35" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G35" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="I35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J35" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="K35" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -4227,22 +4191,22 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F36" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G36" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J36" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="K36" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4253,22 +4217,22 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F37" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G37" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I37" t="s">
         <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="K37" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -4279,22 +4243,22 @@
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F38" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G38" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="I38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J38" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="K38" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -4305,22 +4269,22 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F39" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G39" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="K39" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4331,22 +4295,22 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F40" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G40" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J40" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="K40" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -4357,22 +4321,22 @@
         <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F41" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G41" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I41" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J41" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="K41" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -4383,22 +4347,22 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F42" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G42" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="I42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J42" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="K42" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -4409,22 +4373,22 @@
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F43" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G43" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="I43" t="s">
         <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="K43" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -4435,22 +4399,22 @@
         <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F44" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G44" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="I44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J44" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="K44" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -4461,22 +4425,22 @@
         <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F45" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G45" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I45" t="s">
         <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="K45" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -4487,22 +4451,22 @@
         <v>62</v>
       </c>
       <c r="E46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F46" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G46" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="I46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J46" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="K46" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -4513,22 +4477,22 @@
         <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F47" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G47" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="I47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J47" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="K47" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -4539,22 +4503,22 @@
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F48" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G48" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="I48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J48" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="K48" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4565,22 +4529,22 @@
         <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F49" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G49" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="I49" t="s">
         <v>71</v>
       </c>
       <c r="J49" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="K49" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4591,22 +4555,22 @@
         <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F50" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G50" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="I50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J50" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="K50" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4617,22 +4581,22 @@
         <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F51" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G51" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="I51" t="s">
         <v>73</v>
       </c>
       <c r="J51" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="K51" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4643,22 +4607,22 @@
         <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F52" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G52" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="I52" t="s">
         <v>74</v>
       </c>
       <c r="J52" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="K52" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4669,22 +4633,22 @@
         <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F53" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G53" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="I53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J53" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="K53" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -4695,22 +4659,22 @@
         <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F54" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G54" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="I54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J54" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="K54" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4721,22 +4685,22 @@
         <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F55" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G55" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J55" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="K55" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4747,22 +4711,22 @@
         <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F56" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G56" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J56" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="K56" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -4773,22 +4737,22 @@
         <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F57" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G57" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J57" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="K57" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -4799,22 +4763,22 @@
         <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F58" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G58" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J58" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="K58" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -4825,22 +4789,22 @@
         <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F59" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G59" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="I59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J59" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="K59" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -4851,22 +4815,22 @@
         <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F60" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G60" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="I60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J60" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="K60" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4877,22 +4841,22 @@
         <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F61" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G61" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="I61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J61" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="K61" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -4903,22 +4867,22 @@
         <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F62" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G62" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="I62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J62" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="K62" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4929,22 +4893,22 @@
         <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F63" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G63" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="I63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J63" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="K63" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4955,22 +4919,22 @@
         <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F64" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G64" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="I64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J64" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="K64" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -4981,22 +4945,22 @@
         <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F65" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G65" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="I65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J65" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="K65" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -5007,22 +4971,22 @@
         <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F66" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G66" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="I66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J66" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="K66" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -5033,22 +4997,22 @@
         <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F67" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G67" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="I67" t="s">
         <v>98</v>
       </c>
       <c r="J67" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="K67" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -5059,22 +5023,22 @@
         <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F68" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G68" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="I68" t="s">
         <v>99</v>
       </c>
       <c r="J68" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="K68" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -5085,22 +5049,22 @@
         <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F69" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G69" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I69" t="s">
         <v>100</v>
       </c>
       <c r="J69" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="K69" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -5111,22 +5075,22 @@
         <v>101</v>
       </c>
       <c r="E70" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F70" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="G70" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="I70" t="s">
         <v>101</v>
       </c>
       <c r="J70" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="K70" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -5137,22 +5101,22 @@
         <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F71" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G71" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="I71" t="s">
         <v>102</v>
       </c>
       <c r="J71" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="K71" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -5163,22 +5127,22 @@
         <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F72" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="G72" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="I72" t="s">
         <v>103</v>
       </c>
       <c r="J72" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="K72" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -5189,22 +5153,22 @@
         <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F73" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G73" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="I73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J73" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="K73" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5215,74 +5179,22 @@
         <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F74" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G74" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="I74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J74" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="K74" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" t="s">
-        <v>645</v>
-      </c>
-      <c r="F75" t="s">
-        <v>720</v>
-      </c>
-      <c r="G75" t="s">
-        <v>795</v>
-      </c>
-      <c r="I75" t="s">
-        <v>107</v>
-      </c>
-      <c r="J75" t="s">
-        <v>868</v>
-      </c>
-      <c r="K75" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" t="s">
-        <v>646</v>
-      </c>
-      <c r="F76" t="s">
-        <v>721</v>
-      </c>
-      <c r="G76" t="s">
-        <v>796</v>
-      </c>
-      <c r="I76" t="s">
-        <v>108</v>
-      </c>
-      <c r="J76" t="s">
-        <v>869</v>
-      </c>
-      <c r="K76" t="s">
-        <v>890</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -5313,13 +5225,13 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
@@ -5333,13 +5245,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5347,13 +5259,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5361,13 +5273,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5375,13 +5287,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5389,13 +5301,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5403,13 +5315,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5417,13 +5329,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5431,13 +5343,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5445,13 +5357,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5459,13 +5371,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5473,13 +5385,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5487,13 +5399,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5501,13 +5413,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5515,13 +5427,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5529,13 +5441,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,13 +5455,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5557,13 +5469,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -5571,13 +5483,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5585,13 +5497,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5599,13 +5511,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5613,13 +5525,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5627,13 +5539,13 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5641,13 +5553,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -5655,13 +5567,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5669,13 +5581,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5683,13 +5595,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5697,13 +5609,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C28" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5711,13 +5623,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5725,13 +5637,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5739,13 +5651,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -5753,13 +5665,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5767,13 +5679,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5781,13 +5693,13 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5795,13 +5707,13 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C35" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -5809,13 +5721,13 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -5823,13 +5735,13 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5837,13 +5749,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5851,13 +5763,13 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -5865,13 +5777,13 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C40" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5879,13 +5791,13 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C41" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -5893,13 +5805,13 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C42" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -5907,13 +5819,13 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5921,13 +5833,13 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -5935,13 +5847,13 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C45" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5949,13 +5861,13 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C46" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -5963,13 +5875,13 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C47" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D47" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5977,13 +5889,13 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C48" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -5991,13 +5903,13 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C49" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D49" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -6005,13 +5917,13 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D50" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -6019,13 +5931,13 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C51" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D51" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -6033,13 +5945,13 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C52" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -6047,13 +5959,13 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C53" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -6061,13 +5973,13 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C54" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -6075,13 +5987,13 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C55" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -6089,13 +6001,13 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C56" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -6103,13 +6015,13 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C57" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -6117,13 +6029,13 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C58" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -6131,13 +6043,13 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C59" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -6145,13 +6057,13 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C60" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -6159,13 +6071,13 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C61" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -6173,13 +6085,13 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C62" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -6187,13 +6099,13 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C63" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -6201,13 +6113,13 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C64" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -6215,13 +6127,13 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C65" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -6229,13 +6141,13 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C66" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -6243,13 +6155,13 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -6257,13 +6169,13 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C68" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D68" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -6271,13 +6183,13 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -6285,13 +6197,13 @@
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C70" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -6299,13 +6211,13 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C71" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -6313,13 +6225,13 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C72" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -6327,13 +6239,13 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C73" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -6341,13 +6253,13 @@
         <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -6355,13 +6267,13 @@
         <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C75" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -6369,13 +6281,13 @@
         <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C76" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -6383,13 +6295,13 @@
         <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C77" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -6397,13 +6309,13 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C78" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -6411,13 +6323,13 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -6425,13 +6337,13 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -6439,13 +6351,13 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -6453,13 +6365,13 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C82" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -6467,13 +6379,13 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D83" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -6481,13 +6393,13 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C84" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D84" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -6495,13 +6407,13 @@
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C85" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D85" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -6509,13 +6421,13 @@
         <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C86" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D86" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -6523,13 +6435,13 @@
         <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C87" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D87" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -6537,13 +6449,13 @@
         <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C88" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D88" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -6551,13 +6463,13 @@
         <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C89" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -6565,13 +6477,13 @@
         <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C90" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D90" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -6579,13 +6491,13 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C91" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -6593,13 +6505,13 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C92" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -6607,13 +6519,13 @@
         <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C93" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -6621,13 +6533,13 @@
         <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C94" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -6635,13 +6547,13 @@
         <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C95" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D95" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -6649,13 +6561,13 @@
         <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C96" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -6663,13 +6575,13 @@
         <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C97" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -6677,13 +6589,13 @@
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C98" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -6691,13 +6603,13 @@
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C99" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -6705,13 +6617,13 @@
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C100" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D100" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -6719,13 +6631,13 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C101" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -6733,13 +6645,13 @@
         <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C102" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D102" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -6747,13 +6659,13 @@
         <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C103" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D103" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -6761,13 +6673,13 @@
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C104" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -6775,13 +6687,13 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C105" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D105" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -6789,13 +6701,13 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C106" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D106" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -6803,13 +6715,13 @@
         <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C107" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -6817,13 +6729,13 @@
         <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D108" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -6831,13 +6743,13 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C109" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -6845,13 +6757,13 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C110" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D110" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -6859,13 +6771,13 @@
         <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C111" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D111" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -6873,13 +6785,13 @@
         <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C112" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D112" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -6887,13 +6799,13 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C113" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -6901,13 +6813,13 @@
         <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C114" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D114" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -6915,13 +6827,13 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C115" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D115" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -6929,13 +6841,13 @@
         <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C116" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -6943,13 +6855,13 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C117" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -6957,13 +6869,13 @@
         <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C118" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D118" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -6971,13 +6883,13 @@
         <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C119" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D119" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -6985,13 +6897,13 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C120" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -6999,13 +6911,13 @@
         <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C121" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D121" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -7013,13 +6925,13 @@
         <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C122" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D122" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -7027,13 +6939,13 @@
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C123" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -7041,13 +6953,13 @@
         <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C124" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -7055,13 +6967,13 @@
         <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C125" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -7069,13 +6981,13 @@
         <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C126" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D126" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -7083,13 +6995,13 @@
         <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C127" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D127" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -7097,13 +7009,13 @@
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C128" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D128" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -7111,7 +7023,7 @@
         <v>99</v>
       </c>
       <c r="D129" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -7119,7 +7031,7 @@
         <v>99</v>
       </c>
       <c r="D130" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -7127,7 +7039,7 @@
         <v>99</v>
       </c>
       <c r="D131" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -7135,7 +7047,7 @@
         <v>99</v>
       </c>
       <c r="D132" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -7143,7 +7055,7 @@
         <v>99</v>
       </c>
       <c r="D133" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -7151,7 +7063,7 @@
         <v>99</v>
       </c>
       <c r="D134" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -7159,7 +7071,7 @@
         <v>99</v>
       </c>
       <c r="D135" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -7167,7 +7079,7 @@
         <v>99</v>
       </c>
       <c r="D136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -7175,7 +7087,7 @@
         <v>99</v>
       </c>
       <c r="D137" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -7183,7 +7095,7 @@
         <v>99</v>
       </c>
       <c r="D138" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -7191,7 +7103,7 @@
         <v>99</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -7199,7 +7111,7 @@
         <v>99</v>
       </c>
       <c r="D140" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -7207,7 +7119,7 @@
         <v>99</v>
       </c>
       <c r="D141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -7215,7 +7127,7 @@
         <v>99</v>
       </c>
       <c r="D142" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -7223,7 +7135,7 @@
         <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -7231,7 +7143,7 @@
         <v>99</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -7239,7 +7151,7 @@
         <v>99</v>
       </c>
       <c r="D145" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -7247,7 +7159,7 @@
         <v>99</v>
       </c>
       <c r="D146" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -7255,7 +7167,7 @@
         <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -7263,7 +7175,7 @@
         <v>99</v>
       </c>
       <c r="D148" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -7271,7 +7183,7 @@
         <v>99</v>
       </c>
       <c r="D149" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -7279,13 +7191,13 @@
         <v>101</v>
       </c>
       <c r="B150" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C150" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D150" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9C0DE3-3FD5-674E-A727-814AA9B014DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1FF366-419F-2D49-B7C1-EB4AB34F865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="943">
   <si>
     <t>index</t>
   </si>
@@ -2861,6 +2861,12 @@
   </si>
   <si>
     <t>heterogeneity_pdf_EN</t>
+  </si>
+  <si>
+    <t>karaciger-transplantasyonu</t>
+  </si>
+  <si>
+    <t>liver-transplantation</t>
   </si>
 </sst>
 </file>
@@ -3229,11 +3235,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4318,51 +4324,36 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" t="s">
-        <v>609</v>
-      </c>
-      <c r="F41" t="s">
-        <v>682</v>
-      </c>
-      <c r="G41" t="s">
-        <v>755</v>
+        <v>941</v>
       </c>
       <c r="I41" t="s">
-        <v>139</v>
-      </c>
-      <c r="J41" t="s">
-        <v>827</v>
-      </c>
-      <c r="K41" t="s">
-        <v>910</v>
+        <v>942</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J42" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K42" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -4370,25 +4361,25 @@
         <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="J43" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K43" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -4396,25 +4387,25 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F44" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="J44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K44" t="s">
-        <v>912</v>
+        <v>869</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -4422,103 +4413,103 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="J45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K45" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F46" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K46" t="s">
-        <v>913</v>
+        <v>870</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F47" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J47" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K47" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F48" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G48" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J48" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K48" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4526,25 +4517,25 @@
         <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G49" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K49" t="s">
-        <v>871</v>
+        <v>915</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4552,25 +4543,25 @@
         <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F50" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G50" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I50" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="J50" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K50" t="s">
-        <v>916</v>
+        <v>871</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4578,25 +4569,25 @@
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F51" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G51" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="J51" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K51" t="s">
-        <v>872</v>
+        <v>916</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4604,51 +4595,51 @@
         <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G52" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K52" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G53" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I53" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K53" t="s">
-        <v>917</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -4656,25 +4647,25 @@
         <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F54" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G54" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J54" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K54" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4682,103 +4673,103 @@
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F55" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G55" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J55" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K55" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F56" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G56" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J56" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K56" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F57" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G57" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J57" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K57" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F58" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G58" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J58" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K58" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -4786,25 +4777,25 @@
         <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E59" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F59" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G59" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J59" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K59" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -4812,51 +4803,51 @@
         <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F60" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G60" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J60" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K60" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E61" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F61" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G61" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J61" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K61" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -4864,25 +4855,25 @@
         <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F62" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G62" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J62" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K62" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4890,129 +4881,129 @@
         <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G63" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J63" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K63" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G64" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J64" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K64" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F65" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G65" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J65" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K65" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E66" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F66" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G66" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J66" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K66" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F67" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="J67" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K67" t="s">
-        <v>874</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -5020,25 +5011,25 @@
         <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F68" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G68" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J68" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K68" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -5046,25 +5037,25 @@
         <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G69" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J69" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K69" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -5072,25 +5063,25 @@
         <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F70" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G70" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J70" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K70" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -5098,51 +5089,51 @@
         <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F71" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G71" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J71" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K71" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F72" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G72" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J72" t="s">
-        <v>933</v>
+        <v>857</v>
       </c>
       <c r="K72" t="s">
-        <v>934</v>
+        <v>878</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -5150,25 +5141,25 @@
         <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E73" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F73" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G73" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I73" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="J73" t="s">
-        <v>858</v>
+        <v>933</v>
       </c>
       <c r="K73" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5176,24 +5167,50 @@
         <v>104</v>
       </c>
       <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>641</v>
+      </c>
+      <c r="F74" t="s">
+        <v>714</v>
+      </c>
+      <c r="G74" t="s">
+        <v>787</v>
+      </c>
+      <c r="I74" t="s">
+        <v>160</v>
+      </c>
+      <c r="J74" t="s">
+        <v>858</v>
+      </c>
+      <c r="K74" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
         <v>106</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>642</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>715</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>788</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I75" t="s">
         <v>161</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J75" t="s">
         <v>859</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K75" t="s">
         <v>932</v>
       </c>
     </row>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1FF366-419F-2D49-B7C1-EB4AB34F865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF0E53-1542-E540-B5AD-0B3E0AA1371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="950">
   <si>
     <t>index</t>
   </si>
@@ -2867,6 +2867,27 @@
   </si>
   <si>
     <t>liver-transplantation</t>
+  </si>
+  <si>
+    <t>karaciger-malign</t>
+  </si>
+  <si>
+    <t>karaciger-malign_epub_word_TR</t>
+  </si>
+  <si>
+    <t>karaciger-malign_pdf_TR</t>
+  </si>
+  <si>
+    <t>karaciger-malign_others_TR</t>
+  </si>
+  <si>
+    <t>malignant-liver-tumors</t>
+  </si>
+  <si>
+    <t>malignant-liver-tumors_epub_word_EN</t>
+  </si>
+  <si>
+    <t>malignant-liver-tumors_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -3235,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4358,28 +4379,28 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>943</v>
       </c>
       <c r="E43" t="s">
-        <v>610</v>
+        <v>944</v>
       </c>
       <c r="F43" t="s">
-        <v>683</v>
+        <v>945</v>
       </c>
       <c r="G43" t="s">
-        <v>756</v>
+        <v>946</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>947</v>
       </c>
       <c r="J43" t="s">
-        <v>828</v>
+        <v>948</v>
       </c>
       <c r="K43" t="s">
-        <v>911</v>
+        <v>949</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -4387,25 +4408,25 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F44" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G44" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="J44" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K44" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -4413,25 +4434,25 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G45" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K45" t="s">
-        <v>912</v>
+        <v>869</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -4439,103 +4460,103 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F46" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G46" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="J46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K46" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G47" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I47" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K47" t="s">
-        <v>913</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F48" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G48" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J48" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K48" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F49" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G49" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J49" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K49" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4543,25 +4564,25 @@
         <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F50" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G50" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K50" t="s">
-        <v>871</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4569,25 +4590,25 @@
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F51" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G51" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I51" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K51" t="s">
-        <v>916</v>
+        <v>871</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4595,25 +4616,25 @@
         <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G52" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="J52" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K52" t="s">
-        <v>872</v>
+        <v>916</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4621,51 +4642,51 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G53" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J53" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K53" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E54" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I54" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K54" t="s">
-        <v>917</v>
+        <v>873</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4673,25 +4694,25 @@
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F55" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G55" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J55" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K55" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4699,103 +4720,103 @@
         <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G56" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J56" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K56" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F57" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G57" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J57" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K57" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F58" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G58" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J58" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K58" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F59" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G59" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J59" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K59" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -4803,25 +4824,25 @@
         <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F60" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G60" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J60" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K60" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4829,51 +4850,51 @@
         <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F61" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G61" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J61" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K61" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F62" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J62" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K62" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4881,25 +4902,25 @@
         <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F63" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G63" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J63" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K63" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4907,129 +4928,129 @@
         <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G64" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J64" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K64" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E65" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F65" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G65" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J65" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K65" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F66" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K66" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E67" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F67" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G67" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J67" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K67" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F68" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G68" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="J68" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K68" t="s">
-        <v>874</v>
+        <v>930</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -5037,25 +5058,25 @@
         <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G69" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J69" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K69" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -5063,25 +5084,25 @@
         <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F70" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G70" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J70" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K70" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -5089,25 +5110,25 @@
         <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F71" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G71" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J71" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K71" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -5115,51 +5136,51 @@
         <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F72" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G72" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J72" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K72" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F73" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J73" t="s">
-        <v>933</v>
+        <v>857</v>
       </c>
       <c r="K73" t="s">
-        <v>934</v>
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5167,25 +5188,25 @@
         <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F74" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G74" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I74" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="J74" t="s">
-        <v>858</v>
+        <v>933</v>
       </c>
       <c r="K74" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -5193,24 +5214,50 @@
         <v>104</v>
       </c>
       <c r="D75" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" t="s">
+        <v>641</v>
+      </c>
+      <c r="F75" t="s">
+        <v>714</v>
+      </c>
+      <c r="G75" t="s">
+        <v>787</v>
+      </c>
+      <c r="I75" t="s">
+        <v>160</v>
+      </c>
+      <c r="J75" t="s">
+        <v>858</v>
+      </c>
+      <c r="K75" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
         <v>106</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>642</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>715</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>788</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I76" t="s">
         <v>161</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J76" t="s">
         <v>859</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K76" t="s">
         <v>932</v>
       </c>
     </row>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DF0E53-1542-E540-B5AD-0B3E0AA1371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF70F7-C2E1-3744-A2DD-328E76719CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="946">
   <si>
     <t>index</t>
   </si>
@@ -460,9 +460,6 @@
     <t>benign-liver-tumors</t>
   </si>
   <si>
-    <t>pancreas</t>
-  </si>
-  <si>
     <t>gallbladder</t>
   </si>
   <si>
@@ -1870,12 +1867,6 @@
     <t>karaciger-benign_epub_word_TR</t>
   </si>
   <si>
-    <t>pankreas_epub_word_TR</t>
-  </si>
-  <si>
-    <t>pdac_epub_word_TR</t>
-  </si>
-  <si>
     <t>safra-kesesi_epub_word_TR</t>
   </si>
   <si>
@@ -2089,12 +2080,6 @@
     <t>karaciger-benign_pdf_TR</t>
   </si>
   <si>
-    <t>pankreas_pdf_TR</t>
-  </si>
-  <si>
-    <t>pdac_pdf_TR</t>
-  </si>
-  <si>
     <t>safra-kesesi_pdf_TR</t>
   </si>
   <si>
@@ -2308,12 +2293,6 @@
     <t>karaciger-benign_others_TR</t>
   </si>
   <si>
-    <t>pankreas_others_TR</t>
-  </si>
-  <si>
-    <t>pdac_others_TR</t>
-  </si>
-  <si>
     <t>safra-kesesi_others_TR</t>
   </si>
   <si>
@@ -2524,12 +2503,6 @@
     <t>benign-liver-tumors_epub_word_EN</t>
   </si>
   <si>
-    <t>pancreas_epub_word_EN</t>
-  </si>
-  <si>
-    <t>pdac_epub_word_EN</t>
-  </si>
-  <si>
     <t>gallbladder_epub_word_EN</t>
   </si>
   <si>
@@ -2647,9 +2620,6 @@
     <t>crohn_pdf_EN</t>
   </si>
   <si>
-    <t>pdac_pdf_EN</t>
-  </si>
-  <si>
     <t>ampulla-vater_pdf_EN</t>
   </si>
   <si>
@@ -2773,9 +2743,6 @@
     <t>benign-liver-tumors_pdf_EN</t>
   </si>
   <si>
-    <t>pancreas_pdf_EN</t>
-  </si>
-  <si>
     <t>gallbladder_pdf_EN</t>
   </si>
   <si>
@@ -2888,6 +2855,27 @@
   </si>
   <si>
     <t>malignant-liver-tumors_pdf_EN</t>
+  </si>
+  <si>
+    <t>pankreas-malign</t>
+  </si>
+  <si>
+    <t>pankreas-malign_epub_word_TR</t>
+  </si>
+  <si>
+    <t>pankreas-malign_pdf_TR</t>
+  </si>
+  <si>
+    <t>pankreas-malign_others_TR</t>
+  </si>
+  <si>
+    <t>pancreas-malignant</t>
+  </si>
+  <si>
+    <t>pancreas-malignant_epub_word_EN</t>
+  </si>
+  <si>
+    <t>pancreas-malignant_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -3256,11 +3244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3293,13 +3281,13 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H1" t="s">
         <v>64</v>
@@ -3308,10 +3296,10 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="K1" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="L1" t="s">
         <v>58</v>
@@ -3334,22 +3322,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="I2" t="s">
         <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="K2" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3360,22 +3348,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I3" t="s">
         <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="K3" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3386,22 +3374,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G4" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="I4" t="s">
         <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="K4" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3412,22 +3400,22 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G5" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="I5" t="s">
         <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="K5" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3438,22 +3426,22 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G6" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="I6" t="s">
         <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="K6" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3464,22 +3452,22 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="I7" t="s">
         <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="K7" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3490,22 +3478,22 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F8" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G8" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="I8" t="s">
         <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="K8" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3516,22 +3504,22 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G9" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="I9" t="s">
         <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="K9" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3542,22 +3530,22 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G10" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="I10" t="s">
         <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="K10" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3568,22 +3556,22 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G11" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="I11" t="s">
         <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="K11" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -3594,22 +3582,22 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G12" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I12" t="s">
         <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="K12" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -3620,22 +3608,22 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F13" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G13" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="I13" t="s">
         <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="K13" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3646,22 +3634,22 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G14" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I14" t="s">
         <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="K14" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3672,22 +3660,22 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G15" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I15" t="s">
         <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="K15" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -3698,22 +3686,22 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G16" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="I16" t="s">
         <v>121</v>
       </c>
       <c r="J16" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="K16" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3724,22 +3712,22 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F17" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G17" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="K17" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3750,22 +3738,22 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F18" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G18" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I18" t="s">
         <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="K18" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3776,22 +3764,22 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G19" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="I19" t="s">
         <v>123</v>
       </c>
       <c r="J19" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="K19" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3802,22 +3790,22 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F20" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G20" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="I20" t="s">
         <v>124</v>
       </c>
       <c r="J20" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="K20" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3828,22 +3816,22 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G21" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="I21" t="s">
         <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="K21" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3854,22 +3842,22 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G22" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="I22" t="s">
         <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="K22" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3880,22 +3868,22 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F23" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G23" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="I23" t="s">
         <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="K23" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3906,22 +3894,22 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F24" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G24" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="K24" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3932,22 +3920,22 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F25" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G25" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="I25" t="s">
         <v>128</v>
       </c>
       <c r="J25" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="K25" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3958,22 +3946,22 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F26" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G26" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="I26" t="s">
         <v>129</v>
       </c>
       <c r="J26" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="K26" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3984,22 +3972,22 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F27" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G27" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="I27" t="s">
         <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="K27" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4010,22 +3998,22 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F28" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G28" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="I28" t="s">
         <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="K28" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -4033,25 +4021,25 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="E29" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="F29" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="G29" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="I29" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="J29" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="K29" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4062,22 +4050,22 @@
         <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F30" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G30" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="I30" t="s">
         <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="K30" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4088,22 +4076,22 @@
         <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F31" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G31" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="I31" t="s">
         <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="K31" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4114,22 +4102,22 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G32" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="I32" t="s">
         <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="K32" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -4140,22 +4128,22 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F33" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G33" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I33" t="s">
         <v>42</v>
       </c>
       <c r="J33" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="K33" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,22 +4154,22 @@
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F34" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G34" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I34" t="s">
         <v>134</v>
       </c>
       <c r="J34" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="K34" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -4192,22 +4180,22 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G35" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I35" t="s">
         <v>135</v>
       </c>
       <c r="J35" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="K35" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -4218,22 +4206,22 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F36" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G36" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="I36" t="s">
         <v>136</v>
       </c>
       <c r="J36" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="K36" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -4244,22 +4232,22 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G37" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="I37" t="s">
         <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="K37" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -4270,22 +4258,22 @@
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F38" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G38" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="I38" t="s">
         <v>137</v>
       </c>
       <c r="J38" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="K38" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -4296,22 +4284,22 @@
         <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G39" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="I39" t="s">
         <v>48</v>
       </c>
       <c r="J39" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="K39" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -4322,22 +4310,22 @@
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F40" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G40" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="I40" t="s">
         <v>138</v>
       </c>
       <c r="J40" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="K40" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -4345,10 +4333,10 @@
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="I41" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -4359,22 +4347,22 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F42" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G42" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="I42" t="s">
         <v>139</v>
       </c>
       <c r="J42" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="K42" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -4382,25 +4370,25 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="E43" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="F43" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="G43" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="I43" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="J43" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="K43" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -4408,25 +4396,25 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>939</v>
       </c>
       <c r="E44" t="s">
-        <v>610</v>
+        <v>940</v>
       </c>
       <c r="F44" t="s">
-        <v>683</v>
+        <v>941</v>
       </c>
       <c r="G44" t="s">
-        <v>756</v>
+        <v>942</v>
       </c>
       <c r="I44" t="s">
-        <v>140</v>
+        <v>943</v>
       </c>
       <c r="J44" t="s">
-        <v>828</v>
+        <v>944</v>
       </c>
       <c r="K44" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -4434,25 +4422,25 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F45" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G45" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="J45" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="K45" t="s">
-        <v>869</v>
+        <v>901</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -4460,103 +4448,103 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F46" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G46" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="I46" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="K46" t="s">
-        <v>912</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F47" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G47" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="J47" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="K47" t="s">
-        <v>870</v>
+        <v>902</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F48" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G48" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I48" t="s">
         <v>142</v>
       </c>
       <c r="J48" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="K48" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F49" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G49" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I49" t="s">
         <v>143</v>
       </c>
       <c r="J49" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="K49" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4564,25 +4552,25 @@
         <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F50" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G50" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="I50" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="J50" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="K50" t="s">
-        <v>915</v>
+        <v>861</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4590,25 +4578,25 @@
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F51" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G51" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="J51" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="K51" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4616,25 +4604,25 @@
         <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F52" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G52" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="I52" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="K52" t="s">
-        <v>916</v>
+        <v>862</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4642,51 +4630,51 @@
         <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F53" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G53" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="K53" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F54" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G54" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="I54" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="J54" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="K54" t="s">
-        <v>873</v>
+        <v>906</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -4694,25 +4682,25 @@
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F55" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G55" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="I55" t="s">
         <v>146</v>
       </c>
       <c r="J55" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="K55" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -4720,103 +4708,103 @@
         <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F56" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G56" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="I56" t="s">
         <v>147</v>
       </c>
       <c r="J56" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="K56" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F57" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G57" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="I57" t="s">
         <v>148</v>
       </c>
       <c r="J57" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="K57" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F58" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G58" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="I58" t="s">
         <v>149</v>
       </c>
       <c r="J58" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="K58" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F59" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G59" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="I59" t="s">
         <v>150</v>
       </c>
       <c r="J59" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="K59" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -4824,25 +4812,25 @@
         <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F60" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G60" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="I60" t="s">
         <v>151</v>
       </c>
       <c r="J60" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="K60" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4850,51 +4838,51 @@
         <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F61" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G61" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="I61" t="s">
         <v>152</v>
       </c>
       <c r="J61" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="K61" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F62" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G62" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="I62" t="s">
         <v>153</v>
       </c>
       <c r="J62" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="K62" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4902,25 +4890,25 @@
         <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F63" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G63" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="I63" t="s">
         <v>154</v>
       </c>
       <c r="J63" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="K63" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4928,129 +4916,129 @@
         <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F64" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G64" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="I64" t="s">
         <v>155</v>
       </c>
       <c r="J64" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="K64" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F65" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G65" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I65" t="s">
         <v>156</v>
       </c>
       <c r="J65" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="K65" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F66" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G66" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="I66" t="s">
         <v>157</v>
       </c>
       <c r="J66" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="K66" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F67" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G67" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="I67" t="s">
         <v>158</v>
       </c>
       <c r="J67" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="K67" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F68" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G68" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="I68" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="J68" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="K68" t="s">
-        <v>930</v>
+        <v>864</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -5058,25 +5046,25 @@
         <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F69" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G69" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J69" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="K69" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -5084,25 +5072,25 @@
         <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F70" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G70" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J70" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="K70" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -5110,25 +5098,25 @@
         <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F71" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G71" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J71" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="K71" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -5136,51 +5124,51 @@
         <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F72" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G72" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J72" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="K72" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E73" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F73" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G73" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J73" t="s">
-        <v>857</v>
+        <v>922</v>
       </c>
       <c r="K73" t="s">
-        <v>878</v>
+        <v>923</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -5188,25 +5176,25 @@
         <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F74" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G74" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="J74" t="s">
-        <v>933</v>
+        <v>849</v>
       </c>
       <c r="K74" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -5214,51 +5202,25 @@
         <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F75" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G75" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="I75" t="s">
         <v>160</v>
       </c>
       <c r="J75" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="K75" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s">
-        <v>106</v>
-      </c>
-      <c r="E76" t="s">
-        <v>642</v>
-      </c>
-      <c r="F76" t="s">
-        <v>715</v>
-      </c>
-      <c r="G76" t="s">
-        <v>788</v>
-      </c>
-      <c r="I76" t="s">
-        <v>161</v>
-      </c>
-      <c r="J76" t="s">
-        <v>859</v>
-      </c>
-      <c r="K76" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -5289,13 +5251,13 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
         <v>69</v>
@@ -5309,13 +5271,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5323,13 +5285,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" t="s">
         <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>442</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5337,13 +5299,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" t="s">
         <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5351,13 +5313,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" t="s">
         <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5365,13 +5327,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" t="s">
         <v>170</v>
-      </c>
-      <c r="C6" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5379,13 +5341,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7" t="s">
         <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5393,13 +5355,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5407,13 +5369,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5421,13 +5383,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" t="s">
         <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>449</v>
-      </c>
-      <c r="D10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5435,13 +5397,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11" t="s">
         <v>178</v>
-      </c>
-      <c r="C11" t="s">
-        <v>450</v>
-      </c>
-      <c r="D11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5449,13 +5411,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5463,13 +5425,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5477,13 +5439,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5491,13 +5453,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5505,13 +5467,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5519,13 +5481,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5533,13 +5495,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -5547,13 +5509,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5561,13 +5523,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5575,13 +5537,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5589,13 +5551,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5603,13 +5565,13 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5617,13 +5579,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -5631,13 +5593,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5645,13 +5607,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5659,13 +5621,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5673,13 +5635,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5687,13 +5649,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5701,13 +5663,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -5715,13 +5677,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -5729,13 +5691,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5743,13 +5705,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5757,13 +5719,13 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5771,13 +5733,13 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -5785,13 +5747,13 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -5799,13 +5761,13 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5813,13 +5775,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5827,13 +5789,13 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -5841,13 +5803,13 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5855,13 +5817,13 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -5869,13 +5831,13 @@
         <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -5883,13 +5845,13 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C43" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5897,13 +5859,13 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -5911,13 +5873,13 @@
         <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5925,13 +5887,13 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -5939,13 +5901,13 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C47" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5953,13 +5915,13 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -5967,13 +5929,13 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -5981,13 +5943,13 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -5995,13 +5957,13 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -6009,13 +5971,13 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -6023,13 +5985,13 @@
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C53" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -6037,13 +5999,13 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -6051,13 +6013,13 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C55" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -6065,13 +6027,13 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -6079,13 +6041,13 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -6093,13 +6055,13 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C58" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -6107,13 +6069,13 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -6121,13 +6083,13 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -6135,13 +6097,13 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -6149,13 +6111,13 @@
         <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C62" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -6163,13 +6125,13 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C63" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -6177,13 +6139,13 @@
         <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C64" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -6191,13 +6153,13 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C65" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -6205,13 +6167,13 @@
         <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -6219,13 +6181,13 @@
         <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C67" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -6233,13 +6195,13 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -6247,13 +6209,13 @@
         <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C69" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -6261,13 +6223,13 @@
         <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C70" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -6275,13 +6237,13 @@
         <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C71" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -6289,13 +6251,13 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C72" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -6303,13 +6265,13 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C73" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -6317,13 +6279,13 @@
         <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -6331,13 +6293,13 @@
         <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C75" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -6345,13 +6307,13 @@
         <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -6359,13 +6321,13 @@
         <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C77" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -6373,13 +6335,13 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C78" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -6387,13 +6349,13 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C79" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -6401,13 +6363,13 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C80" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -6415,13 +6377,13 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C81" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -6429,13 +6391,13 @@
         <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C82" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -6443,13 +6405,13 @@
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C83" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D83" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -6457,13 +6419,13 @@
         <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C84" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -6471,13 +6433,13 @@
         <v>53</v>
       </c>
       <c r="B85" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C85" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -6485,13 +6447,13 @@
         <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -6499,13 +6461,13 @@
         <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -6513,13 +6475,13 @@
         <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C88" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -6527,13 +6489,13 @@
         <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -6541,13 +6503,13 @@
         <v>55</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -6555,13 +6517,13 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C91" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -6569,13 +6531,13 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -6583,13 +6545,13 @@
         <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C93" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -6597,13 +6559,13 @@
         <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C94" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -6611,13 +6573,13 @@
         <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C95" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -6625,13 +6587,13 @@
         <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C96" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -6639,13 +6601,13 @@
         <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C97" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -6653,13 +6615,13 @@
         <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C98" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -6667,13 +6629,13 @@
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C99" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -6681,13 +6643,13 @@
         <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C100" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -6695,13 +6657,13 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C101" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -6709,13 +6671,13 @@
         <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C102" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -6723,13 +6685,13 @@
         <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C103" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -6737,13 +6699,13 @@
         <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C104" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -6751,13 +6713,13 @@
         <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C105" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -6765,13 +6727,13 @@
         <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C106" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -6779,13 +6741,13 @@
         <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C107" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D107" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -6793,13 +6755,13 @@
         <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C108" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D108" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -6807,13 +6769,13 @@
         <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C109" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -6821,13 +6783,13 @@
         <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C110" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -6835,13 +6797,13 @@
         <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C111" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D111" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -6849,13 +6811,13 @@
         <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C112" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -6863,13 +6825,13 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C113" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -6877,13 +6839,13 @@
         <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C114" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -6891,13 +6853,13 @@
         <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C115" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -6905,13 +6867,13 @@
         <v>94</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C116" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -6919,13 +6881,13 @@
         <v>96</v>
       </c>
       <c r="B117" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C117" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -6933,13 +6895,13 @@
         <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -6947,13 +6909,13 @@
         <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C119" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -6961,13 +6923,13 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -6975,13 +6937,13 @@
         <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C121" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -6989,13 +6951,13 @@
         <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C122" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -7003,13 +6965,13 @@
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C123" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -7017,13 +6979,13 @@
         <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C124" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D124" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -7031,13 +6993,13 @@
         <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D125" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -7045,13 +7007,13 @@
         <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C126" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D126" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -7059,13 +7021,13 @@
         <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C127" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D127" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -7073,13 +7035,13 @@
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C128" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D128" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -7087,7 +7049,7 @@
         <v>99</v>
       </c>
       <c r="D129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -7095,7 +7057,7 @@
         <v>99</v>
       </c>
       <c r="D130" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -7103,7 +7065,7 @@
         <v>99</v>
       </c>
       <c r="D131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -7111,7 +7073,7 @@
         <v>99</v>
       </c>
       <c r="D132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -7119,7 +7081,7 @@
         <v>99</v>
       </c>
       <c r="D133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -7127,7 +7089,7 @@
         <v>99</v>
       </c>
       <c r="D134" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -7135,7 +7097,7 @@
         <v>99</v>
       </c>
       <c r="D135" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -7143,7 +7105,7 @@
         <v>99</v>
       </c>
       <c r="D136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -7151,7 +7113,7 @@
         <v>99</v>
       </c>
       <c r="D137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -7159,7 +7121,7 @@
         <v>99</v>
       </c>
       <c r="D138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -7167,7 +7129,7 @@
         <v>99</v>
       </c>
       <c r="D139" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -7175,7 +7137,7 @@
         <v>99</v>
       </c>
       <c r="D140" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -7183,7 +7145,7 @@
         <v>99</v>
       </c>
       <c r="D141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -7191,7 +7153,7 @@
         <v>99</v>
       </c>
       <c r="D142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -7199,7 +7161,7 @@
         <v>99</v>
       </c>
       <c r="D143" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -7207,7 +7169,7 @@
         <v>99</v>
       </c>
       <c r="D144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -7215,7 +7177,7 @@
         <v>99</v>
       </c>
       <c r="D145" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -7223,7 +7185,7 @@
         <v>99</v>
       </c>
       <c r="D146" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -7231,7 +7193,7 @@
         <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -7239,7 +7201,7 @@
         <v>99</v>
       </c>
       <c r="D148" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -7247,7 +7209,7 @@
         <v>99</v>
       </c>
       <c r="D149" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -7255,13 +7217,13 @@
         <v>101</v>
       </c>
       <c r="B150" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C150" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D150" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF70F7-C2E1-3744-A2DD-328E76719CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57F091-5B06-A849-BCE8-A61745C95612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="948">
   <si>
     <t>index</t>
   </si>
@@ -2876,6 +2876,12 @@
   </si>
   <si>
     <t>pancreas-malignant_pdf_EN</t>
+  </si>
+  <si>
+    <t>artirilmis-gerceklik</t>
+  </si>
+  <si>
+    <t>augmented-reality</t>
   </si>
 </sst>
 </file>
@@ -2917,8 +2923,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2948,9 +2955,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2988,7 +2995,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3094,7 +3101,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3236,7 +3243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3244,11 +3251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5221,6 +5228,17 @@
       </c>
       <c r="K75" t="s">
         <v>921</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" t="s">
+        <v>946</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalci/Documents/GitHub/patolojiatlasi.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\patolojiatlasi-github-io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57F091-5B06-A849-BCE8-A61745C95612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6664C010-D383-469C-98AD-30E259F68C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
+    <workbookView xWindow="7800" yWindow="7800" windowWidth="43200" windowHeight="23445" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
   <sheets>
     <sheet name="chapters" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="955">
   <si>
     <t>index</t>
   </si>
@@ -2882,6 +2882,27 @@
   </si>
   <si>
     <t>augmented-reality</t>
+  </si>
+  <si>
+    <t>akciger</t>
+  </si>
+  <si>
+    <t>akciger_epub_word_TR</t>
+  </si>
+  <si>
+    <t>akciger_pdf_TR</t>
+  </si>
+  <si>
+    <t>akciger_others_TR</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>lung_epub_word_EN</t>
+  </si>
+  <si>
+    <t>lung_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -2923,9 +2944,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2955,9 +2975,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2995,7 +3015,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3101,7 +3121,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3243,7 +3263,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3251,30 +3271,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="29.375" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.625" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3321,7 +3341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3347,7 +3367,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3373,7 +3393,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3399,7 +3419,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3425,7 +3445,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3451,7 +3471,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3477,7 +3497,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3503,7 +3523,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3529,7 +3549,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3555,7 +3575,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3581,7 +3601,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3607,7 +3627,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3633,7 +3653,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3659,7 +3679,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3685,7 +3705,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3711,7 +3731,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3737,7 +3757,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3763,7 +3783,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3789,7 +3809,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3815,7 +3835,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3867,7 +3887,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3893,7 +3913,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3919,7 +3939,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3945,7 +3965,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3971,7 +3991,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3997,7 +4017,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4023,7 +4043,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4049,7 +4069,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -4075,7 +4095,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -4101,7 +4121,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4127,7 +4147,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -4153,7 +4173,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4179,7 +4199,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4205,7 +4225,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4231,7 +4251,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -4257,7 +4277,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -4283,7 +4303,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -4309,7 +4329,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4335,7 +4355,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4346,7 +4366,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -4372,7 +4392,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -4398,7 +4418,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -4424,7 +4444,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -4450,7 +4470,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -4476,7 +4496,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -4502,742 +4522,768 @@
         <v>902</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>948</v>
+      </c>
+      <c r="E48" t="s">
+        <v>949</v>
+      </c>
+      <c r="F48" t="s">
+        <v>950</v>
+      </c>
+      <c r="G48" t="s">
+        <v>951</v>
+      </c>
+      <c r="I48" t="s">
+        <v>952</v>
+      </c>
+      <c r="J48" t="s">
+        <v>953</v>
+      </c>
+      <c r="K48" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>65</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>66</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>612</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>683</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>754</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I49" t="s">
         <v>142</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J49" t="s">
         <v>824</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K49" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" t="s">
-        <v>613</v>
-      </c>
-      <c r="F49" t="s">
-        <v>684</v>
-      </c>
-      <c r="G49" t="s">
-        <v>755</v>
-      </c>
-      <c r="I49" t="s">
-        <v>143</v>
-      </c>
-      <c r="J49" t="s">
-        <v>825</v>
-      </c>
-      <c r="K49" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F50" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G50" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="J50" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K50" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F51" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G51" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K51" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F52" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G52" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="J52" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K52" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
       <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>616</v>
+      </c>
+      <c r="F53" t="s">
+        <v>687</v>
+      </c>
+      <c r="G53" t="s">
+        <v>758</v>
+      </c>
+      <c r="I53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" t="s">
+        <v>828</v>
+      </c>
+      <c r="K53" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" t="s">
         <v>74</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>617</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>688</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>759</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I54" t="s">
         <v>74</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J54" t="s">
         <v>829</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K54" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" t="s">
-        <v>618</v>
-      </c>
-      <c r="F54" t="s">
-        <v>689</v>
-      </c>
-      <c r="G54" t="s">
-        <v>760</v>
-      </c>
-      <c r="I54" t="s">
-        <v>145</v>
-      </c>
-      <c r="J54" t="s">
-        <v>830</v>
-      </c>
-      <c r="K54" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G55" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J55" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K55" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
       <c r="D56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>619</v>
+      </c>
+      <c r="F56" t="s">
+        <v>690</v>
+      </c>
+      <c r="G56" t="s">
+        <v>761</v>
+      </c>
+      <c r="I56" t="s">
+        <v>146</v>
+      </c>
+      <c r="J56" t="s">
+        <v>831</v>
+      </c>
+      <c r="K56" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
         <v>78</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>620</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>691</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>762</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I57" t="s">
         <v>147</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J57" t="s">
         <v>832</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K57" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>79</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>80</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>621</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>692</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>763</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>148</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J58" t="s">
         <v>833</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K58" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>81</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>82</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>622</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>693</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>764</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I59" t="s">
         <v>149</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J59" t="s">
         <v>834</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K59" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" t="s">
-        <v>623</v>
-      </c>
-      <c r="F59" t="s">
-        <v>694</v>
-      </c>
-      <c r="G59" t="s">
-        <v>765</v>
-      </c>
-      <c r="I59" t="s">
-        <v>150</v>
-      </c>
-      <c r="J59" t="s">
-        <v>835</v>
-      </c>
-      <c r="K59" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F60" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G60" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J60" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K60" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
       <c r="D61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" t="s">
+        <v>624</v>
+      </c>
+      <c r="F61" t="s">
+        <v>695</v>
+      </c>
+      <c r="G61" t="s">
+        <v>766</v>
+      </c>
+      <c r="I61" t="s">
+        <v>151</v>
+      </c>
+      <c r="J61" t="s">
+        <v>836</v>
+      </c>
+      <c r="K61" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
         <v>86</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>625</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>696</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>767</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>152</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J62" t="s">
         <v>837</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K62" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" t="s">
-        <v>626</v>
-      </c>
-      <c r="F62" t="s">
-        <v>697</v>
-      </c>
-      <c r="G62" t="s">
-        <v>768</v>
-      </c>
-      <c r="I62" t="s">
-        <v>153</v>
-      </c>
-      <c r="J62" t="s">
-        <v>838</v>
-      </c>
-      <c r="K62" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F63" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G63" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J63" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K63" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>87</v>
       </c>
       <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" t="s">
+        <v>627</v>
+      </c>
+      <c r="F64" t="s">
+        <v>698</v>
+      </c>
+      <c r="G64" t="s">
+        <v>769</v>
+      </c>
+      <c r="I64" t="s">
+        <v>154</v>
+      </c>
+      <c r="J64" t="s">
+        <v>839</v>
+      </c>
+      <c r="K64" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
         <v>90</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>628</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>699</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>770</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I65" t="s">
         <v>155</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J65" t="s">
         <v>840</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K65" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>91</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>92</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>629</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>700</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>771</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>156</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J66" t="s">
         <v>841</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K66" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>93</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>94</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>630</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>701</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>772</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" t="s">
         <v>157</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J67" t="s">
         <v>842</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K67" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>95</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>96</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>631</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>702</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>773</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I68" t="s">
         <v>158</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J68" t="s">
         <v>843</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K68" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" t="s">
-        <v>632</v>
-      </c>
-      <c r="F68" t="s">
-        <v>703</v>
-      </c>
-      <c r="G68" t="s">
-        <v>774</v>
-      </c>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-      <c r="J68" t="s">
-        <v>844</v>
-      </c>
-      <c r="K68" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>97</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F69" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G69" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J69" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K69" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F70" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G70" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J70" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K70" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F71" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G71" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J71" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K71" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
       <c r="D72" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" t="s">
+        <v>635</v>
+      </c>
+      <c r="F72" t="s">
+        <v>706</v>
+      </c>
+      <c r="G72" t="s">
+        <v>777</v>
+      </c>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>847</v>
+      </c>
+      <c r="K72" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" t="s">
         <v>102</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>636</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>707</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>778</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I73" t="s">
         <v>102</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J73" t="s">
         <v>848</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K73" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" t="s">
-        <v>637</v>
-      </c>
-      <c r="F73" t="s">
-        <v>708</v>
-      </c>
-      <c r="G73" t="s">
-        <v>779</v>
-      </c>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-      <c r="J73" t="s">
-        <v>922</v>
-      </c>
-      <c r="K73" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F74" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G74" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I74" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J74" t="s">
-        <v>849</v>
+        <v>922</v>
       </c>
       <c r="K74" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F75" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G75" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J75" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K75" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>104</v>
       </c>
       <c r="D76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" t="s">
+        <v>639</v>
+      </c>
+      <c r="F76" t="s">
+        <v>710</v>
+      </c>
+      <c r="G76" t="s">
+        <v>781</v>
+      </c>
+      <c r="I76" t="s">
+        <v>160</v>
+      </c>
+      <c r="J76" t="s">
+        <v>850</v>
+      </c>
+      <c r="K76" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
         <v>946</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I77" t="s">
         <v>947</v>
       </c>
     </row>
@@ -5257,14 +5303,14 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="94.33203125" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="94.375" customWidth="1"/>
+    <col min="4" max="4" width="61.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -5284,7 +5330,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5298,7 +5344,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5312,7 +5358,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5326,7 +5372,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5340,7 +5386,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5354,7 +5400,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5368,7 +5414,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5382,7 +5428,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5396,7 +5442,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5424,7 +5470,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -5438,7 +5484,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -5452,7 +5498,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5466,7 +5512,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -5480,7 +5526,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -5494,7 +5540,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5508,7 +5554,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -5522,7 +5568,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -5536,7 +5582,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5550,7 +5596,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -5564,7 +5610,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -5578,7 +5624,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5592,7 +5638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -5606,7 +5652,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -5620,7 +5666,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5634,7 +5680,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5648,7 +5694,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -5662,7 +5708,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -5676,7 +5722,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -5690,7 +5736,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -5704,7 +5750,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -5718,7 +5764,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -5732,7 +5778,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -5746,7 +5792,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -5760,7 +5806,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -5774,7 +5820,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -5788,7 +5834,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -5802,7 +5848,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -5816,7 +5862,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5830,7 +5876,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -5844,7 +5890,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -5858,7 +5904,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -5872,7 +5918,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -5886,7 +5932,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -5900,7 +5946,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -5914,7 +5960,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -5928,7 +5974,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -5942,7 +5988,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -5956,7 +6002,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -5970,7 +6016,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -5984,7 +6030,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -5998,7 +6044,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -6012,7 +6058,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -6026,7 +6072,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -6040,7 +6086,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -6054,7 +6100,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -6068,7 +6114,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -6082,7 +6128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -6096,7 +6142,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -6110,7 +6156,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -6124,7 +6170,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -6138,7 +6184,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -6152,7 +6198,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -6166,7 +6212,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -6180,7 +6226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -6194,7 +6240,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -6208,7 +6254,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -6222,7 +6268,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -6236,7 +6282,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -6250,7 +6296,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -6264,7 +6310,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -6278,7 +6324,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -6292,7 +6338,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -6306,7 +6352,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -6320,7 +6366,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -6334,7 +6380,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -6348,7 +6394,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -6362,7 +6408,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -6376,7 +6422,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>49</v>
       </c>
@@ -6390,7 +6436,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -6404,7 +6450,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>49</v>
       </c>
@@ -6418,7 +6464,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -6432,7 +6478,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -6446,7 +6492,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -6460,7 +6506,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -6474,7 +6520,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>54</v>
       </c>
@@ -6488,7 +6534,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -6502,7 +6548,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -6516,7 +6562,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>55</v>
       </c>
@@ -6530,7 +6576,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>56</v>
       </c>
@@ -6544,7 +6590,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>56</v>
       </c>
@@ -6558,7 +6604,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -6572,7 +6618,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -6586,7 +6632,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -6600,7 +6646,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>72</v>
       </c>
@@ -6614,7 +6660,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -6628,7 +6674,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -6642,7 +6688,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -6656,7 +6702,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -6670,7 +6716,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -6684,7 +6730,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>84</v>
       </c>
@@ -6698,7 +6744,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -6712,7 +6758,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -6726,7 +6772,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -6740,7 +6786,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>85</v>
       </c>
@@ -6754,7 +6800,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -6768,7 +6814,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>86</v>
       </c>
@@ -6782,7 +6828,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -6796,7 +6842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>89</v>
       </c>
@@ -6810,7 +6856,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>89</v>
       </c>
@@ -6824,7 +6870,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -6838,7 +6884,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -6852,7 +6898,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -6866,7 +6912,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -6880,7 +6926,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -6894,7 +6940,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -6908,7 +6954,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -6922,7 +6968,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -6936,7 +6982,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -6950,7 +6996,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>99</v>
       </c>
@@ -6964,7 +7010,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>99</v>
       </c>
@@ -6978,7 +7024,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -6992,7 +7038,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>99</v>
       </c>
@@ -7006,7 +7052,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>99</v>
       </c>
@@ -7020,7 +7066,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -7034,7 +7080,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -7048,7 +7094,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -7062,7 +7108,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -7070,7 +7116,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -7078,7 +7124,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>99</v>
       </c>
@@ -7086,7 +7132,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -7094,7 +7140,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>99</v>
       </c>
@@ -7102,7 +7148,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>99</v>
       </c>
@@ -7110,7 +7156,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>99</v>
       </c>
@@ -7118,7 +7164,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>99</v>
       </c>
@@ -7126,7 +7172,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>99</v>
       </c>
@@ -7134,7 +7180,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>99</v>
       </c>
@@ -7142,7 +7188,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -7150,7 +7196,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -7158,7 +7204,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>99</v>
       </c>
@@ -7166,7 +7212,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>99</v>
       </c>
@@ -7174,7 +7220,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>99</v>
       </c>
@@ -7182,7 +7228,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -7190,7 +7236,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>99</v>
       </c>
@@ -7198,7 +7244,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -7206,7 +7252,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
@@ -7214,7 +7260,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>99</v>
       </c>
@@ -7222,7 +7268,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -7230,7 +7276,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>101</v>
       </c>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\patolojiatlasi-github-io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6664C010-D383-469C-98AD-30E259F68C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCFE574-5A84-4812-9242-6B27B4B718A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="7800" windowWidth="43200" windowHeight="23445" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="954">
   <si>
     <t>index</t>
   </si>
@@ -2857,27 +2857,6 @@
     <t>malignant-liver-tumors_pdf_EN</t>
   </si>
   <si>
-    <t>pankreas-malign</t>
-  </si>
-  <si>
-    <t>pankreas-malign_epub_word_TR</t>
-  </si>
-  <si>
-    <t>pankreas-malign_pdf_TR</t>
-  </si>
-  <si>
-    <t>pankreas-malign_others_TR</t>
-  </si>
-  <si>
-    <t>pancreas-malignant</t>
-  </si>
-  <si>
-    <t>pancreas-malignant_epub_word_EN</t>
-  </si>
-  <si>
-    <t>pancreas-malignant_pdf_EN</t>
-  </si>
-  <si>
     <t>artirilmis-gerceklik</t>
   </si>
   <si>
@@ -2903,6 +2882,24 @@
   </si>
   <si>
     <t>lung_pdf_EN</t>
+  </si>
+  <si>
+    <t>pankreas_epub_word_TR</t>
+  </si>
+  <si>
+    <t>pankreas_pdf_TR</t>
+  </si>
+  <si>
+    <t>pankreas_others_TR</t>
+  </si>
+  <si>
+    <t>pancreas</t>
+  </si>
+  <si>
+    <t>pancreas_epub_word_EN</t>
+  </si>
+  <si>
+    <t>pancreas_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -3274,8 +3271,8 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4423,25 +4420,25 @@
         <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>939</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="F44" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="G44" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="I44" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="J44" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="K44" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4527,25 +4524,25 @@
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="E48" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="F48" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="G48" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="I48" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="J48" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="K48" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -5281,10 +5278,10 @@
         <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="I77" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/patolojiatlasi_histopathologyatlas.xlsx
+++ b/patolojiatlasi_histopathologyatlas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\patolojiatlasi-github-io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCFE574-5A84-4812-9242-6B27B4B718A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919F1CA3-F460-4CD8-9EEF-FEE45A811615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="7800" windowWidth="43200" windowHeight="23445" xr2:uid="{FA6C717B-FB25-2245-91D9-0B0F4ECD8921}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="962">
   <si>
     <t>index</t>
   </si>
@@ -2900,6 +2900,30 @@
   </si>
   <si>
     <t>pancreas_pdf_EN</t>
+  </si>
+  <si>
+    <t>Deri Patolojisi</t>
+  </si>
+  <si>
+    <t>deri</t>
+  </si>
+  <si>
+    <t>deri_epub_word_TR</t>
+  </si>
+  <si>
+    <t>deri_pdf_TR</t>
+  </si>
+  <si>
+    <t>deri_others_TR</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>skin_epub_word_EN</t>
+  </si>
+  <si>
+    <t>skin_pdf_EN</t>
   </si>
 </sst>
 </file>
@@ -3268,11 +3292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF82EBB-EDEB-EA49-B179-2BEE1337412D}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5041,54 +5065,54 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>954</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>955</v>
       </c>
       <c r="E68" t="s">
-        <v>631</v>
+        <v>956</v>
       </c>
       <c r="F68" t="s">
-        <v>702</v>
+        <v>957</v>
       </c>
       <c r="G68" t="s">
-        <v>773</v>
+        <v>958</v>
       </c>
       <c r="I68" t="s">
-        <v>158</v>
+        <v>959</v>
       </c>
       <c r="J68" t="s">
-        <v>843</v>
+        <v>960</v>
       </c>
       <c r="K68" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F69" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G69" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I69" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="J69" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K69" t="s">
-        <v>864</v>
+        <v>919</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5096,25 +5120,25 @@
         <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E70" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F70" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G70" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J70" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K70" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5122,25 +5146,25 @@
         <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E71" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F71" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G71" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J71" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K71" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -5148,25 +5172,25 @@
         <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F72" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G72" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J72" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K72" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5174,51 +5198,51 @@
         <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E73" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G73" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J73" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K73" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F74" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G74" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J74" t="s">
-        <v>922</v>
+        <v>848</v>
       </c>
       <c r="K74" t="s">
-        <v>923</v>
+        <v>868</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5226,25 +5250,25 @@
         <v>104</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F75" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G75" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I75" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="J75" t="s">
-        <v>849</v>
+        <v>922</v>
       </c>
       <c r="K75" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5252,25 +5276,25 @@
         <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F76" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G76" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J76" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K76" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -5278,9 +5302,35 @@
         <v>104</v>
       </c>
       <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>639</v>
+      </c>
+      <c r="F77" t="s">
+        <v>710</v>
+      </c>
+      <c r="G77" t="s">
+        <v>781</v>
+      </c>
+      <c r="I77" t="s">
+        <v>160</v>
+      </c>
+      <c r="J77" t="s">
+        <v>850</v>
+      </c>
+      <c r="K77" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s">
         <v>939</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I78" t="s">
         <v>940</v>
       </c>
     </row>
